--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW1.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW1.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.936615386036188</v>
+        <v>4.015347693756912</v>
       </c>
       <c r="C2" t="n">
-        <v>3.87054086457348</v>
+        <v>3.9480095674814693</v>
       </c>
       <c r="D2" t="n">
-        <v>3.4429072684422293</v>
+        <v>3.4771856664437206</v>
       </c>
       <c r="E2" t="n">
-        <v>3.936615386036188</v>
+        <v>3.5490203250851353</v>
       </c>
       <c r="F2" t="n">
-        <v>3.87054086457348</v>
+        <v>3.8828927313900907</v>
       </c>
       <c r="G2" t="n">
-        <v>3.4429072684422293</v>
+        <v>3.8244857998865314</v>
       </c>
       <c r="H2" t="n">
-        <v>3.936615386036188</v>
+        <v>3.847636441568106</v>
       </c>
       <c r="I2" t="n">
-        <v>3.87054086457348</v>
+        <v>3.6955205817341956</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4429072684422293</v>
+        <v>3.4100297197126577</v>
       </c>
       <c r="K2" t="n">
-        <v>3.936615386036188</v>
+        <v>3.8499669281557876</v>
       </c>
       <c r="L2" t="n">
-        <v>3.87054086457348</v>
+        <v>3.8687129641123</v>
       </c>
     </row>
     <row r="3">
@@ -448,34 +448,34 @@
         <v>3.3753327035844043</v>
       </c>
       <c r="C10" t="n">
-        <v>3.8852392538690115</v>
+        <v>3.8977310063691086</v>
       </c>
       <c r="D10" t="n">
-        <v>3.839916011130897</v>
+        <v>3.832365333776751</v>
       </c>
       <c r="E10" t="n">
-        <v>3.3753327035844043</v>
+        <v>3.7349323155385075</v>
       </c>
       <c r="F10" t="n">
-        <v>3.8852392538690115</v>
+        <v>3.2977595847409034</v>
       </c>
       <c r="G10" t="n">
-        <v>3.839916011130897</v>
+        <v>3.3845903378768276</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3753327035844043</v>
+        <v>3.787666167415983</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8852392538690115</v>
+        <v>3.454707829777109</v>
       </c>
       <c r="J10" t="n">
-        <v>3.839916011130897</v>
+        <v>3.4839684832326805</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3753327035844043</v>
+        <v>3.4183424838903633</v>
       </c>
       <c r="L10" t="n">
-        <v>3.8852392538690115</v>
+        <v>3.7236621491144475</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>4.2859518949013555</v>
+        <v>4.243516727625105</v>
       </c>
       <c r="C13" t="n">
-        <v>4.169047046809647</v>
+        <v>4.075292447461598</v>
       </c>
       <c r="D13" t="n">
-        <v>4.5586710764369744</v>
+        <v>4.442391217825845</v>
       </c>
       <c r="E13" t="n">
-        <v>4.2859518949013555</v>
+        <v>4.42086539611853</v>
       </c>
       <c r="F13" t="n">
-        <v>4.169047046809647</v>
+        <v>3.9156913991556865</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5586710764369744</v>
+        <v>4.418189329621374</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2859518949013555</v>
+        <v>4.458673654442366</v>
       </c>
       <c r="I13" t="n">
-        <v>4.169047046809647</v>
+        <v>4.391605758225076</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5586710764369744</v>
+        <v>3.9928056722357286</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2859518949013555</v>
+        <v>4.61076991152688</v>
       </c>
       <c r="L13" t="n">
-        <v>4.169047046809647</v>
+        <v>4.533446444119027</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>3.972019690486721</v>
+        <v>3.933078320972146</v>
       </c>
       <c r="C19" t="n">
-        <v>4.036689022408258</v>
+        <v>3.977494788452983</v>
       </c>
       <c r="D19" t="n">
-        <v>4.195853517248353</v>
+        <v>4.095432134324695</v>
       </c>
       <c r="E19" t="n">
-        <v>3.972019690486721</v>
+        <v>4.449869405890758</v>
       </c>
       <c r="F19" t="n">
-        <v>4.036689022408258</v>
+        <v>3.85347005933442</v>
       </c>
       <c r="G19" t="n">
-        <v>4.195853517248353</v>
+        <v>3.779046817420198</v>
       </c>
       <c r="H19" t="n">
-        <v>3.972019690486721</v>
+        <v>4.266591925259267</v>
       </c>
       <c r="I19" t="n">
-        <v>4.036689022408258</v>
+        <v>4.375244269833675</v>
       </c>
       <c r="J19" t="n">
-        <v>4.195853517248353</v>
+        <v>4.2873665675185935</v>
       </c>
       <c r="K19" t="n">
-        <v>3.972019690486721</v>
+        <v>4.303080801354482</v>
       </c>
       <c r="L19" t="n">
-        <v>4.036689022408258</v>
+        <v>4.264009244565516</v>
       </c>
     </row>
     <row r="20">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>3.66670841504655</v>
+        <v>3.630404371333218</v>
       </c>
       <c r="C26" t="n">
-        <v>3.5643752744757093</v>
+        <v>3.558320528035645</v>
       </c>
       <c r="D26" t="n">
-        <v>3.261958764488709</v>
+        <v>3.276414802072152</v>
       </c>
       <c r="E26" t="n">
-        <v>3.66670841504655</v>
+        <v>3.5690577643318653</v>
       </c>
       <c r="F26" t="n">
-        <v>3.5643752744757093</v>
+        <v>3.339316046362115</v>
       </c>
       <c r="G26" t="n">
-        <v>3.261958764488709</v>
+        <v>3.3020260861057067</v>
       </c>
       <c r="H26" t="n">
-        <v>3.66670841504655</v>
+        <v>3.597280243954046</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5643752744757093</v>
+        <v>3.1608384379389625</v>
       </c>
       <c r="J26" t="n">
-        <v>3.261958764488709</v>
+        <v>3.244064026419447</v>
       </c>
       <c r="K26" t="n">
-        <v>3.66670841504655</v>
+        <v>3.311270278990371</v>
       </c>
       <c r="L26" t="n">
-        <v>3.5643752744757093</v>
+        <v>3.4575279713152915</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>3.036798177052709</v>
+        <v>3.0681053747542832</v>
       </c>
       <c r="C31" t="n">
-        <v>3.0478679158418327</v>
+        <v>3.0830353287238426</v>
       </c>
       <c r="D31" t="n">
-        <v>2.839353068006195</v>
+        <v>2.8619480959294266</v>
       </c>
       <c r="E31" t="n">
-        <v>3.036798177052709</v>
+        <v>3.148142907346674</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0478679158418327</v>
+        <v>3.0699637048054833</v>
       </c>
       <c r="G31" t="n">
-        <v>2.839353068006195</v>
+        <v>3.2018383305731395</v>
       </c>
       <c r="H31" t="n">
-        <v>3.036798177052709</v>
+        <v>3.084911794248693</v>
       </c>
       <c r="I31" t="n">
-        <v>3.0478679158418327</v>
+        <v>2.772707919328946</v>
       </c>
       <c r="J31" t="n">
-        <v>2.839353068006195</v>
+        <v>3.049645052618624</v>
       </c>
       <c r="K31" t="n">
-        <v>3.036798177052709</v>
+        <v>2.71915776607478</v>
       </c>
       <c r="L31" t="n">
-        <v>3.0478679158418327</v>
+        <v>2.9468081851082717</v>
       </c>
     </row>
     <row r="32">
@@ -1281,37 +1281,37 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>3.179752121480435</v>
+        <v>3.21154964269524</v>
       </c>
       <c r="C32" t="n">
-        <v>2.870662206497274</v>
+        <v>2.8865295741098516</v>
       </c>
       <c r="D32" t="n">
-        <v>3.1964359548502976</v>
+        <v>3.1959879234266966</v>
       </c>
       <c r="E32" t="n">
-        <v>3.179752121480435</v>
+        <v>3.2095961469106604</v>
       </c>
       <c r="F32" t="n">
-        <v>2.870662206497274</v>
+        <v>3.3332760974530236</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1964359548502976</v>
+        <v>3.277376438474501</v>
       </c>
       <c r="H32" t="n">
-        <v>3.179752121480435</v>
+        <v>2.8307811485404986</v>
       </c>
       <c r="I32" t="n">
-        <v>2.870662206497274</v>
+        <v>3.2233207477001673</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1964359548502976</v>
+        <v>3.194053307590008</v>
       </c>
       <c r="K32" t="n">
-        <v>3.179752121480435</v>
+        <v>3.0677767810475505</v>
       </c>
       <c r="L32" t="n">
-        <v>2.870662206497274</v>
+        <v>3.174835175950281</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.4840128299119586</v>
+        <v>1.4993119312512573</v>
       </c>
       <c r="C34" t="n">
-        <v>1.4982522418130537</v>
+        <v>1.5066122940589783</v>
       </c>
       <c r="D34" t="n">
-        <v>1.492243121327167</v>
+        <v>1.50569586395735</v>
       </c>
       <c r="E34" t="n">
-        <v>1.4840128299119586</v>
+        <v>1.3977210610444941</v>
       </c>
       <c r="F34" t="n">
-        <v>1.4982522418130537</v>
+        <v>1.5374931680398998</v>
       </c>
       <c r="G34" t="n">
-        <v>1.492243121327167</v>
+        <v>1.512134391951944</v>
       </c>
       <c r="H34" t="n">
-        <v>1.4840128299119586</v>
+        <v>1.4893886876627362</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4982522418130537</v>
+        <v>1.5637169923056415</v>
       </c>
       <c r="J34" t="n">
-        <v>1.492243121327167</v>
+        <v>1.4391651159021235</v>
       </c>
       <c r="K34" t="n">
-        <v>1.4840128299119586</v>
+        <v>1.49840435817031</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4982522418130537</v>
+        <v>1.327984977558146</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2.52650296792092</v>
+        <v>2.501488087050416</v>
       </c>
       <c r="C38" t="n">
-        <v>2.763880693766023</v>
+        <v>2.7717532225535986</v>
       </c>
       <c r="D38" t="n">
-        <v>2.7289013965007087</v>
+        <v>2.724916110690414</v>
       </c>
       <c r="E38" t="n">
-        <v>2.52650296792092</v>
+        <v>2.4132474595691433</v>
       </c>
       <c r="F38" t="n">
-        <v>2.763880693766023</v>
+        <v>2.7167184097564987</v>
       </c>
       <c r="G38" t="n">
-        <v>2.7289013965007087</v>
+        <v>2.6251081382833745</v>
       </c>
       <c r="H38" t="n">
-        <v>2.52650296792092</v>
+        <v>2.470014221114207</v>
       </c>
       <c r="I38" t="n">
-        <v>2.763880693766023</v>
+        <v>2.748135117138975</v>
       </c>
       <c r="J38" t="n">
-        <v>2.7289013965007087</v>
+        <v>2.734818895388452</v>
       </c>
       <c r="K38" t="n">
-        <v>2.52650296792092</v>
+        <v>2.8044633540513915</v>
       </c>
       <c r="L38" t="n">
-        <v>2.763880693766023</v>
+        <v>2.8522969026388725</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.254466501496732</v>
+        <v>2.322100496541634</v>
       </c>
       <c r="C45" t="n">
-        <v>2.316731011852777</v>
+        <v>2.398002951208363</v>
       </c>
       <c r="D45" t="n">
-        <v>2.4511355209642214</v>
+        <v>2.530559401042819</v>
       </c>
       <c r="E45" t="n">
-        <v>2.254466501496732</v>
+        <v>2.3743254682962474</v>
       </c>
       <c r="F45" t="n">
-        <v>2.316731011852777</v>
+        <v>2.5165089114085206</v>
       </c>
       <c r="G45" t="n">
-        <v>2.4511355209642214</v>
+        <v>2.6344463342974076</v>
       </c>
       <c r="H45" t="n">
-        <v>2.254466501496732</v>
+        <v>2.734299006123005</v>
       </c>
       <c r="I45" t="n">
-        <v>2.316731011852777</v>
+        <v>2.6200940243505704</v>
       </c>
       <c r="J45" t="n">
-        <v>2.4511355209642214</v>
+        <v>2.6441022163110626</v>
       </c>
       <c r="K45" t="n">
-        <v>2.254466501496732</v>
+        <v>2.3678311411599053</v>
       </c>
       <c r="L45" t="n">
-        <v>2.316731011852777</v>
+        <v>2.62168099704795</v>
       </c>
     </row>
     <row r="46">
@@ -2006,34 +2006,34 @@
         <v>2.76303668571013</v>
       </c>
       <c r="C51" t="n">
-        <v>2.7281717330148507</v>
+        <v>2.749656362056515</v>
       </c>
       <c r="D51" t="n">
-        <v>2.5578763433528175</v>
+        <v>2.536254779820389</v>
       </c>
       <c r="E51" t="n">
-        <v>2.76303668571013</v>
+        <v>2.64094901714127</v>
       </c>
       <c r="F51" t="n">
-        <v>2.7281717330148507</v>
+        <v>2.7647183865444758</v>
       </c>
       <c r="G51" t="n">
-        <v>2.5578763433528175</v>
+        <v>2.4849192055921168</v>
       </c>
       <c r="H51" t="n">
-        <v>2.76303668571013</v>
+        <v>2.8213865289884765</v>
       </c>
       <c r="I51" t="n">
-        <v>2.7281717330148507</v>
+        <v>2.751321809759234</v>
       </c>
       <c r="J51" t="n">
-        <v>2.5578763433528175</v>
+        <v>2.8695087229987752</v>
       </c>
       <c r="K51" t="n">
-        <v>2.76303668571013</v>
+        <v>2.733112099064898</v>
       </c>
       <c r="L51" t="n">
-        <v>2.7281717330148507</v>
+        <v>2.7748517470893117</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>1.556457273615614</v>
+        <v>1.5102258694488135</v>
       </c>
       <c r="C59" t="n">
-        <v>1.5096537366944376</v>
+        <v>1.463032691374983</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4129160997612087</v>
+        <v>1.3727066745203216</v>
       </c>
       <c r="E59" t="n">
-        <v>1.556457273615614</v>
+        <v>1.4011446063004256</v>
       </c>
       <c r="F59" t="n">
-        <v>1.5096537366944376</v>
+        <v>1.5147967720186555</v>
       </c>
       <c r="G59" t="n">
-        <v>1.4129160997612087</v>
+        <v>1.515714273870471</v>
       </c>
       <c r="H59" t="n">
-        <v>1.556457273615614</v>
+        <v>1.4549094575728703</v>
       </c>
       <c r="I59" t="n">
-        <v>1.5096537366944376</v>
+        <v>1.3425130181486717</v>
       </c>
       <c r="J59" t="n">
-        <v>1.4129160997612087</v>
+        <v>1.5543132100813475</v>
       </c>
       <c r="K59" t="n">
-        <v>1.556457273615614</v>
+        <v>1.5230945020147648</v>
       </c>
       <c r="L59" t="n">
-        <v>1.5096537366944376</v>
+        <v>1.3689520055309128</v>
       </c>
     </row>
     <row r="60">
@@ -2424,34 +2424,34 @@
         <v>2.1729716475024046</v>
       </c>
       <c r="C62" t="n">
-        <v>2.1258759449964275</v>
+        <v>2.1251755957691003</v>
       </c>
       <c r="D62" t="n">
-        <v>2.1957203269657133</v>
+        <v>2.2179884166481996</v>
       </c>
       <c r="E62" t="n">
-        <v>2.1729716475024046</v>
+        <v>2.4317540293996283</v>
       </c>
       <c r="F62" t="n">
-        <v>2.1258759449964275</v>
+        <v>2.3159562175494544</v>
       </c>
       <c r="G62" t="n">
-        <v>2.1957203269657133</v>
+        <v>2.4095664926996694</v>
       </c>
       <c r="H62" t="n">
-        <v>2.1729716475024046</v>
+        <v>2.1946411699580475</v>
       </c>
       <c r="I62" t="n">
-        <v>2.1258759449964275</v>
+        <v>2.3906622270804423</v>
       </c>
       <c r="J62" t="n">
-        <v>2.1957203269657133</v>
+        <v>2.2117963782424135</v>
       </c>
       <c r="K62" t="n">
-        <v>2.1729716475024046</v>
+        <v>2.1172246453957904</v>
       </c>
       <c r="L62" t="n">
-        <v>2.1258759449964275</v>
+        <v>2.236774315087606</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.369249844942474</v>
+        <v>3.3358909355866078</v>
       </c>
       <c r="C65" t="n">
-        <v>3.1799014699378794</v>
+        <v>3.1225490719226108</v>
       </c>
       <c r="D65" t="n">
-        <v>3.2403954178525503</v>
+        <v>3.251080147976364</v>
       </c>
       <c r="E65" t="n">
-        <v>3.369249844942474</v>
+        <v>2.9380658652863634</v>
       </c>
       <c r="F65" t="n">
-        <v>3.1799014699378794</v>
+        <v>2.998762928585458</v>
       </c>
       <c r="G65" t="n">
-        <v>3.2403954178525503</v>
+        <v>2.870542171312178</v>
       </c>
       <c r="H65" t="n">
-        <v>3.369249844942474</v>
+        <v>2.94612419366359</v>
       </c>
       <c r="I65" t="n">
-        <v>3.1799014699378794</v>
+        <v>3.296982446728053</v>
       </c>
       <c r="J65" t="n">
-        <v>3.2403954178525503</v>
+        <v>3.1399832813421527</v>
       </c>
       <c r="K65" t="n">
-        <v>3.369249844942474</v>
+        <v>3.2412700065252813</v>
       </c>
       <c r="L65" t="n">
-        <v>3.1799014699378794</v>
+        <v>3.0071581205689104</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>5.672967106998007</v>
+        <v>5.786426449137966</v>
       </c>
       <c r="C69" t="n">
-        <v>5.577748613416391</v>
+        <v>5.689387003333201</v>
       </c>
       <c r="D69" t="n">
-        <v>4.961495541474159</v>
+        <v>5.010893363022291</v>
       </c>
       <c r="E69" t="n">
-        <v>5.672967106998007</v>
+        <v>5.114412659588752</v>
       </c>
       <c r="F69" t="n">
-        <v>5.577748613416391</v>
+        <v>5.59554860840935</v>
       </c>
       <c r="G69" t="n">
-        <v>4.961495541474159</v>
+        <v>5.511379704732427</v>
       </c>
       <c r="H69" t="n">
-        <v>5.672967106998007</v>
+        <v>5.544741569148069</v>
       </c>
       <c r="I69" t="n">
-        <v>5.577748613416391</v>
+        <v>5.325530855205449</v>
       </c>
       <c r="J69" t="n">
-        <v>4.961495541474159</v>
+        <v>4.914116452025091</v>
       </c>
       <c r="K69" t="n">
-        <v>5.672967106998007</v>
+        <v>5.548099980488459</v>
       </c>
       <c r="L69" t="n">
-        <v>5.577748613416391</v>
+        <v>5.57511446753871</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6.730497879964562</v>
+        <v>6.93445236117561</v>
       </c>
       <c r="C76" t="n">
-        <v>6.617529153529691</v>
+        <v>6.818160307694438</v>
       </c>
       <c r="D76" t="n">
-        <v>5.886396764429043</v>
+        <v>6.005053657596508</v>
       </c>
       <c r="E76" t="n">
-        <v>6.730497879964562</v>
+        <v>6.129111163003749</v>
       </c>
       <c r="F76" t="n">
-        <v>6.617529153529691</v>
+        <v>6.705704392982938</v>
       </c>
       <c r="G76" t="n">
-        <v>5.886396764429043</v>
+        <v>6.6048363947511515</v>
       </c>
       <c r="H76" t="n">
-        <v>6.730497879964562</v>
+        <v>6.644817246750875</v>
       </c>
       <c r="I76" t="n">
-        <v>6.617529153529691</v>
+        <v>6.382115168662446</v>
       </c>
       <c r="J76" t="n">
-        <v>5.886396764429043</v>
+        <v>5.889076225779019</v>
       </c>
       <c r="K76" t="n">
-        <v>6.730497879964562</v>
+        <v>6.648841966265392</v>
       </c>
       <c r="L76" t="n">
-        <v>6.617529153529691</v>
+        <v>6.681216122432101</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>4.2377355493294875</v>
+        <v>4.366151778097048</v>
       </c>
       <c r="C79" t="n">
-        <v>4.166606845849671</v>
+        <v>4.292930602200282</v>
       </c>
       <c r="D79" t="n">
-        <v>3.7062626377664603</v>
+        <v>3.7809727919506857</v>
       </c>
       <c r="E79" t="n">
-        <v>4.2377355493294875</v>
+        <v>3.8590833433840914</v>
       </c>
       <c r="F79" t="n">
-        <v>4.166606845849671</v>
+        <v>4.222124781293048</v>
       </c>
       <c r="G79" t="n">
-        <v>3.7062626377664603</v>
+        <v>4.158615081190625</v>
       </c>
       <c r="H79" t="n">
-        <v>4.2377355493294875</v>
+        <v>4.1837882973231295</v>
       </c>
       <c r="I79" t="n">
-        <v>4.166606845849671</v>
+        <v>4.0183827129142795</v>
       </c>
       <c r="J79" t="n">
-        <v>3.7062626377664603</v>
+        <v>3.7079497118608815</v>
       </c>
       <c r="K79" t="n">
-        <v>4.2377355493294875</v>
+        <v>4.186322388748003</v>
       </c>
       <c r="L79" t="n">
-        <v>4.166606845849671</v>
+        <v>4.206706187229777</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4.287972030572124</v>
+        <v>4.203061693333072</v>
       </c>
       <c r="C90" t="n">
-        <v>4.935749662538305</v>
+        <v>4.85356713617873</v>
       </c>
       <c r="D90" t="n">
-        <v>4.878171694893965</v>
+        <v>4.772171914238049</v>
       </c>
       <c r="E90" t="n">
-        <v>4.287972030572124</v>
+        <v>4.650845508047601</v>
       </c>
       <c r="F90" t="n">
-        <v>4.935749662538305</v>
+        <v>4.106465407018169</v>
       </c>
       <c r="G90" t="n">
-        <v>4.878171694893965</v>
+        <v>4.214589566725834</v>
       </c>
       <c r="H90" t="n">
-        <v>4.287972030572124</v>
+        <v>4.716511222284525</v>
       </c>
       <c r="I90" t="n">
-        <v>4.935749662538305</v>
+        <v>4.301901891204456</v>
       </c>
       <c r="J90" t="n">
-        <v>4.878171694893965</v>
+        <v>4.338338101338765</v>
       </c>
       <c r="K90" t="n">
-        <v>4.287972030572124</v>
+        <v>4.256618713016103</v>
       </c>
       <c r="L90" t="n">
-        <v>4.935749662538305</v>
+        <v>4.636811571563605</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>4.409357674212133</v>
+        <v>4.3220436608613975</v>
       </c>
       <c r="C93" t="n">
-        <v>5.0754728569438505</v>
+        <v>4.990963874444403</v>
       </c>
       <c r="D93" t="n">
-        <v>5.016264948942586</v>
+        <v>4.90726448369524</v>
       </c>
       <c r="E93" t="n">
-        <v>4.409357674212133</v>
+        <v>4.782503520609142</v>
       </c>
       <c r="F93" t="n">
-        <v>5.0754728569438505</v>
+        <v>4.222712887869816</v>
       </c>
       <c r="G93" t="n">
-        <v>5.016264948942586</v>
+        <v>4.33389786994889</v>
       </c>
       <c r="H93" t="n">
-        <v>4.409357674212133</v>
+        <v>4.850028126399206</v>
       </c>
       <c r="I93" t="n">
-        <v>5.0754728569438505</v>
+        <v>4.423681866963848</v>
       </c>
       <c r="J93" t="n">
-        <v>5.016264948942586</v>
+        <v>4.461149528046862</v>
       </c>
       <c r="K93" t="n">
-        <v>4.409357674212133</v>
+        <v>4.377116794282884</v>
       </c>
       <c r="L93" t="n">
-        <v>5.0754728569438505</v>
+        <v>4.76807230578453</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>2.7652156582367646</v>
+        <v>2.737563501654397</v>
       </c>
       <c r="C94" t="n">
-        <v>3.1829527232636132</v>
+        <v>3.161254631572028</v>
       </c>
       <c r="D94" t="n">
-        <v>3.1458220011963016</v>
+        <v>3.1082398045121935</v>
       </c>
       <c r="E94" t="n">
-        <v>2.7652156582367646</v>
+        <v>3.029216757598391</v>
       </c>
       <c r="F94" t="n">
-        <v>3.1829527232636132</v>
+        <v>2.674647825629348</v>
       </c>
       <c r="G94" t="n">
-        <v>3.1458220011963016</v>
+        <v>2.745071905707037</v>
       </c>
       <c r="H94" t="n">
-        <v>2.7652156582367646</v>
+        <v>3.0719865467952077</v>
       </c>
       <c r="I94" t="n">
-        <v>3.1829527232636132</v>
+        <v>2.801940695693256</v>
       </c>
       <c r="J94" t="n">
-        <v>3.1458220011963016</v>
+        <v>2.825672547919102</v>
       </c>
       <c r="K94" t="n">
-        <v>2.7652156582367646</v>
+        <v>2.7724465828554683</v>
       </c>
       <c r="L94" t="n">
-        <v>3.1829527232636132</v>
+        <v>3.0200760894126106</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>4.1197666817444105</v>
+        <v>4.0381871434920455</v>
       </c>
       <c r="C97" t="n">
-        <v>4.742133778900475</v>
+        <v>4.663175047009541</v>
       </c>
       <c r="D97" t="n">
-        <v>4.68681443656044</v>
+        <v>4.584972735750607</v>
       </c>
       <c r="E97" t="n">
-        <v>4.1197666817444105</v>
+        <v>4.468405630770562</v>
       </c>
       <c r="F97" t="n">
-        <v>4.742133778900475</v>
+        <v>3.945380063804242</v>
       </c>
       <c r="G97" t="n">
-        <v>4.68681443656044</v>
+        <v>4.049262810118662</v>
       </c>
       <c r="H97" t="n">
-        <v>4.1197666817444105</v>
+        <v>4.531495459649444</v>
       </c>
       <c r="I97" t="n">
-        <v>4.742133778900475</v>
+        <v>4.133150112257778</v>
       </c>
       <c r="J97" t="n">
-        <v>4.68681443656044</v>
+        <v>4.168157030085163</v>
       </c>
       <c r="K97" t="n">
-        <v>4.1197666817444105</v>
+        <v>4.089643268599802</v>
       </c>
       <c r="L97" t="n">
-        <v>4.742133778900475</v>
+        <v>4.454922207014935</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>2.952720640831192</v>
+        <v>2.982546101849689</v>
       </c>
       <c r="C100" t="n">
-        <v>2.8721813892394357</v>
+        <v>2.8643100483019666</v>
       </c>
       <c r="D100" t="n">
-        <v>3.1406050539597588</v>
+        <v>3.1223245859650373</v>
       </c>
       <c r="E100" t="n">
-        <v>2.952720640831192</v>
+        <v>3.107195211028369</v>
       </c>
       <c r="F100" t="n">
-        <v>2.8721813892394357</v>
+        <v>2.7521348136959456</v>
       </c>
       <c r="G100" t="n">
-        <v>3.1406050539597588</v>
+        <v>3.1053143437638604</v>
       </c>
       <c r="H100" t="n">
-        <v>2.952720640831192</v>
+        <v>3.133768659589886</v>
       </c>
       <c r="I100" t="n">
-        <v>2.8721813892394357</v>
+        <v>3.086630140936258</v>
       </c>
       <c r="J100" t="n">
-        <v>3.1406050539597588</v>
+        <v>2.806334405528489</v>
       </c>
       <c r="K100" t="n">
-        <v>2.952720640831192</v>
+        <v>3.2406691687171887</v>
       </c>
       <c r="L100" t="n">
-        <v>2.8721813892394357</v>
+        <v>3.186322545126085</v>
       </c>
     </row>
     <row r="101">
@@ -3906,34 +3906,34 @@
         <v>3.2973026573334416</v>
       </c>
       <c r="C101" t="n">
-        <v>3.2073644882358097</v>
+        <v>3.166588817465638</v>
       </c>
       <c r="D101" t="n">
-        <v>3.507113150786004</v>
+        <v>3.451832361610518</v>
       </c>
       <c r="E101" t="n">
-        <v>3.2973026573334416</v>
+        <v>3.435106340795104</v>
       </c>
       <c r="F101" t="n">
-        <v>3.2073644882358097</v>
+        <v>3.042575411964865</v>
       </c>
       <c r="G101" t="n">
-        <v>3.507113150786004</v>
+        <v>3.4330269802697093</v>
       </c>
       <c r="H101" t="n">
-        <v>3.2973026573334416</v>
+        <v>3.464484160806692</v>
       </c>
       <c r="I101" t="n">
-        <v>3.2073644882358097</v>
+        <v>3.412370980486369</v>
       </c>
       <c r="J101" t="n">
-        <v>3.507113150786004</v>
+        <v>3.1024948405581068</v>
       </c>
       <c r="K101" t="n">
-        <v>3.2973026573334416</v>
+        <v>3.5826661840777327</v>
       </c>
       <c r="L101" t="n">
-        <v>3.2073644882358097</v>
+        <v>3.5225842070471303</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>3.11272751501964</v>
+        <v>3.144169207090545</v>
       </c>
       <c r="C104" t="n">
-        <v>3.0278238702243847</v>
+        <v>3.0195259841401585</v>
       </c>
       <c r="D104" t="n">
-        <v>3.3107933172162123</v>
+        <v>3.2915222372069</v>
       </c>
       <c r="E104" t="n">
-        <v>3.11272751501964</v>
+        <v>3.2755730068600832</v>
       </c>
       <c r="F104" t="n">
-        <v>3.0278238702243847</v>
+        <v>2.9012720137396086</v>
       </c>
       <c r="G104" t="n">
-        <v>3.3107933172162123</v>
+        <v>3.27359021607203</v>
       </c>
       <c r="H104" t="n">
-        <v>3.11272751501964</v>
+        <v>3.303586461083477</v>
       </c>
       <c r="I104" t="n">
-        <v>3.0278238702243847</v>
+        <v>3.253893522983817</v>
       </c>
       <c r="J104" t="n">
-        <v>3.3107933172162123</v>
+        <v>2.958408662045254</v>
       </c>
       <c r="K104" t="n">
-        <v>3.11272751501964</v>
+        <v>3.41627987052044</v>
       </c>
       <c r="L104" t="n">
-        <v>3.0278238702243847</v>
+        <v>3.3589882228578887</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>3.8078166649384406</v>
+        <v>3.7704851290076715</v>
       </c>
       <c r="C106" t="n">
-        <v>3.86981257104914</v>
+        <v>3.8130654227248217</v>
       </c>
       <c r="D106" t="n">
-        <v>4.022397216429978</v>
+        <v>3.926127246689215</v>
       </c>
       <c r="E106" t="n">
-        <v>3.8078166649384406</v>
+        <v>4.265912105404047</v>
       </c>
       <c r="F106" t="n">
-        <v>3.86981257104914</v>
+        <v>3.694167867525575</v>
       </c>
       <c r="G106" t="n">
-        <v>4.022397216429978</v>
+        <v>3.6228212774020516</v>
       </c>
       <c r="H106" t="n">
-        <v>3.8078166649384406</v>
+        <v>4.0902113034347085</v>
       </c>
       <c r="I106" t="n">
-        <v>3.86981257104914</v>
+        <v>4.194371967427885</v>
       </c>
       <c r="J106" t="n">
-        <v>4.022397216429978</v>
+        <v>4.110127123387128</v>
       </c>
       <c r="K106" t="n">
-        <v>3.8078166649384406</v>
+        <v>4.125191731858317</v>
       </c>
       <c r="L106" t="n">
-        <v>3.86981257104914</v>
+        <v>4.087735390586282</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>3.663064106923404</v>
+        <v>3.6271517137182725</v>
       </c>
       <c r="C107" t="n">
-        <v>3.7227032645911926</v>
+        <v>3.668113335377668</v>
       </c>
       <c r="D107" t="n">
-        <v>3.869487468491729</v>
+        <v>3.776877161388697</v>
       </c>
       <c r="E107" t="n">
-        <v>3.663064106923404</v>
+        <v>4.103745240804087</v>
       </c>
       <c r="F107" t="n">
-        <v>3.7227032645911926</v>
+        <v>3.5537356210140625</v>
       </c>
       <c r="G107" t="n">
-        <v>3.869487468491729</v>
+        <v>3.4851012416755607</v>
       </c>
       <c r="H107" t="n">
-        <v>3.663064106923404</v>
+        <v>3.9347236313401375</v>
       </c>
       <c r="I107" t="n">
-        <v>3.7227032645911926</v>
+        <v>4.034924671253617</v>
       </c>
       <c r="J107" t="n">
-        <v>3.869487468491729</v>
+        <v>3.953882359726247</v>
       </c>
       <c r="K107" t="n">
-        <v>3.663064106923404</v>
+        <v>3.9683742934067143</v>
       </c>
       <c r="L107" t="n">
-        <v>3.7227032645911926</v>
+        <v>3.9323418392831693</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>3.3411768973961893</v>
+        <v>3.308095938016029</v>
       </c>
       <c r="C111" t="n">
-        <v>3.395575338145059</v>
+        <v>3.3454544454403257</v>
       </c>
       <c r="D111" t="n">
-        <v>3.5294610624074925</v>
+        <v>3.444651060147497</v>
       </c>
       <c r="E111" t="n">
-        <v>3.3411768973961893</v>
+        <v>3.7427667859638505</v>
       </c>
       <c r="F111" t="n">
-        <v>3.395575338145059</v>
+        <v>3.2411377578160514</v>
       </c>
       <c r="G111" t="n">
-        <v>3.5294610624074925</v>
+        <v>3.1785406762991064</v>
       </c>
       <c r="H111" t="n">
-        <v>3.3411768973961893</v>
+        <v>3.5886128536676365</v>
       </c>
       <c r="I111" t="n">
-        <v>3.395575338145059</v>
+        <v>3.6799998921168675</v>
       </c>
       <c r="J111" t="n">
-        <v>3.5294610624074925</v>
+        <v>3.6060863195036355</v>
       </c>
       <c r="K111" t="n">
-        <v>3.3411768973961893</v>
+        <v>3.6193034967066278</v>
       </c>
       <c r="L111" t="n">
-        <v>3.395575338145059</v>
+        <v>3.586440571598746</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.2899063108781395</v>
+        <v>1.3032043140830685</v>
       </c>
       <c r="C116" t="n">
-        <v>1.2578104047661383</v>
+        <v>1.2767541995033282</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3919334004172652</v>
+        <v>1.428804730500599</v>
       </c>
       <c r="E116" t="n">
-        <v>1.2899063108781395</v>
+        <v>1.2486710858371584</v>
       </c>
       <c r="F116" t="n">
-        <v>1.2578104047661383</v>
+        <v>1.4046607748091</v>
       </c>
       <c r="G116" t="n">
-        <v>1.3919334004172652</v>
+        <v>1.3142421823182677</v>
       </c>
       <c r="H116" t="n">
-        <v>1.2899063108781395</v>
+        <v>1.360766409456264</v>
       </c>
       <c r="I116" t="n">
-        <v>1.2578104047661383</v>
+        <v>1.2995661115104946</v>
       </c>
       <c r="J116" t="n">
-        <v>1.3919334004172652</v>
+        <v>1.2894863738178315</v>
       </c>
       <c r="K116" t="n">
-        <v>1.2899063108781395</v>
+        <v>1.4157681910267097</v>
       </c>
       <c r="L116" t="n">
-        <v>1.2578104047661383</v>
+        <v>1.2439994145381639</v>
       </c>
     </row>
     <row r="117">
@@ -4514,34 +4514,34 @@
         <v>1.1628121609050015</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1338786564887835</v>
+        <v>1.1392114756108518</v>
       </c>
       <c r="D117" t="n">
-        <v>1.254786546530786</v>
+        <v>1.274881841803654</v>
       </c>
       <c r="E117" t="n">
-        <v>1.1628121609050015</v>
+        <v>1.114153711656106</v>
       </c>
       <c r="F117" t="n">
-        <v>1.1338786564887835</v>
+        <v>1.253338876524123</v>
       </c>
       <c r="G117" t="n">
-        <v>1.254786546530786</v>
+        <v>1.1726609369377814</v>
       </c>
       <c r="H117" t="n">
-        <v>1.1628121609050015</v>
+        <v>1.2141731821844772</v>
       </c>
       <c r="I117" t="n">
-        <v>1.1338786564887835</v>
+        <v>1.1595658961792732</v>
       </c>
       <c r="J117" t="n">
-        <v>1.254786546530786</v>
+        <v>1.1505720327910844</v>
       </c>
       <c r="K117" t="n">
-        <v>1.1628121609050015</v>
+        <v>1.2632497082444412</v>
       </c>
       <c r="L117" t="n">
-        <v>1.1338786564887835</v>
+        <v>1.1099853121660817</v>
       </c>
     </row>
     <row r="118">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.8585052643737645</v>
+        <v>1.8960508252702042</v>
       </c>
       <c r="C126" t="n">
-        <v>1.657100723434506</v>
+        <v>1.684252523509573</v>
       </c>
       <c r="D126" t="n">
-        <v>1.8963763923640562</v>
+        <v>1.9250070082640358</v>
       </c>
       <c r="E126" t="n">
-        <v>1.8585052643737645</v>
+        <v>1.8423435190157502</v>
       </c>
       <c r="F126" t="n">
-        <v>1.657100723434506</v>
+        <v>1.7285992720609562</v>
       </c>
       <c r="G126" t="n">
-        <v>1.8963763923640562</v>
+        <v>1.7644101186798704</v>
       </c>
       <c r="H126" t="n">
-        <v>1.8585052643737645</v>
+        <v>1.9017721608216724</v>
       </c>
       <c r="I126" t="n">
-        <v>1.657100723434506</v>
+        <v>1.7458373804301044</v>
       </c>
       <c r="J126" t="n">
-        <v>1.8963763923640562</v>
+        <v>1.9168105069619927</v>
       </c>
       <c r="K126" t="n">
-        <v>1.8585052643737645</v>
+        <v>1.7594843511977598</v>
       </c>
       <c r="L126" t="n">
-        <v>1.657100723434506</v>
+        <v>1.934460695740322</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.7979411673676546</v>
+        <v>1.815920579041331</v>
       </c>
       <c r="C127" t="n">
-        <v>1.7532041578530266</v>
+        <v>1.7790642650587103</v>
       </c>
       <c r="D127" t="n">
-        <v>1.940152041849088</v>
+        <v>1.9909356388013437</v>
       </c>
       <c r="E127" t="n">
-        <v>1.7979411673676546</v>
+        <v>1.739932485429945</v>
       </c>
       <c r="F127" t="n">
-        <v>1.7532041578530266</v>
+        <v>1.9572927897669592</v>
       </c>
       <c r="G127" t="n">
-        <v>1.940152041849088</v>
+        <v>1.8313010469084496</v>
       </c>
       <c r="H127" t="n">
-        <v>1.7979411673676546</v>
+        <v>1.8961291790523516</v>
       </c>
       <c r="I127" t="n">
-        <v>1.7532041578530266</v>
+        <v>1.8108510079457916</v>
       </c>
       <c r="J127" t="n">
-        <v>1.940152041849088</v>
+        <v>1.7968056254147151</v>
       </c>
       <c r="K127" t="n">
-        <v>1.7979411673676546</v>
+        <v>1.972770167697316</v>
       </c>
       <c r="L127" t="n">
-        <v>1.7532041578530266</v>
+        <v>1.7334228507098284</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.7118994742944733</v>
+        <v>1.7295479224830763</v>
       </c>
       <c r="C128" t="n">
-        <v>1.6641225502207602</v>
+        <v>1.6952067172982312</v>
       </c>
       <c r="D128" t="n">
-        <v>1.522931431139604</v>
+        <v>1.5609050217278315</v>
       </c>
       <c r="E128" t="n">
-        <v>1.7118994742944733</v>
+        <v>1.7003220055223134</v>
       </c>
       <c r="F128" t="n">
-        <v>1.6641225502207602</v>
+        <v>1.5908715778620048</v>
       </c>
       <c r="G128" t="n">
-        <v>1.522931431139604</v>
+        <v>1.5731064016738596</v>
       </c>
       <c r="H128" t="n">
-        <v>1.7118994742944733</v>
+        <v>1.7137673757910634</v>
       </c>
       <c r="I128" t="n">
-        <v>1.6641225502207602</v>
+        <v>1.505843700720966</v>
       </c>
       <c r="J128" t="n">
-        <v>1.522931431139604</v>
+        <v>1.5454929047574277</v>
       </c>
       <c r="K128" t="n">
-        <v>1.7118994742944733</v>
+        <v>1.5775103944425308</v>
       </c>
       <c r="L128" t="n">
-        <v>1.6641225502207602</v>
+        <v>1.6471884969440544</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.7485262411455587</v>
+        <v>2.7760115035570143</v>
       </c>
       <c r="C132" t="n">
-        <v>2.6718183902993875</v>
+        <v>2.7208921400517374</v>
       </c>
       <c r="D132" t="n">
-        <v>2.4451301404118175</v>
+        <v>2.5053311561644636</v>
       </c>
       <c r="E132" t="n">
-        <v>2.7485262411455587</v>
+        <v>2.729102435221631</v>
       </c>
       <c r="F132" t="n">
-        <v>2.6718183902993875</v>
+        <v>2.553428987666595</v>
       </c>
       <c r="G132" t="n">
-        <v>2.4451301404118175</v>
+        <v>2.5249149853542416</v>
       </c>
       <c r="H132" t="n">
-        <v>2.7485262411455587</v>
+        <v>2.7506829315180545</v>
       </c>
       <c r="I132" t="n">
-        <v>2.6718183902993875</v>
+        <v>2.416954963444311</v>
       </c>
       <c r="J132" t="n">
-        <v>2.4451301404118175</v>
+        <v>2.4805939323802377</v>
       </c>
       <c r="K132" t="n">
-        <v>2.7485262411455587</v>
+        <v>2.531983615502322</v>
       </c>
       <c r="L132" t="n">
-        <v>2.6718183902993875</v>
+        <v>2.6438204785205808</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.29999046391433</v>
+        <v>4.343424711024576</v>
       </c>
       <c r="C133" t="n">
-        <v>4.1827026958043545</v>
+        <v>4.171239812895185</v>
       </c>
       <c r="D133" t="n">
-        <v>4.57360293290278</v>
+        <v>4.5469814378089985</v>
       </c>
       <c r="E133" t="n">
-        <v>4.29999046391433</v>
+        <v>4.52494881912742</v>
       </c>
       <c r="F133" t="n">
-        <v>4.1827026958043545</v>
+        <v>4.0078811692012595</v>
       </c>
       <c r="G133" t="n">
-        <v>4.57360293290278</v>
+        <v>4.522209748187408</v>
       </c>
       <c r="H133" t="n">
-        <v>4.29999046391433</v>
+        <v>4.563647222839489</v>
       </c>
       <c r="I133" t="n">
-        <v>4.1827026958043545</v>
+        <v>4.495000301796329</v>
       </c>
       <c r="J133" t="n">
-        <v>4.57360293290278</v>
+        <v>4.0868109957501</v>
       </c>
       <c r="K133" t="n">
-        <v>4.29999046391433</v>
+        <v>4.719324384938234</v>
       </c>
       <c r="L133" t="n">
-        <v>4.1827026958043545</v>
+        <v>4.640180438858084</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>1.9232590071966416</v>
+        <v>1.9426858658551935</v>
       </c>
       <c r="C138" t="n">
-        <v>1.8695833089791463</v>
+        <v>1.9041126797284678</v>
       </c>
       <c r="D138" t="n">
-        <v>1.7109600395719748</v>
+        <v>1.7532605394937957</v>
       </c>
       <c r="E138" t="n">
-        <v>1.9232590071966416</v>
+        <v>1.9098583419350594</v>
       </c>
       <c r="F138" t="n">
-        <v>1.8695833089791463</v>
+        <v>1.7869199740162205</v>
       </c>
       <c r="G138" t="n">
-        <v>1.7109600395719748</v>
+        <v>1.7669655360752419</v>
       </c>
       <c r="H138" t="n">
-        <v>1.9232590071966416</v>
+        <v>1.9249606299045017</v>
       </c>
       <c r="I138" t="n">
-        <v>1.8695833089791463</v>
+        <v>1.6914138287523073</v>
       </c>
       <c r="J138" t="n">
-        <v>1.7109600395719748</v>
+        <v>1.7359491360847912</v>
       </c>
       <c r="K138" t="n">
-        <v>1.9232590071966416</v>
+        <v>1.7719122475215159</v>
       </c>
       <c r="L138" t="n">
-        <v>1.8695833089791463</v>
+        <v>1.8501770143601135</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>4.302732567681448</v>
+        <v>4.38965645793764</v>
       </c>
       <c r="C153" t="n">
-        <v>3.8844825932398104</v>
+        <v>3.94540785469082</v>
       </c>
       <c r="D153" t="n">
-        <v>4.325308564316323</v>
+        <v>4.368386165062315</v>
       </c>
       <c r="E153" t="n">
-        <v>4.302732567681448</v>
+        <v>4.386986352742213</v>
       </c>
       <c r="F153" t="n">
-        <v>3.8844825932398104</v>
+        <v>4.556036360999305</v>
       </c>
       <c r="G153" t="n">
-        <v>4.325308564316323</v>
+        <v>4.479630785395108</v>
       </c>
       <c r="H153" t="n">
-        <v>4.302732567681448</v>
+        <v>3.8692089901093616</v>
       </c>
       <c r="I153" t="n">
-        <v>3.8844825932398104</v>
+        <v>4.405745608924134</v>
       </c>
       <c r="J153" t="n">
-        <v>4.325308564316323</v>
+        <v>4.365741865628717</v>
       </c>
       <c r="K153" t="n">
-        <v>4.302732567681448</v>
+        <v>4.193142768029891</v>
       </c>
       <c r="L153" t="n">
-        <v>3.8844825932398104</v>
+        <v>4.339473862624715</v>
       </c>
     </row>
     <row r="154">
@@ -5917,37 +5917,37 @@
         <v>153.0</v>
       </c>
       <c r="B154" t="n">
-        <v>3.2081697940820204</v>
+        <v>3.2729813050735763</v>
       </c>
       <c r="C154" t="n">
-        <v>2.89631752037627</v>
+        <v>2.941744137162031</v>
       </c>
       <c r="D154" t="n">
-        <v>3.2250027320664345</v>
+        <v>3.2571219157110005</v>
       </c>
       <c r="E154" t="n">
-        <v>3.2081697940820204</v>
+        <v>3.270990442127705</v>
       </c>
       <c r="F154" t="n">
-        <v>2.89631752037627</v>
+        <v>3.397036186697873</v>
       </c>
       <c r="G154" t="n">
-        <v>3.2250027320664345</v>
+        <v>3.340067259185625</v>
       </c>
       <c r="H154" t="n">
-        <v>3.2081697940820204</v>
+        <v>2.884929335905324</v>
       </c>
       <c r="I154" t="n">
-        <v>2.89631752037627</v>
+        <v>3.284977571956393</v>
       </c>
       <c r="J154" t="n">
-        <v>3.2250027320664345</v>
+        <v>3.25515029385537</v>
       </c>
       <c r="K154" t="n">
-        <v>3.2081697940820204</v>
+        <v>3.126458305057017</v>
       </c>
       <c r="L154" t="n">
-        <v>2.89631752037627</v>
+        <v>3.2355645509669366</v>
       </c>
     </row>
     <row r="155">
@@ -5993,37 +5993,37 @@
         <v>155.0</v>
       </c>
       <c r="B156" t="n">
-        <v>4.485199208821091</v>
+        <v>4.5758092938477795</v>
       </c>
       <c r="C156" t="n">
-        <v>4.049212443446561</v>
+        <v>4.112721371821475</v>
       </c>
       <c r="D156" t="n">
-        <v>4.508732589214205</v>
+        <v>4.553636988394176</v>
       </c>
       <c r="E156" t="n">
-        <v>4.485199208821091</v>
+        <v>4.573025957091051</v>
       </c>
       <c r="F156" t="n">
-        <v>4.049212443446561</v>
+        <v>4.749244895023901</v>
       </c>
       <c r="G156" t="n">
-        <v>4.508732589214205</v>
+        <v>4.6695991764348594</v>
       </c>
       <c r="H156" t="n">
-        <v>4.485199208821091</v>
+        <v>4.033291130281274</v>
       </c>
       <c r="I156" t="n">
-        <v>4.049212443446561</v>
+        <v>4.592580739932357</v>
       </c>
       <c r="J156" t="n">
-        <v>4.508732589214205</v>
+        <v>4.550880551748185</v>
       </c>
       <c r="K156" t="n">
-        <v>4.485199208821091</v>
+        <v>4.370962017696546</v>
       </c>
       <c r="L156" t="n">
-        <v>4.049212443446561</v>
+        <v>4.523498597504547</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>3.0589995444611406</v>
+        <v>3.1207975150563154</v>
       </c>
       <c r="C157" t="n">
-        <v>2.761647463855936</v>
+        <v>2.8049618795425326</v>
       </c>
       <c r="D157" t="n">
-        <v>3.075049801439824</v>
+        <v>3.105675539615663</v>
       </c>
       <c r="E157" t="n">
-        <v>3.0589995444611406</v>
+        <v>3.1188992212516236</v>
       </c>
       <c r="F157" t="n">
-        <v>2.761647463855936</v>
+        <v>3.2390842176731542</v>
       </c>
       <c r="G157" t="n">
-        <v>3.075049801439824</v>
+        <v>3.1847641740053056</v>
       </c>
       <c r="H157" t="n">
-        <v>3.0589995444611406</v>
+        <v>2.750788795722745</v>
       </c>
       <c r="I157" t="n">
-        <v>2.761647463855936</v>
+        <v>3.132235991597508</v>
       </c>
       <c r="J157" t="n">
-        <v>3.075049801439824</v>
+        <v>3.1037955922483667</v>
       </c>
       <c r="K157" t="n">
-        <v>3.0589995444611406</v>
+        <v>2.9810873939989646</v>
       </c>
       <c r="L157" t="n">
-        <v>2.761647463855936</v>
+        <v>3.0851205275170144</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>4.0625994709640265</v>
+        <v>4.0223757138257685</v>
       </c>
       <c r="C159" t="n">
-        <v>4.101580958246491</v>
+        <v>4.0419612326546535</v>
       </c>
       <c r="D159" t="n">
-        <v>4.0851305278897865</v>
+        <v>4.03950262073583</v>
       </c>
       <c r="E159" t="n">
-        <v>4.0625994709640265</v>
+        <v>3.749826259273586</v>
       </c>
       <c r="F159" t="n">
-        <v>4.101580958246491</v>
+        <v>4.124808887591215</v>
       </c>
       <c r="G159" t="n">
-        <v>4.0851305278897865</v>
+        <v>4.056775996674771</v>
       </c>
       <c r="H159" t="n">
-        <v>4.0625994709640265</v>
+        <v>3.9957534925382125</v>
       </c>
       <c r="I159" t="n">
-        <v>4.101580958246491</v>
+        <v>4.195162542258742</v>
       </c>
       <c r="J159" t="n">
-        <v>4.0851305278897865</v>
+        <v>3.8610129685013765</v>
       </c>
       <c r="K159" t="n">
-        <v>4.0625994709640265</v>
+        <v>4.019940863650009</v>
       </c>
       <c r="L159" t="n">
-        <v>4.101580958246491</v>
+        <v>3.5627372868282614</v>
       </c>
     </row>
     <row r="160">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6.521985256969234</v>
+        <v>6.652424962108619</v>
       </c>
       <c r="C165" t="n">
-        <v>6.584565062625202</v>
+        <v>6.684816564391142</v>
       </c>
       <c r="D165" t="n">
-        <v>6.558155994976758</v>
+        <v>6.680750377524336</v>
       </c>
       <c r="E165" t="n">
-        <v>6.521985256969234</v>
+        <v>6.201667766891881</v>
       </c>
       <c r="F165" t="n">
-        <v>6.584565062625202</v>
+        <v>6.821834547534229</v>
       </c>
       <c r="G165" t="n">
-        <v>6.558155994976758</v>
+        <v>6.709318031431238</v>
       </c>
       <c r="H165" t="n">
-        <v>6.521985256969234</v>
+        <v>6.608395676422705</v>
       </c>
       <c r="I165" t="n">
-        <v>6.584565062625202</v>
+        <v>6.9381892696645195</v>
       </c>
       <c r="J165" t="n">
-        <v>6.558155994976758</v>
+        <v>6.385554428045709</v>
       </c>
       <c r="K165" t="n">
-        <v>6.521985256969234</v>
+        <v>6.648398073712158</v>
       </c>
       <c r="L165" t="n">
-        <v>6.584565062625202</v>
+        <v>5.892249791302832</v>
       </c>
     </row>
     <row r="166">
@@ -6411,37 +6411,37 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="n">
-        <v>1.8665405702759985</v>
+        <v>1.8859837012163736</v>
       </c>
       <c r="C167" t="n">
-        <v>1.8733444852376147</v>
+        <v>1.8951612379718557</v>
       </c>
       <c r="D167" t="n">
-        <v>1.7451827173825396</v>
+        <v>1.759257523246708</v>
       </c>
       <c r="E167" t="n">
-        <v>1.8665405702759985</v>
+        <v>1.9351832766927903</v>
       </c>
       <c r="F167" t="n">
-        <v>1.8733444852376147</v>
+        <v>1.8871260284052906</v>
       </c>
       <c r="G167" t="n">
-        <v>1.7451827173825396</v>
+        <v>1.9681901916013564</v>
       </c>
       <c r="H167" t="n">
-        <v>1.8665405702759985</v>
+        <v>1.8963147131506688</v>
       </c>
       <c r="I167" t="n">
-        <v>1.8733444852376147</v>
+        <v>1.704401024526987</v>
       </c>
       <c r="J167" t="n">
-        <v>1.7451827173825396</v>
+        <v>1.8746360249098368</v>
       </c>
       <c r="K167" t="n">
-        <v>1.8665405702759985</v>
+        <v>1.6714834079855134</v>
       </c>
       <c r="L167" t="n">
-        <v>1.8733444852376147</v>
+        <v>1.8114215546362387</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.3716256402246736</v>
+        <v>2.442774409431414</v>
       </c>
       <c r="C168" t="n">
-        <v>2.4371258856877995</v>
+        <v>2.522621329988493</v>
       </c>
       <c r="D168" t="n">
-        <v>2.5785150701174153</v>
+        <v>2.6620664159970193</v>
       </c>
       <c r="E168" t="n">
-        <v>2.3716256402246736</v>
+        <v>2.4977133858992486</v>
       </c>
       <c r="F168" t="n">
-        <v>2.4371258856877995</v>
+        <v>2.6472857566027495</v>
       </c>
       <c r="G168" t="n">
-        <v>2.5785150701174153</v>
+        <v>2.7713521004049797</v>
       </c>
       <c r="H168" t="n">
-        <v>2.3716256402246736</v>
+        <v>2.8763938726332685</v>
       </c>
       <c r="I168" t="n">
-        <v>2.4371258856877995</v>
+        <v>2.7562539358308893</v>
       </c>
       <c r="J168" t="n">
-        <v>2.5785150701174153</v>
+        <v>2.781509775113105</v>
       </c>
       <c r="K168" t="n">
-        <v>2.3716256402246736</v>
+        <v>2.490881564383014</v>
       </c>
       <c r="L168" t="n">
-        <v>2.4371258856877995</v>
+        <v>2.75792337963808</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>1.6866315276581458</v>
+        <v>1.7040194815515288</v>
       </c>
       <c r="C171" t="n">
-        <v>1.8086253110176678</v>
+        <v>1.82787310786144</v>
       </c>
       <c r="D171" t="n">
-        <v>1.8837408427642282</v>
+        <v>1.9063919781896683</v>
       </c>
       <c r="E171" t="n">
-        <v>1.6866315276581458</v>
+        <v>1.8367732817183429</v>
       </c>
       <c r="F171" t="n">
-        <v>1.8086253110176678</v>
+        <v>1.852558933857438</v>
       </c>
       <c r="G171" t="n">
-        <v>1.8837408427642282</v>
+        <v>1.6719216075570338</v>
       </c>
       <c r="H171" t="n">
-        <v>1.6866315276581458</v>
+        <v>1.6897080077907338</v>
       </c>
       <c r="I171" t="n">
-        <v>1.8086253110176678</v>
+        <v>1.835656023926228</v>
       </c>
       <c r="J171" t="n">
-        <v>1.8837408427642282</v>
+        <v>1.6129441482942595</v>
       </c>
       <c r="K171" t="n">
-        <v>1.6866315276581458</v>
+        <v>1.7643418410632519</v>
       </c>
       <c r="L171" t="n">
-        <v>1.8086253110176678</v>
+        <v>1.6554133312542954</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>1.496948337052178</v>
+        <v>1.481978853681656</v>
       </c>
       <c r="C175" t="n">
-        <v>1.6052223661664695</v>
+        <v>1.5896938517378727</v>
       </c>
       <c r="D175" t="n">
-        <v>1.6718901999469338</v>
+        <v>1.6579813958071792</v>
       </c>
       <c r="E175" t="n">
-        <v>1.496948337052178</v>
+        <v>1.5974342969574373</v>
       </c>
       <c r="F175" t="n">
-        <v>1.6052223661664695</v>
+        <v>1.6111630148007412</v>
       </c>
       <c r="G175" t="n">
-        <v>1.6718901999469338</v>
+        <v>1.4540634624417224</v>
       </c>
       <c r="H175" t="n">
-        <v>1.496948337052178</v>
+        <v>1.4695322228137937</v>
       </c>
       <c r="I175" t="n">
-        <v>1.6052223661664695</v>
+        <v>1.5964626223727563</v>
       </c>
       <c r="J175" t="n">
-        <v>1.6718901999469338</v>
+        <v>1.40277100456928</v>
       </c>
       <c r="K175" t="n">
-        <v>1.496948337052178</v>
+        <v>1.5344409658631197</v>
       </c>
       <c r="L175" t="n">
-        <v>1.6052223661664695</v>
+        <v>1.4397062812848986</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.9488180357876506</v>
+        <v>1.929329855429774</v>
       </c>
       <c r="C176" t="n">
-        <v>2.089775726525894</v>
+        <v>2.0695597656684663</v>
       </c>
       <c r="D176" t="n">
-        <v>2.176567951522857</v>
+        <v>2.1584606276474254</v>
       </c>
       <c r="E176" t="n">
-        <v>1.9488180357876506</v>
+        <v>2.0796367461998178</v>
       </c>
       <c r="F176" t="n">
-        <v>2.089775726525894</v>
+        <v>2.0975096228242416</v>
       </c>
       <c r="G176" t="n">
-        <v>2.176567951522857</v>
+        <v>1.8929879078969811</v>
       </c>
       <c r="H176" t="n">
-        <v>1.9488180357876506</v>
+        <v>1.9131260773035046</v>
       </c>
       <c r="I176" t="n">
-        <v>2.089775726525894</v>
+        <v>2.0783717613578747</v>
       </c>
       <c r="J176" t="n">
-        <v>2.176567951522857</v>
+        <v>1.8262122787536694</v>
       </c>
       <c r="K176" t="n">
-        <v>1.9488180357876506</v>
+        <v>1.997628211414512</v>
       </c>
       <c r="L176" t="n">
-        <v>2.089775726525894</v>
+        <v>1.8742968596564076</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>3.6812562490781127</v>
+        <v>3.7180688115688936</v>
       </c>
       <c r="C177" t="n">
-        <v>3.359199679114879</v>
+        <v>3.407882779084612</v>
       </c>
       <c r="D177" t="n">
-        <v>3.1891380893263523</v>
+        <v>3.253061807870688</v>
       </c>
       <c r="E177" t="n">
-        <v>3.6812562490781127</v>
+        <v>3.6621411809528706</v>
       </c>
       <c r="F177" t="n">
-        <v>3.359199679114879</v>
+        <v>3.372010328472517</v>
       </c>
       <c r="G177" t="n">
-        <v>3.1891380893263523</v>
+        <v>3.6731916961889777</v>
       </c>
       <c r="H177" t="n">
-        <v>3.6812562490781127</v>
+        <v>3.398368869592515</v>
       </c>
       <c r="I177" t="n">
-        <v>3.359199679114879</v>
+        <v>3.558407812980282</v>
       </c>
       <c r="J177" t="n">
-        <v>3.1891380893263523</v>
+        <v>3.736328205123828</v>
       </c>
       <c r="K177" t="n">
-        <v>3.6812562490781127</v>
+        <v>3.436746834144932</v>
       </c>
       <c r="L177" t="n">
-        <v>3.359199679114879</v>
+        <v>3.7022376194099658</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.53007450605033</v>
+        <v>2.5052698540302285</v>
       </c>
       <c r="C178" t="n">
-        <v>2.7677877959575747</v>
+        <v>2.775943578233286</v>
       </c>
       <c r="D178" t="n">
-        <v>2.7327590509395723</v>
+        <v>2.729035657700658</v>
       </c>
       <c r="E178" t="n">
-        <v>2.53007450605033</v>
+        <v>2.4168958237584275</v>
       </c>
       <c r="F178" t="n">
-        <v>2.7677877959575747</v>
+        <v>2.7208255634258096</v>
       </c>
       <c r="G178" t="n">
-        <v>2.7327590509395723</v>
+        <v>2.6290767949110796</v>
       </c>
       <c r="H178" t="n">
-        <v>2.53007450605033</v>
+        <v>2.473748405685956</v>
       </c>
       <c r="I178" t="n">
-        <v>2.7677877959575747</v>
+        <v>2.752289766803653</v>
       </c>
       <c r="J178" t="n">
-        <v>2.7327590509395723</v>
+        <v>2.7389534134970486</v>
       </c>
       <c r="K178" t="n">
-        <v>2.53007450605033</v>
+        <v>2.8087031611339635</v>
       </c>
       <c r="L178" t="n">
-        <v>2.7677877959575747</v>
+        <v>2.856609024810816</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.1078067573142283</v>
+        <v>3.077036393380424</v>
       </c>
       <c r="C179" t="n">
-        <v>3.3998009127869113</v>
+        <v>3.409484771651843</v>
       </c>
       <c r="D179" t="n">
-        <v>3.356773495923552</v>
+        <v>3.3518712661109133</v>
       </c>
       <c r="E179" t="n">
-        <v>3.1078067573142283</v>
+        <v>2.9684931532426075</v>
       </c>
       <c r="F179" t="n">
-        <v>3.3998009127869113</v>
+        <v>3.3417874187217183</v>
       </c>
       <c r="G179" t="n">
-        <v>3.356773495923552</v>
+        <v>3.229099238918053</v>
       </c>
       <c r="H179" t="n">
-        <v>3.1078067573142283</v>
+        <v>3.0383209457924703</v>
       </c>
       <c r="I179" t="n">
-        <v>3.3998009127869113</v>
+        <v>3.3804325565804594</v>
       </c>
       <c r="J179" t="n">
-        <v>3.356773495923552</v>
+        <v>3.3640525069768663</v>
       </c>
       <c r="K179" t="n">
-        <v>3.1078067573142283</v>
+        <v>3.449720927711114</v>
       </c>
       <c r="L179" t="n">
-        <v>3.3998009127869113</v>
+        <v>3.5085601324989173</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.3053581403101442</v>
+        <v>1.3190987523134088</v>
       </c>
       <c r="C184" t="n">
-        <v>1.4280031364548367</v>
+        <v>1.4616164820126258</v>
       </c>
       <c r="D184" t="n">
-        <v>1.4099305234370174</v>
+        <v>1.4369180730373747</v>
       </c>
       <c r="E184" t="n">
-        <v>1.3053581403101442</v>
+        <v>1.2725672088627473</v>
       </c>
       <c r="F184" t="n">
-        <v>1.4280031364548367</v>
+        <v>1.4325952153233024</v>
       </c>
       <c r="G184" t="n">
-        <v>1.4099305234370174</v>
+        <v>1.3842867722709986</v>
       </c>
       <c r="H184" t="n">
-        <v>1.3053581403101442</v>
+        <v>1.3025017764965516</v>
       </c>
       <c r="I184" t="n">
-        <v>1.4280031364548367</v>
+        <v>1.449162049970468</v>
       </c>
       <c r="J184" t="n">
-        <v>1.4099305234370174</v>
+        <v>1.4421400651017113</v>
       </c>
       <c r="K184" t="n">
-        <v>1.3053581403101442</v>
+        <v>1.4788653723311975</v>
       </c>
       <c r="L184" t="n">
-        <v>1.4280031364548367</v>
+        <v>1.504089227918241</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.3406210914773844</v>
+        <v>2.2942721589728814</v>
       </c>
       <c r="C187" t="n">
-        <v>2.560534275358265</v>
+        <v>2.542149324223394</v>
       </c>
       <c r="D187" t="n">
-        <v>2.5281285026424603</v>
+        <v>2.4991920611803757</v>
       </c>
       <c r="E187" t="n">
-        <v>2.3406210914773844</v>
+        <v>2.213341125973522</v>
       </c>
       <c r="F187" t="n">
-        <v>2.560534275358265</v>
+        <v>2.491673433721132</v>
       </c>
       <c r="G187" t="n">
-        <v>2.5281285026424603</v>
+        <v>2.407651888144009</v>
       </c>
       <c r="H187" t="n">
-        <v>2.3406210914773844</v>
+        <v>2.2654054956749428</v>
       </c>
       <c r="I187" t="n">
-        <v>2.560534275358265</v>
+        <v>2.5204876733120956</v>
       </c>
       <c r="J187" t="n">
-        <v>2.5281285026424603</v>
+        <v>2.5082745282713144</v>
       </c>
       <c r="K187" t="n">
-        <v>2.3406210914773844</v>
+        <v>2.572149844473809</v>
       </c>
       <c r="L187" t="n">
-        <v>2.560534275358265</v>
+        <v>2.616021002348695</v>
       </c>
     </row>
     <row r="188">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>2.027757999438906</v>
+        <v>2.048449407596446</v>
       </c>
       <c r="C200" t="n">
-        <v>2.083761208567006</v>
+        <v>2.115407034335143</v>
       </c>
       <c r="D200" t="n">
-        <v>2.2046500389534645</v>
+        <v>2.2323421891834734</v>
       </c>
       <c r="E200" t="n">
-        <v>2.027757999438906</v>
+        <v>2.0945198565765</v>
       </c>
       <c r="F200" t="n">
-        <v>2.083761208567006</v>
+        <v>2.2199474985959275</v>
       </c>
       <c r="G200" t="n">
-        <v>2.2046500389534645</v>
+        <v>2.3239864255975786</v>
       </c>
       <c r="H200" t="n">
-        <v>2.027757999438906</v>
+        <v>2.4120718236036938</v>
       </c>
       <c r="I200" t="n">
-        <v>2.083761208567006</v>
+        <v>2.311325483122425</v>
       </c>
       <c r="J200" t="n">
-        <v>2.2046500389534645</v>
+        <v>2.332504397072177</v>
       </c>
       <c r="K200" t="n">
-        <v>2.027757999438906</v>
+        <v>2.088790862247878</v>
       </c>
       <c r="L200" t="n">
-        <v>2.083761208567006</v>
+        <v>2.312725436865452</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.4014166943997826</v>
+        <v>1.387541281583943</v>
       </c>
       <c r="C213" t="n">
-        <v>1.4580146171358515</v>
+        <v>1.4322993264127573</v>
       </c>
       <c r="D213" t="n">
-        <v>1.4614962022478402</v>
+        <v>1.4279903638433353</v>
       </c>
       <c r="E213" t="n">
-        <v>1.4014166943997826</v>
+        <v>1.4497984028145392</v>
       </c>
       <c r="F213" t="n">
-        <v>1.4580146171358515</v>
+        <v>1.443625295680199</v>
       </c>
       <c r="G213" t="n">
-        <v>1.4614962022478402</v>
+        <v>1.4569183462459077</v>
       </c>
       <c r="H213" t="n">
-        <v>1.4014166943997826</v>
+        <v>1.268476742182132</v>
       </c>
       <c r="I213" t="n">
-        <v>1.4580146171358515</v>
+        <v>1.3401016289740935</v>
       </c>
       <c r="J213" t="n">
-        <v>1.4614962022478402</v>
+        <v>1.3288465761372568</v>
       </c>
       <c r="K213" t="n">
-        <v>1.4014166943997826</v>
+        <v>1.3018760207010152</v>
       </c>
       <c r="L213" t="n">
-        <v>1.4580146171358515</v>
+        <v>1.3148587173217785</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>1.0237738433936914</v>
+        <v>1.013637468706625</v>
       </c>
       <c r="C214" t="n">
-        <v>1.065120198920319</v>
+        <v>1.0463344643684382</v>
       </c>
       <c r="D214" t="n">
-        <v>1.0676635936047454</v>
+        <v>1.043186647456905</v>
       </c>
       <c r="E214" t="n">
-        <v>1.0237738433936914</v>
+        <v>1.0591180260137953</v>
       </c>
       <c r="F214" t="n">
-        <v>1.065120198920319</v>
+        <v>1.0546083996893343</v>
       </c>
       <c r="G214" t="n">
-        <v>1.0676635936047454</v>
+        <v>1.0643193425676842</v>
       </c>
       <c r="H214" t="n">
-        <v>1.0237738433936914</v>
+        <v>0.9266575136351617</v>
       </c>
       <c r="I214" t="n">
-        <v>1.065120198920319</v>
+        <v>0.9789814840335951</v>
       </c>
       <c r="J214" t="n">
-        <v>1.0676635936047454</v>
+        <v>0.9707593551361635</v>
       </c>
       <c r="K214" t="n">
-        <v>1.0237738433936914</v>
+        <v>0.9510566148250461</v>
       </c>
       <c r="L214" t="n">
-        <v>1.065120198920319</v>
+        <v>0.960540835521265</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>1.3753284420365721</v>
+        <v>1.3895070857689078</v>
       </c>
       <c r="C221" t="n">
-        <v>1.3579740719986826</v>
+        <v>1.3827782375336548</v>
       </c>
       <c r="D221" t="n">
-        <v>1.2732078819002328</v>
+        <v>1.2754604403560241</v>
       </c>
       <c r="E221" t="n">
-        <v>1.3753284420365721</v>
+        <v>1.3281102605154504</v>
       </c>
       <c r="F221" t="n">
-        <v>1.3579740719986826</v>
+        <v>1.390352798472453</v>
       </c>
       <c r="G221" t="n">
-        <v>1.2732078819002328</v>
+        <v>1.249644227161639</v>
       </c>
       <c r="H221" t="n">
-        <v>1.3753284420365721</v>
+        <v>1.4188507137808282</v>
       </c>
       <c r="I221" t="n">
-        <v>1.3579740719986826</v>
+        <v>1.3836157766788546</v>
       </c>
       <c r="J221" t="n">
-        <v>1.2732078819002328</v>
+        <v>1.4430509460491416</v>
       </c>
       <c r="K221" t="n">
-        <v>1.3753284420365721</v>
+        <v>1.374458271760284</v>
       </c>
       <c r="L221" t="n">
-        <v>1.3579740719986826</v>
+        <v>1.395448777238324</v>
       </c>
     </row>
     <row r="222">
@@ -8504,34 +8504,34 @@
         <v>1.4881324653875767</v>
       </c>
       <c r="C222" t="n">
-        <v>1.4693546951616585</v>
+        <v>1.4809260123826935</v>
       </c>
       <c r="D222" t="n">
-        <v>1.377636007757851</v>
+        <v>1.3659909395575434</v>
       </c>
       <c r="E222" t="n">
-        <v>1.4881324653875767</v>
+        <v>1.4223777744851993</v>
       </c>
       <c r="F222" t="n">
-        <v>1.4693546951616585</v>
+        <v>1.489038205662978</v>
       </c>
       <c r="G222" t="n">
-        <v>1.377636007757851</v>
+        <v>1.3383423256127844</v>
       </c>
       <c r="H222" t="n">
-        <v>1.4881324653875767</v>
+        <v>1.5195588653995142</v>
       </c>
       <c r="I222" t="n">
-        <v>1.4693546951616585</v>
+        <v>1.4818229989513623</v>
       </c>
       <c r="J222" t="n">
-        <v>1.377636007757851</v>
+        <v>1.54547679822421</v>
       </c>
       <c r="K222" t="n">
-        <v>1.4881324653875767</v>
+        <v>1.4720155064161728</v>
       </c>
       <c r="L222" t="n">
-        <v>1.4693546951616585</v>
+        <v>1.4944958902779661</v>
       </c>
     </row>
     <row r="223">
@@ -8580,34 +8580,34 @@
         <v>1.9850883986250503</v>
       </c>
       <c r="C224" t="n">
-        <v>1.9600398665255852</v>
+        <v>1.975475379227947</v>
       </c>
       <c r="D224" t="n">
-        <v>1.837692087320999</v>
+        <v>1.8221581947924144</v>
       </c>
       <c r="E224" t="n">
-        <v>1.9850883986250503</v>
+        <v>1.8973751895516295</v>
       </c>
       <c r="F224" t="n">
-        <v>1.9600398665255852</v>
+        <v>1.9862966072722548</v>
       </c>
       <c r="G224" t="n">
-        <v>1.837692087320999</v>
+        <v>1.7852764359057756</v>
       </c>
       <c r="H224" t="n">
-        <v>1.9850883986250503</v>
+        <v>2.027009520249125</v>
       </c>
       <c r="I224" t="n">
-        <v>1.9600398665255852</v>
+        <v>1.9766719109027822</v>
       </c>
       <c r="J224" t="n">
-        <v>1.837692087320999</v>
+        <v>2.0615826439214504</v>
       </c>
       <c r="K224" t="n">
-        <v>1.9850883986250503</v>
+        <v>1.9635892451428252</v>
       </c>
       <c r="L224" t="n">
-        <v>1.9600398665255852</v>
+        <v>1.9935768640132068</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>3.059359095916706</v>
+        <v>3.121164330177649</v>
       </c>
       <c r="C230" t="n">
-        <v>2.791709513803671</v>
+        <v>2.86077604008015</v>
       </c>
       <c r="D230" t="n">
-        <v>2.6503774694191278</v>
+        <v>2.730810265532675</v>
       </c>
       <c r="E230" t="n">
-        <v>3.059359095916706</v>
+        <v>3.0742154073371313</v>
       </c>
       <c r="F230" t="n">
-        <v>2.791709513803671</v>
+        <v>2.830662607822481</v>
       </c>
       <c r="G230" t="n">
-        <v>2.6503774694191278</v>
+        <v>3.083491855873453</v>
       </c>
       <c r="H230" t="n">
-        <v>3.059359095916706</v>
+        <v>2.8527895082400514</v>
       </c>
       <c r="I230" t="n">
-        <v>2.791709513803671</v>
+        <v>2.987135553688964</v>
       </c>
       <c r="J230" t="n">
-        <v>2.6503774694191278</v>
+        <v>3.1364923326280096</v>
       </c>
       <c r="K230" t="n">
-        <v>3.059359095916706</v>
+        <v>2.885006215379283</v>
       </c>
       <c r="L230" t="n">
-        <v>2.791709513803671</v>
+        <v>3.107874701939224</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>2.9553739182847067</v>
+        <v>3.015078441886418</v>
       </c>
       <c r="C238" t="n">
-        <v>2.696821532174685</v>
+        <v>2.7635405422629304</v>
       </c>
       <c r="D238" t="n">
-        <v>2.560293251349652</v>
+        <v>2.637992200821114</v>
       </c>
       <c r="E238" t="n">
-        <v>2.9553739182847067</v>
+        <v>2.969725275519117</v>
       </c>
       <c r="F238" t="n">
-        <v>2.696821532174685</v>
+        <v>2.734450641569962</v>
       </c>
       <c r="G238" t="n">
-        <v>2.560293251349652</v>
+        <v>2.978686424962197</v>
       </c>
       <c r="H238" t="n">
-        <v>2.9553739182847067</v>
+        <v>2.7558254662755184</v>
       </c>
       <c r="I238" t="n">
-        <v>2.696821532174685</v>
+        <v>2.885605196701521</v>
       </c>
       <c r="J238" t="n">
-        <v>2.560293251349652</v>
+        <v>3.0298854577485512</v>
       </c>
       <c r="K238" t="n">
-        <v>2.9553739182847067</v>
+        <v>2.7869471532129495</v>
       </c>
       <c r="L238" t="n">
-        <v>2.696821532174685</v>
+        <v>3.002240517521161</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>2.9983328893429895</v>
+        <v>2.968937468859235</v>
       </c>
       <c r="C242" t="n">
-        <v>2.90817134975742</v>
+        <v>2.8761608865662307</v>
       </c>
       <c r="D242" t="n">
-        <v>2.7218176069524933</v>
+        <v>2.6985899011410575</v>
       </c>
       <c r="E242" t="n">
-        <v>2.9983328893429895</v>
+        <v>2.7544957380802884</v>
       </c>
       <c r="F242" t="n">
-        <v>2.90817134975742</v>
+        <v>2.977923359102965</v>
       </c>
       <c r="G242" t="n">
-        <v>2.7218176069524933</v>
+        <v>2.9797270665355473</v>
       </c>
       <c r="H242" t="n">
-        <v>2.9983328893429895</v>
+        <v>2.860191504971544</v>
       </c>
       <c r="I242" t="n">
-        <v>2.90817134975742</v>
+        <v>2.639232503325876</v>
       </c>
       <c r="J242" t="n">
-        <v>2.7218176069524933</v>
+        <v>3.055608317342358</v>
       </c>
       <c r="K242" t="n">
-        <v>2.9983328893429895</v>
+        <v>2.994235780966668</v>
       </c>
       <c r="L242" t="n">
-        <v>2.90817134975742</v>
+        <v>2.691208636079105</v>
       </c>
     </row>
     <row r="243">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>1.273706210941329</v>
+        <v>1.2358733531905965</v>
       </c>
       <c r="C250" t="n">
-        <v>1.2354051559229395</v>
+        <v>1.1972534404916353</v>
       </c>
       <c r="D250" t="n">
-        <v>1.1562411910121555</v>
+        <v>1.1233363400176097</v>
       </c>
       <c r="E250" t="n">
-        <v>1.273706210941329</v>
+        <v>1.1466081451282648</v>
       </c>
       <c r="F250" t="n">
-        <v>1.2354051559229395</v>
+        <v>1.2396138908150511</v>
       </c>
       <c r="G250" t="n">
-        <v>1.1562411910121555</v>
+        <v>1.240364716312813</v>
       </c>
       <c r="H250" t="n">
-        <v>1.273706210941329</v>
+        <v>1.1906058996165527</v>
       </c>
       <c r="I250" t="n">
-        <v>1.2354051559229395</v>
+        <v>1.0986277609235868</v>
       </c>
       <c r="J250" t="n">
-        <v>1.1562411910121555</v>
+        <v>1.2719516449236548</v>
       </c>
       <c r="K250" t="n">
-        <v>1.273706210941329</v>
+        <v>1.2464042283411225</v>
       </c>
       <c r="L250" t="n">
-        <v>1.2354051559229395</v>
+        <v>1.1202637563412654</v>
       </c>
     </row>
     <row r="251">
@@ -9682,34 +9682,34 @@
         <v>1.7184850046216293</v>
       </c>
       <c r="C253" t="n">
-        <v>1.6812395768537767</v>
+        <v>1.6806857087687772</v>
       </c>
       <c r="D253" t="n">
-        <v>1.7364756970347466</v>
+        <v>1.754086317147948</v>
       </c>
       <c r="E253" t="n">
-        <v>1.7184850046216293</v>
+        <v>1.9231419053510048</v>
       </c>
       <c r="F253" t="n">
-        <v>1.6812395768537767</v>
+        <v>1.831563718649284</v>
       </c>
       <c r="G253" t="n">
-        <v>1.7364756970347466</v>
+        <v>1.9055949902073137</v>
       </c>
       <c r="H253" t="n">
-        <v>1.7184850046216293</v>
+        <v>1.7356222504941816</v>
       </c>
       <c r="I253" t="n">
-        <v>1.6812395768537767</v>
+        <v>1.8906446354581543</v>
       </c>
       <c r="J253" t="n">
-        <v>1.7364756970347466</v>
+        <v>1.7491893709956061</v>
       </c>
       <c r="K253" t="n">
-        <v>1.7184850046216293</v>
+        <v>1.6743977348760997</v>
       </c>
       <c r="L253" t="n">
-        <v>1.6812395768537767</v>
+        <v>1.7689430617371242</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>1.4263522408423344</v>
+        <v>1.4409068555448072</v>
       </c>
       <c r="C254" t="n">
-        <v>1.3954383258445686</v>
+        <v>1.4092130878467102</v>
       </c>
       <c r="D254" t="n">
-        <v>1.4412846169577749</v>
+        <v>1.4707576689924697</v>
       </c>
       <c r="E254" t="n">
-        <v>1.4263522408423344</v>
+        <v>1.6125065672108618</v>
       </c>
       <c r="F254" t="n">
-        <v>1.3954383258445686</v>
+        <v>1.5357205395865325</v>
       </c>
       <c r="G254" t="n">
-        <v>1.4412846169577749</v>
+        <v>1.5977939160930394</v>
       </c>
       <c r="H254" t="n">
-        <v>1.4263522408423344</v>
+        <v>1.4552760091868284</v>
       </c>
       <c r="I254" t="n">
-        <v>1.3954383258445686</v>
+        <v>1.5852584161655126</v>
       </c>
       <c r="J254" t="n">
-        <v>1.4412846169577749</v>
+        <v>1.4666517016647556</v>
       </c>
       <c r="K254" t="n">
-        <v>1.4263522408423344</v>
+        <v>1.403940778420047</v>
       </c>
       <c r="L254" t="n">
-        <v>1.3954383258445686</v>
+        <v>1.4832146791334082</v>
       </c>
     </row>
     <row r="255">
@@ -9948,34 +9948,34 @@
         <v>2.422813282573453</v>
       </c>
       <c r="C260" t="n">
-        <v>2.370302660212246</v>
+        <v>2.3695217869724323</v>
       </c>
       <c r="D260" t="n">
-        <v>2.448177535635871</v>
+        <v>2.473005942174114</v>
       </c>
       <c r="E260" t="n">
-        <v>2.422813282573453</v>
+        <v>2.7113496713833287</v>
       </c>
       <c r="F260" t="n">
-        <v>2.370302660212246</v>
+        <v>2.582237781236942</v>
       </c>
       <c r="G260" t="n">
-        <v>2.448177535635871</v>
+        <v>2.686611079563213</v>
       </c>
       <c r="H260" t="n">
-        <v>2.422813282573453</v>
+        <v>2.4469743004555315</v>
       </c>
       <c r="I260" t="n">
-        <v>2.370302660212246</v>
+        <v>2.6655332592924315</v>
       </c>
       <c r="J260" t="n">
-        <v>2.448177535635871</v>
+        <v>2.4661019621277163</v>
       </c>
       <c r="K260" t="n">
-        <v>2.422813282573453</v>
+        <v>2.3606566606392474</v>
       </c>
       <c r="L260" t="n">
-        <v>2.370302660212246</v>
+        <v>2.4939517857687066</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>1.038343848475148</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9799899924380505</v>
+        <v>0.9719381367671959</v>
       </c>
       <c r="D265" t="n">
-        <v>0.9986331686873461</v>
+        <v>1.0119452757100755</v>
       </c>
       <c r="E265" t="n">
-        <v>1.038343848475148</v>
+        <v>0.9145150955297784</v>
       </c>
       <c r="F265" t="n">
-        <v>0.9799899924380505</v>
+        <v>0.9334079261150922</v>
       </c>
       <c r="G265" t="n">
-        <v>0.9986331686873461</v>
+        <v>0.8934973783387081</v>
       </c>
       <c r="H265" t="n">
-        <v>1.038343848475148</v>
+        <v>0.9170233656923982</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9799899924380505</v>
+        <v>1.026233023858923</v>
       </c>
       <c r="J265" t="n">
-        <v>0.9986331686873461</v>
+        <v>0.9773647842365998</v>
       </c>
       <c r="K265" t="n">
-        <v>1.038343848475148</v>
+        <v>1.008891728629223</v>
       </c>
       <c r="L265" t="n">
-        <v>0.9799899924380505</v>
+        <v>0.9360210499015424</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>2.357177372674584</v>
+        <v>2.380987245125843</v>
       </c>
       <c r="C266" t="n">
-        <v>2.224706429392207</v>
+        <v>2.2287148039568305</v>
       </c>
       <c r="D266" t="n">
-        <v>2.267028896342013</v>
+        <v>2.320453670303332</v>
       </c>
       <c r="E266" t="n">
-        <v>2.357177372674584</v>
+        <v>2.097040186763874</v>
       </c>
       <c r="F266" t="n">
-        <v>2.224706429392207</v>
+        <v>2.140362626352663</v>
       </c>
       <c r="G266" t="n">
-        <v>2.267028896342013</v>
+        <v>2.048845249578961</v>
       </c>
       <c r="H266" t="n">
-        <v>2.357177372674584</v>
+        <v>2.102791806781942</v>
       </c>
       <c r="I266" t="n">
-        <v>2.224706429392207</v>
+        <v>2.353216368473052</v>
       </c>
       <c r="J266" t="n">
-        <v>2.267028896342013</v>
+        <v>2.2411584452683475</v>
       </c>
       <c r="K266" t="n">
-        <v>2.357177372674584</v>
+        <v>2.3134516962823195</v>
       </c>
       <c r="L266" t="n">
-        <v>2.224706429392207</v>
+        <v>2.14635468227384</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.358527534208451</v>
+        <v>2.4292833602347046</v>
       </c>
       <c r="C268" t="n">
-        <v>2.423666032376973</v>
+        <v>2.5086892991238563</v>
       </c>
       <c r="D268" t="n">
-        <v>2.5642743471382077</v>
+        <v>2.6473642524061196</v>
       </c>
       <c r="E268" t="n">
-        <v>2.358527534208451</v>
+        <v>2.4839189175937246</v>
       </c>
       <c r="F268" t="n">
-        <v>2.423666032376973</v>
+        <v>2.6326652242104895</v>
       </c>
       <c r="G268" t="n">
-        <v>2.5642743471382077</v>
+        <v>2.756046369600034</v>
       </c>
       <c r="H268" t="n">
-        <v>2.358527534208451</v>
+        <v>2.8605080130569673</v>
       </c>
       <c r="I268" t="n">
-        <v>2.423666032376973</v>
+        <v>2.7410315897544977</v>
       </c>
       <c r="J268" t="n">
-        <v>2.5642743471382077</v>
+        <v>2.766147945108543</v>
       </c>
       <c r="K268" t="n">
-        <v>2.358527534208451</v>
+        <v>2.4771248271261794</v>
       </c>
       <c r="L268" t="n">
-        <v>2.423666032376973</v>
+        <v>2.7426918134927183</v>
       </c>
     </row>
     <row r="269">
@@ -10287,37 +10287,37 @@
         <v>268.0</v>
       </c>
       <c r="B269" t="n">
-        <v>1.512996945809784</v>
+        <v>1.5289232294498873</v>
       </c>
       <c r="C269" t="n">
-        <v>1.4279680740251544</v>
+        <v>1.4311432547839418</v>
       </c>
       <c r="D269" t="n">
-        <v>1.4551335151907192</v>
+        <v>1.4900522993778162</v>
       </c>
       <c r="E269" t="n">
-        <v>1.512996945809784</v>
+        <v>1.3465899328930502</v>
       </c>
       <c r="F269" t="n">
-        <v>1.4279680740251544</v>
+        <v>1.3744089329231148</v>
       </c>
       <c r="G269" t="n">
-        <v>1.4551335151907192</v>
+        <v>1.31564211527885</v>
       </c>
       <c r="H269" t="n">
-        <v>1.512996945809784</v>
+        <v>1.3502832687017972</v>
       </c>
       <c r="I269" t="n">
-        <v>1.4279680740251544</v>
+        <v>1.511090484438943</v>
       </c>
       <c r="J269" t="n">
-        <v>1.4551335151907192</v>
+        <v>1.4391337941281017</v>
       </c>
       <c r="K269" t="n">
-        <v>1.512996945809784</v>
+        <v>1.4855560633082423</v>
       </c>
       <c r="L269" t="n">
-        <v>1.4279680740251544</v>
+        <v>1.3782566618468226</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>3.514280675711619</v>
+        <v>3.479826943596799</v>
       </c>
       <c r="C272" t="n">
-        <v>3.316781717225385</v>
+        <v>3.257279870053286</v>
       </c>
       <c r="D272" t="n">
-        <v>3.3798796535429165</v>
+        <v>3.3913567659044053</v>
       </c>
       <c r="E272" t="n">
-        <v>3.514280675711619</v>
+        <v>3.0648366380982037</v>
       </c>
       <c r="F272" t="n">
-        <v>3.316781717225385</v>
+        <v>3.128152639833209</v>
       </c>
       <c r="G272" t="n">
-        <v>3.3798796535429165</v>
+        <v>2.9943994523029684</v>
       </c>
       <c r="H272" t="n">
-        <v>3.514280675711619</v>
+        <v>3.073242664778597</v>
       </c>
       <c r="I272" t="n">
-        <v>3.316781717225385</v>
+        <v>3.439239643088779</v>
       </c>
       <c r="J272" t="n">
-        <v>3.3798796535429165</v>
+        <v>3.2754663254410312</v>
       </c>
       <c r="K272" t="n">
-        <v>3.514280675711619</v>
+        <v>3.3811233394521794</v>
       </c>
       <c r="L272" t="n">
-        <v>3.316781717225385</v>
+        <v>3.1369100650083066</v>
       </c>
     </row>
     <row r="273">
@@ -10477,37 +10477,37 @@
         <v>273.0</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8601596429647789</v>
+        <v>0.8692139549959871</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9223748496757241</v>
+        <v>0.9323912258728503</v>
       </c>
       <c r="D274" t="n">
-        <v>0.9606827716543572</v>
+        <v>0.9724434075284698</v>
       </c>
       <c r="E274" t="n">
-        <v>0.8601596429647789</v>
+        <v>0.936931171220932</v>
       </c>
       <c r="F274" t="n">
-        <v>0.9223748496757241</v>
+        <v>0.9449833732506414</v>
       </c>
       <c r="G274" t="n">
-        <v>0.9606827716543572</v>
+        <v>0.8528409496965906</v>
       </c>
       <c r="H274" t="n">
-        <v>0.8601596429647789</v>
+        <v>0.8619137258353936</v>
       </c>
       <c r="I274" t="n">
-        <v>0.9223748496757241</v>
+        <v>0.9363612622059541</v>
       </c>
       <c r="J274" t="n">
-        <v>0.9606827716543572</v>
+        <v>0.8227567686315161</v>
       </c>
       <c r="K274" t="n">
-        <v>0.8601596429647789</v>
+        <v>0.8999841646406173</v>
       </c>
       <c r="L274" t="n">
-        <v>0.9223748496757241</v>
+        <v>0.8444201397876543</v>
       </c>
     </row>
     <row r="275">
@@ -10518,34 +10518,34 @@
         <v>5.668725490010528</v>
       </c>
       <c r="C275" t="n">
-        <v>5.573578190280786</v>
+        <v>5.573659911141568</v>
       </c>
       <c r="D275" t="n">
-        <v>4.957785884186343</v>
+        <v>4.908967423049288</v>
       </c>
       <c r="E275" t="n">
-        <v>5.668725490010528</v>
+        <v>5.0103810468657075</v>
       </c>
       <c r="F275" t="n">
-        <v>5.573578190280786</v>
+        <v>5.481730270987625</v>
       </c>
       <c r="G275" t="n">
-        <v>4.957785884186343</v>
+        <v>5.399273436197873</v>
       </c>
       <c r="H275" t="n">
-        <v>5.668725490010528</v>
+        <v>5.4319566912032835</v>
       </c>
       <c r="I275" t="n">
-        <v>5.573578190280786</v>
+        <v>5.217204914310819</v>
       </c>
       <c r="J275" t="n">
-        <v>4.957785884186343</v>
+        <v>4.814159038801003</v>
       </c>
       <c r="K275" t="n">
-        <v>5.668725490010528</v>
+        <v>5.43524678952883</v>
       </c>
       <c r="L275" t="n">
-        <v>5.573578190280786</v>
+        <v>5.461711778358704</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.26580077059721713</v>
       </c>
       <c r="C280" t="n">
-        <v>0.29077409667415616</v>
+        <v>0.29451834940728144</v>
       </c>
       <c r="D280" t="n">
-        <v>0.2870940993473686</v>
+        <v>0.28954157558603894</v>
       </c>
       <c r="E280" t="n">
-        <v>0.26580077059721713</v>
+        <v>0.25642458091879256</v>
       </c>
       <c r="F280" t="n">
-        <v>0.29077409667415616</v>
+        <v>0.2886705119832818</v>
       </c>
       <c r="G280" t="n">
-        <v>0.2870940993473686</v>
+        <v>0.2789362738399018</v>
       </c>
       <c r="H280" t="n">
-        <v>0.26580077059721713</v>
+        <v>0.26245645012540464</v>
       </c>
       <c r="I280" t="n">
-        <v>0.29077409667415616</v>
+        <v>0.29200875895520156</v>
       </c>
       <c r="J280" t="n">
-        <v>0.2870940993473686</v>
+        <v>0.29059381637719955</v>
       </c>
       <c r="K280" t="n">
-        <v>0.26580077059721713</v>
+        <v>0.29799403182346335</v>
       </c>
       <c r="L280" t="n">
-        <v>0.29077409667415616</v>
+        <v>0.30307668408184113</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>5.958829839260479</v>
+        <v>5.899831524020276</v>
       </c>
       <c r="C282" t="n">
-        <v>5.8588132535652</v>
+        <v>5.80089025405603</v>
       </c>
       <c r="D282" t="n">
-        <v>5.211506980786806</v>
+        <v>5.1090991800417855</v>
       </c>
       <c r="E282" t="n">
-        <v>5.958829839260479</v>
+        <v>5.214647295894567</v>
       </c>
       <c r="F282" t="n">
-        <v>5.8588132535652</v>
+        <v>5.705212770655601</v>
       </c>
       <c r="G282" t="n">
-        <v>5.211506980786806</v>
+        <v>5.619394285685604</v>
       </c>
       <c r="H282" t="n">
-        <v>5.958829839260479</v>
+        <v>5.653409991425511</v>
       </c>
       <c r="I282" t="n">
-        <v>5.8588132535652</v>
+        <v>5.429903084029441</v>
       </c>
       <c r="J282" t="n">
-        <v>5.211506980786806</v>
+        <v>5.010425590164282</v>
       </c>
       <c r="K282" t="n">
-        <v>5.958829839260479</v>
+        <v>5.656834222472225</v>
       </c>
       <c r="L282" t="n">
-        <v>5.8588132535652</v>
+        <v>5.684378151995092</v>
       </c>
     </row>
     <row r="283">
@@ -10857,37 +10857,37 @@
         <v>283.0</v>
       </c>
       <c r="B284" t="n">
-        <v>1.6324331507603573</v>
+        <v>1.6161088192527537</v>
       </c>
       <c r="C284" t="n">
-        <v>1.8790424274075153</v>
+        <v>1.8662330524569308</v>
       </c>
       <c r="D284" t="n">
-        <v>1.857122465601354</v>
+        <v>1.8349359777002066</v>
       </c>
       <c r="E284" t="n">
-        <v>1.6324331507603573</v>
+        <v>1.7882850624010942</v>
       </c>
       <c r="F284" t="n">
-        <v>1.8790424274075153</v>
+        <v>1.5789668209641725</v>
       </c>
       <c r="G284" t="n">
-        <v>1.857122465601354</v>
+        <v>1.6205413732375844</v>
       </c>
       <c r="H284" t="n">
-        <v>1.6324331507603573</v>
+        <v>1.8135340231929753</v>
       </c>
       <c r="I284" t="n">
-        <v>1.8790424274075153</v>
+        <v>1.654113618404288</v>
       </c>
       <c r="J284" t="n">
-        <v>1.857122465601354</v>
+        <v>1.6681236151244425</v>
       </c>
       <c r="K284" t="n">
-        <v>1.6324331507603573</v>
+        <v>1.6367018959567983</v>
       </c>
       <c r="L284" t="n">
-        <v>1.8790424274075153</v>
+        <v>1.7828889083173716</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>3.370755144314754</v>
       </c>
       <c r="C299" t="n">
-        <v>3.8799701694488378</v>
+        <v>3.8924449808819435</v>
       </c>
       <c r="D299" t="n">
-        <v>3.834708393193629</v>
+        <v>3.8271679559183585</v>
       </c>
       <c r="E299" t="n">
-        <v>3.370755144314754</v>
+        <v>3.7298670744070614</v>
       </c>
       <c r="F299" t="n">
-        <v>3.8799701694488378</v>
+        <v>3.293287228596521</v>
       </c>
       <c r="G299" t="n">
-        <v>3.834708393193629</v>
+        <v>3.3800002235871562</v>
       </c>
       <c r="H299" t="n">
-        <v>3.370755144314754</v>
+        <v>3.7825294096804907</v>
       </c>
       <c r="I299" t="n">
-        <v>3.8799701694488378</v>
+        <v>3.4500226235355624</v>
       </c>
       <c r="J299" t="n">
-        <v>3.834708393193629</v>
+        <v>3.4792435942732434</v>
       </c>
       <c r="K299" t="n">
-        <v>3.370755144314754</v>
+        <v>3.4137065956096744</v>
       </c>
       <c r="L299" t="n">
-        <v>3.8799701694488378</v>
+        <v>3.7186121923591844</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>1.7757851226761117</v>
+        <v>1.6702929371706</v>
       </c>
       <c r="C302" t="n">
-        <v>2.0440503710141296</v>
+        <v>1.9288032151661867</v>
       </c>
       <c r="D302" t="n">
-        <v>2.02020550971192</v>
+        <v>1.896456827164649</v>
       </c>
       <c r="E302" t="n">
-        <v>1.7757851226761117</v>
+        <v>1.84824182245186</v>
       </c>
       <c r="F302" t="n">
-        <v>2.0440503710141296</v>
+        <v>1.6319056598568702</v>
       </c>
       <c r="G302" t="n">
-        <v>2.02020550971192</v>
+        <v>1.6748741036900137</v>
       </c>
       <c r="H302" t="n">
-        <v>1.7757851226761117</v>
+        <v>1.8743373182372713</v>
       </c>
       <c r="I302" t="n">
-        <v>2.0440503710141296</v>
+        <v>1.7095719429189542</v>
       </c>
       <c r="J302" t="n">
-        <v>2.02020550971192</v>
+        <v>1.7240516600597078</v>
       </c>
       <c r="K302" t="n">
-        <v>1.7757851226761117</v>
+        <v>1.691576448629489</v>
       </c>
       <c r="L302" t="n">
-        <v>2.0440503710141296</v>
+        <v>1.842664748713661</v>
       </c>
     </row>
     <row r="303">
@@ -11658,34 +11658,34 @@
         <v>2.348924174727129</v>
       </c>
       <c r="C305" t="n">
-        <v>2.7037726972278313</v>
+        <v>2.7124658193609554</v>
       </c>
       <c r="D305" t="n">
-        <v>2.672231847808298</v>
+        <v>2.6669772639997498</v>
       </c>
       <c r="E305" t="n">
-        <v>2.348924174727129</v>
+        <v>2.599172756398647</v>
       </c>
       <c r="F305" t="n">
-        <v>2.7037726972278313</v>
+        <v>2.294940348490687</v>
       </c>
       <c r="G305" t="n">
-        <v>2.672231847808298</v>
+        <v>2.355366645114467</v>
       </c>
       <c r="H305" t="n">
-        <v>2.348924174727129</v>
+        <v>2.6358707149050606</v>
       </c>
       <c r="I305" t="n">
-        <v>2.7037726972278313</v>
+        <v>2.4041620339722534</v>
       </c>
       <c r="J305" t="n">
-        <v>2.672231847808298</v>
+        <v>2.4245247840493396</v>
       </c>
       <c r="K305" t="n">
-        <v>2.348924174727129</v>
+        <v>2.3788550649777656</v>
       </c>
       <c r="L305" t="n">
-        <v>2.7037726972278313</v>
+        <v>2.591329746926259</v>
       </c>
     </row>
     <row r="306">
@@ -11848,34 +11848,34 @@
         <v>2.501888966961277</v>
       </c>
       <c r="C310" t="n">
-        <v>2.879845655788898</v>
+        <v>2.889104884582793</v>
       </c>
       <c r="D310" t="n">
-        <v>2.8462508279863</v>
+        <v>2.8406540593046934</v>
       </c>
       <c r="E310" t="n">
-        <v>2.501888966961277</v>
+        <v>2.7684340399006415</v>
       </c>
       <c r="F310" t="n">
-        <v>2.879845655788898</v>
+        <v>2.4443896484611387</v>
       </c>
       <c r="G310" t="n">
-        <v>2.8462508279863</v>
+        <v>2.5087509788369595</v>
       </c>
       <c r="H310" t="n">
-        <v>2.501888966961277</v>
+        <v>2.8075218139910354</v>
       </c>
       <c r="I310" t="n">
-        <v>2.879845655788898</v>
+        <v>2.560723982621155</v>
       </c>
       <c r="J310" t="n">
-        <v>2.8462508279863</v>
+        <v>2.582412779689613</v>
       </c>
       <c r="K310" t="n">
-        <v>2.501888966961277</v>
+        <v>2.5337689931005185</v>
       </c>
       <c r="L310" t="n">
-        <v>2.879845655788898</v>
+        <v>2.7600802841354004</v>
       </c>
     </row>
     <row r="311">
@@ -11924,34 +11924,34 @@
         <v>1.5026327372635353</v>
       </c>
       <c r="C312" t="n">
-        <v>1.4616464975214614</v>
+        <v>1.4430643823350167</v>
       </c>
       <c r="D312" t="n">
-        <v>1.5982466826143078</v>
+        <v>1.5730543565862125</v>
       </c>
       <c r="E312" t="n">
-        <v>1.5026327372635353</v>
+        <v>1.565432045547978</v>
       </c>
       <c r="F312" t="n">
-        <v>1.4616464975214614</v>
+        <v>1.3865495208464753</v>
       </c>
       <c r="G312" t="n">
-        <v>1.5982466826143078</v>
+        <v>1.5644844482168438</v>
       </c>
       <c r="H312" t="n">
-        <v>1.5026327372635353</v>
+        <v>1.578819980683586</v>
       </c>
       <c r="I312" t="n">
-        <v>1.4616464975214614</v>
+        <v>1.5550711838850653</v>
       </c>
       <c r="J312" t="n">
-        <v>1.5982466826143078</v>
+        <v>1.4138557478930223</v>
       </c>
       <c r="K312" t="n">
-        <v>1.5026327372635353</v>
+        <v>1.632677389474419</v>
       </c>
       <c r="L312" t="n">
-        <v>1.4616464975214614</v>
+        <v>1.6052970865456273</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>2.6588892645399542</v>
+        <v>2.6323003718945546</v>
       </c>
       <c r="C314" t="n">
-        <v>2.625338480031877</v>
+        <v>2.6195531539109362</v>
       </c>
       <c r="D314" t="n">
-        <v>2.461462051711254</v>
+        <v>2.416248917239657</v>
       </c>
       <c r="E314" t="n">
-        <v>2.6588892645399542</v>
+        <v>2.5159894242188985</v>
       </c>
       <c r="F314" t="n">
-        <v>2.625338480031877</v>
+        <v>2.633902501086164</v>
       </c>
       <c r="G314" t="n">
-        <v>2.461462051711254</v>
+        <v>2.3673423457737877</v>
       </c>
       <c r="H314" t="n">
-        <v>2.6588892645399542</v>
+        <v>2.687889324062993</v>
       </c>
       <c r="I314" t="n">
-        <v>2.625338480031877</v>
+        <v>2.6211397990068597</v>
       </c>
       <c r="J314" t="n">
-        <v>2.461462051711254</v>
+        <v>2.7337345601558805</v>
       </c>
       <c r="K314" t="n">
-        <v>2.6588892645399542</v>
+        <v>2.603791702081222</v>
       </c>
       <c r="L314" t="n">
-        <v>2.625338480031877</v>
+        <v>2.6435563898197687</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>4.144764037504202</v>
+        <v>4.186630340913336</v>
       </c>
       <c r="C315" t="n">
-        <v>4.031710269738673</v>
+        <v>4.020661188293781</v>
       </c>
       <c r="D315" t="n">
-        <v>4.408499301847954</v>
+        <v>4.382838822734041</v>
       </c>
       <c r="E315" t="n">
-        <v>4.144764037504202</v>
+        <v>4.361601565040145</v>
       </c>
       <c r="F315" t="n">
-        <v>4.031710269738673</v>
+        <v>3.8631996689531807</v>
       </c>
       <c r="G315" t="n">
-        <v>4.408499301847954</v>
+        <v>4.358961372503996</v>
       </c>
       <c r="H315" t="n">
-        <v>4.144764037504202</v>
+        <v>4.398902985441107</v>
       </c>
       <c r="I315" t="n">
-        <v>4.031710269738673</v>
+        <v>4.33273416669306</v>
       </c>
       <c r="J315" t="n">
-        <v>4.408499301847954</v>
+        <v>3.9392801880407213</v>
       </c>
       <c r="K315" t="n">
-        <v>4.144764037504202</v>
+        <v>4.548960318903241</v>
       </c>
       <c r="L315" t="n">
-        <v>4.031710269738673</v>
+        <v>4.472673409838666</v>
       </c>
     </row>
     <row r="316">
@@ -12076,34 +12076,34 @@
         <v>2.0421314352926556</v>
       </c>
       <c r="C316" t="n">
-        <v>1.9864296749648753</v>
+        <v>1.9611759182647692</v>
       </c>
       <c r="D316" t="n">
-        <v>2.1720741941658255</v>
+        <v>2.1378369253813028</v>
       </c>
       <c r="E316" t="n">
-        <v>2.0421314352926556</v>
+        <v>2.127477933064189</v>
       </c>
       <c r="F316" t="n">
-        <v>1.9864296749648753</v>
+        <v>1.884370207631087</v>
       </c>
       <c r="G316" t="n">
-        <v>2.1720741941658255</v>
+        <v>2.1261901145241557</v>
       </c>
       <c r="H316" t="n">
-        <v>2.0421314352926556</v>
+        <v>2.1456726139839413</v>
       </c>
       <c r="I316" t="n">
-        <v>1.9864296749648753</v>
+        <v>2.1133971528616464</v>
       </c>
       <c r="J316" t="n">
-        <v>2.1720741941658255</v>
+        <v>1.9214803432271894</v>
       </c>
       <c r="K316" t="n">
-        <v>2.0421314352926556</v>
+        <v>2.218866751704819</v>
       </c>
       <c r="L316" t="n">
-        <v>1.9864296749648753</v>
+        <v>2.1816559443451</v>
       </c>
     </row>
     <row r="317">
@@ -12187,37 +12187,37 @@
         <v>318.0</v>
       </c>
       <c r="B319" t="n">
-        <v>3.1117700940372353</v>
+        <v>3.1432021151891267</v>
       </c>
       <c r="C319" t="n">
-        <v>3.026892564130167</v>
+        <v>3.0185972303317445</v>
       </c>
       <c r="D319" t="n">
-        <v>3.309774974629201</v>
+        <v>3.290509822069775</v>
       </c>
       <c r="E319" t="n">
-        <v>3.1117700940372353</v>
+        <v>3.2745654974295175</v>
       </c>
       <c r="F319" t="n">
-        <v>3.026892564130167</v>
+        <v>2.9003796328009583</v>
       </c>
       <c r="G319" t="n">
-        <v>3.309774974629201</v>
+        <v>3.2725833165135123</v>
       </c>
       <c r="H319" t="n">
-        <v>3.1117700940372353</v>
+        <v>3.302570335200384</v>
       </c>
       <c r="I319" t="n">
-        <v>3.026892564130167</v>
+        <v>3.2528926817863844</v>
       </c>
       <c r="J319" t="n">
-        <v>3.309774974629201</v>
+        <v>2.9574987068648215</v>
       </c>
       <c r="K319" t="n">
-        <v>3.1117700940372353</v>
+        <v>3.4152290820996685</v>
       </c>
       <c r="L319" t="n">
-        <v>3.026892564130167</v>
+        <v>3.3579550563540126</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.145333510190271</v>
+        <v>1.1569025355457283</v>
       </c>
       <c r="C323" t="n">
-        <v>1.1915892011463027</v>
+        <v>1.1942208454481298</v>
       </c>
       <c r="D323" t="n">
-        <v>1.1944345904678906</v>
+        <v>1.1906281237119913</v>
       </c>
       <c r="E323" t="n">
-        <v>1.145333510190271</v>
+        <v>1.2088112047604087</v>
       </c>
       <c r="F323" t="n">
-        <v>1.1915892011463027</v>
+        <v>1.2036641987644783</v>
       </c>
       <c r="G323" t="n">
-        <v>1.1944345904678906</v>
+        <v>1.214747662808914</v>
       </c>
       <c r="H323" t="n">
-        <v>1.145333510190271</v>
+        <v>1.0576290441146872</v>
       </c>
       <c r="I323" t="n">
-        <v>1.1915892011463027</v>
+        <v>1.1173483578659897</v>
       </c>
       <c r="J323" t="n">
-        <v>1.1944345904678906</v>
+        <v>1.1079641331676273</v>
       </c>
       <c r="K323" t="n">
-        <v>1.145333510190271</v>
+        <v>1.0854766552212807</v>
       </c>
       <c r="L323" t="n">
-        <v>1.1915892011463027</v>
+        <v>1.0963013527190275</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>2.037107230953865</v>
+        <v>2.0576840716705704</v>
       </c>
       <c r="C327" t="n">
-        <v>1.9802541744720255</v>
+        <v>2.0168275276036236</v>
       </c>
       <c r="D327" t="n">
-        <v>1.8122411258406337</v>
+        <v>1.8570456238002233</v>
       </c>
       <c r="E327" t="n">
-        <v>2.037107230953865</v>
+        <v>2.022913306993643</v>
       </c>
       <c r="F327" t="n">
-        <v>1.9802541744720255</v>
+        <v>1.8926975444197944</v>
       </c>
       <c r="G327" t="n">
-        <v>1.8122411258406337</v>
+        <v>1.8715618941162824</v>
       </c>
       <c r="H327" t="n">
-        <v>2.037107230953865</v>
+        <v>2.0389095820202403</v>
       </c>
       <c r="I327" t="n">
-        <v>1.9802541744720255</v>
+        <v>1.7915378678553597</v>
       </c>
       <c r="J327" t="n">
-        <v>1.8122411258406337</v>
+        <v>1.8387094637040098</v>
       </c>
       <c r="K327" t="n">
-        <v>2.037107230953865</v>
+        <v>1.8768014284790178</v>
       </c>
       <c r="L327" t="n">
-        <v>1.9802541744720255</v>
+        <v>1.9596991150928542</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.5807892140357014</v>
       </c>
       <c r="C329" t="n">
-        <v>3.232716222351175</v>
+        <v>3.2184008079953768</v>
       </c>
       <c r="D329" t="n">
-        <v>3.599577247912933</v>
+        <v>3.56343832654891</v>
       </c>
       <c r="E329" t="n">
-        <v>3.5807892140357014</v>
+        <v>3.5786111201516486</v>
       </c>
       <c r="F329" t="n">
-        <v>3.232716222351175</v>
+        <v>3.7165108514859866</v>
       </c>
       <c r="G329" t="n">
-        <v>3.599577247912933</v>
+        <v>3.654184274534624</v>
       </c>
       <c r="H329" t="n">
-        <v>3.5807892140357014</v>
+        <v>3.1562428521212524</v>
       </c>
       <c r="I329" t="n">
-        <v>3.232716222351175</v>
+        <v>3.5939136712380986</v>
       </c>
       <c r="J329" t="n">
-        <v>3.599577247912933</v>
+        <v>3.5612812832856755</v>
       </c>
       <c r="K329" t="n">
-        <v>3.5807892140357014</v>
+        <v>3.4204864413757594</v>
       </c>
       <c r="L329" t="n">
-        <v>3.232716222351175</v>
+        <v>3.539853596920629</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>5.001792341673606</v>
+        <v>4.952269645221392</v>
       </c>
       <c r="C331" t="n">
-        <v>5.083227630104076</v>
+        <v>5.008195895782033</v>
       </c>
       <c r="D331" t="n">
-        <v>5.283656583984711</v>
+        <v>5.156694728079401</v>
       </c>
       <c r="E331" t="n">
-        <v>5.001792341673606</v>
+        <v>5.602978477821218</v>
       </c>
       <c r="F331" t="n">
-        <v>5.083227630104076</v>
+        <v>4.852032236900495</v>
       </c>
       <c r="G331" t="n">
-        <v>5.283656583984711</v>
+        <v>4.758323459257931</v>
       </c>
       <c r="H331" t="n">
-        <v>5.001792341673606</v>
+        <v>5.37220771001214</v>
       </c>
       <c r="I331" t="n">
-        <v>5.083227630104076</v>
+        <v>5.509015488552635</v>
       </c>
       <c r="J331" t="n">
-        <v>5.283656583984711</v>
+        <v>5.398365752607582</v>
       </c>
       <c r="K331" t="n">
-        <v>5.001792341673606</v>
+        <v>5.418152066754549</v>
       </c>
       <c r="L331" t="n">
-        <v>5.083227630104076</v>
+        <v>5.3689557709051146</v>
       </c>
     </row>
     <row r="332">
@@ -12722,34 +12722,34 @@
         <v>2.700406936738951</v>
       </c>
       <c r="C333" t="n">
-        <v>2.7443728599022856</v>
+        <v>2.7309027792069562</v>
       </c>
       <c r="D333" t="n">
-        <v>2.852582017822164</v>
+        <v>2.8118772223535227</v>
       </c>
       <c r="E333" t="n">
-        <v>2.700406936738951</v>
+        <v>3.0552298303278405</v>
       </c>
       <c r="F333" t="n">
-        <v>2.7443728599022856</v>
+        <v>2.6457488078118088</v>
       </c>
       <c r="G333" t="n">
-        <v>2.852582017822164</v>
+        <v>2.5946506545794845</v>
       </c>
       <c r="H333" t="n">
-        <v>2.700406936738951</v>
+        <v>2.929393592232539</v>
       </c>
       <c r="I333" t="n">
-        <v>2.7443728599022856</v>
+        <v>3.0039930588684243</v>
       </c>
       <c r="J333" t="n">
-        <v>2.852582017822164</v>
+        <v>2.9436572258261595</v>
       </c>
       <c r="K333" t="n">
-        <v>2.700406936738951</v>
+        <v>2.9544464404293107</v>
       </c>
       <c r="L333" t="n">
-        <v>2.7443728599022856</v>
+        <v>2.9276203529803237</v>
       </c>
     </row>
     <row r="334">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.0488214112205125</v>
+        <v>1.059523670518681</v>
       </c>
       <c r="C341" t="n">
-        <v>1.0227242650488086</v>
+        <v>1.0380193506032853</v>
       </c>
       <c r="D341" t="n">
-        <v>1.1317795261864738</v>
+        <v>1.1616385981499706</v>
       </c>
       <c r="E341" t="n">
-        <v>1.0488214112205125</v>
+        <v>1.0151873791697739</v>
       </c>
       <c r="F341" t="n">
-        <v>1.0227242650488086</v>
+        <v>1.1420092182602206</v>
       </c>
       <c r="G341" t="n">
-        <v>1.1317795261864738</v>
+        <v>1.068497614620062</v>
       </c>
       <c r="H341" t="n">
-        <v>1.0488214112205125</v>
+        <v>1.1063224739860142</v>
       </c>
       <c r="I341" t="n">
-        <v>1.0227242650488086</v>
+        <v>1.0565657600037084</v>
       </c>
       <c r="J341" t="n">
-        <v>1.1317795261864738</v>
+        <v>1.048370789681261</v>
       </c>
       <c r="K341" t="n">
-        <v>1.0488214112205125</v>
+        <v>1.1510397058619601</v>
       </c>
       <c r="L341" t="n">
-        <v>1.0227242650488086</v>
+        <v>1.0113892438592333</v>
       </c>
     </row>
     <row r="342">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1.7795085813487</v>
+        <v>1.743918409721726</v>
       </c>
       <c r="C348" t="n">
-        <v>1.7352302179739323</v>
+        <v>1.70852346722776</v>
       </c>
       <c r="D348" t="n">
-        <v>1.9202615025754406</v>
+        <v>1.9119940338523598</v>
       </c>
       <c r="E348" t="n">
-        <v>1.7795085813487</v>
+        <v>1.6709432824512849</v>
       </c>
       <c r="F348" t="n">
-        <v>1.7352302179739323</v>
+        <v>1.879685140796296</v>
       </c>
       <c r="G348" t="n">
-        <v>1.9202615025754406</v>
+        <v>1.7586890342595907</v>
       </c>
       <c r="H348" t="n">
-        <v>1.7795085813487</v>
+        <v>1.8209466981786304</v>
       </c>
       <c r="I348" t="n">
-        <v>1.7352302179739323</v>
+        <v>1.739049849683945</v>
       </c>
       <c r="J348" t="n">
-        <v>1.9202615025754406</v>
+        <v>1.725561373673359</v>
       </c>
       <c r="K348" t="n">
-        <v>1.7795085813487</v>
+        <v>1.8945488328643814</v>
       </c>
       <c r="L348" t="n">
-        <v>1.7352302179739323</v>
+        <v>1.664691758039921</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>2.301725104187902</v>
+        <v>2.278707853146023</v>
       </c>
       <c r="C351" t="n">
-        <v>2.244452764160852</v>
+        <v>2.232458709279527</v>
       </c>
       <c r="D351" t="n">
-        <v>2.483783530694522</v>
+        <v>2.4983254926490135</v>
       </c>
       <c r="E351" t="n">
-        <v>2.301725104187902</v>
+        <v>2.183354197454058</v>
       </c>
       <c r="F351" t="n">
-        <v>2.244452764160852</v>
+        <v>2.456108765121574</v>
       </c>
       <c r="G351" t="n">
-        <v>2.483783530694522</v>
+        <v>2.298008032525215</v>
       </c>
       <c r="H351" t="n">
-        <v>2.301725104187902</v>
+        <v>2.3793576110949366</v>
       </c>
       <c r="I351" t="n">
-        <v>2.244452764160852</v>
+        <v>2.2723463020953782</v>
       </c>
       <c r="J351" t="n">
-        <v>2.483783530694522</v>
+        <v>2.254721454487285</v>
       </c>
       <c r="K351" t="n">
-        <v>2.301725104187902</v>
+        <v>2.4755305520890594</v>
       </c>
       <c r="L351" t="n">
-        <v>2.244452764160852</v>
+        <v>2.1751855826318875</v>
       </c>
     </row>
     <row r="352">
@@ -13482,34 +13482,34 @@
         <v>1.5878184732711456</v>
       </c>
       <c r="C353" t="n">
-        <v>1.5483098111216305</v>
+        <v>1.5555917686048093</v>
       </c>
       <c r="D353" t="n">
-        <v>1.7134093756321294</v>
+        <v>1.740849474844082</v>
       </c>
       <c r="E353" t="n">
-        <v>1.5878184732711456</v>
+        <v>1.5213754249476814</v>
       </c>
       <c r="F353" t="n">
-        <v>1.5483098111216305</v>
+        <v>1.7114325841458835</v>
       </c>
       <c r="G353" t="n">
-        <v>1.7134093756321294</v>
+        <v>1.6012669639644206</v>
       </c>
       <c r="H353" t="n">
-        <v>1.5878184732711456</v>
+        <v>1.6579518801407065</v>
       </c>
       <c r="I353" t="n">
-        <v>1.5483098111216305</v>
+        <v>1.5833857030663447</v>
       </c>
       <c r="J353" t="n">
-        <v>1.7134093756321294</v>
+        <v>1.571104594462588</v>
       </c>
       <c r="K353" t="n">
-        <v>1.5878184732711456</v>
+        <v>1.7249658117987103</v>
       </c>
       <c r="L353" t="n">
-        <v>1.5483098111216305</v>
+        <v>1.5156834809374953</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>2.3839110198102538</v>
+        <v>2.3367048610021297</v>
       </c>
       <c r="C356" t="n">
-        <v>2.31737911329226</v>
+        <v>2.290308192806378</v>
       </c>
       <c r="D356" t="n">
-        <v>2.1207629744762655</v>
+        <v>2.1088599537604016</v>
       </c>
       <c r="E356" t="n">
-        <v>2.3839110198102538</v>
+        <v>2.2972192004189798</v>
       </c>
       <c r="F356" t="n">
-        <v>2.31737911329226</v>
+        <v>2.1493462545306548</v>
       </c>
       <c r="G356" t="n">
-        <v>2.1207629744762655</v>
+        <v>2.1253446220718093</v>
       </c>
       <c r="H356" t="n">
-        <v>2.3839110198102538</v>
+        <v>2.3153845612375776</v>
       </c>
       <c r="I356" t="n">
-        <v>2.31737911329226</v>
+        <v>2.0344693833822047</v>
       </c>
       <c r="J356" t="n">
-        <v>2.1207629744762655</v>
+        <v>2.088037420788102</v>
       </c>
       <c r="K356" t="n">
-        <v>2.3839110198102538</v>
+        <v>2.131294634312926</v>
       </c>
       <c r="L356" t="n">
-        <v>2.31737911329226</v>
+        <v>2.225433200064236</v>
       </c>
     </row>
     <row r="357">
@@ -13821,37 +13821,37 @@
         <v>361.0</v>
       </c>
       <c r="B362" t="n">
-        <v>2.190540755314838</v>
+        <v>2.213123649699528</v>
       </c>
       <c r="C362" t="n">
-        <v>2.129405565475386</v>
+        <v>2.16918076013527</v>
       </c>
       <c r="D362" t="n">
-        <v>1.9487378888507119</v>
+        <v>1.9973287664449906</v>
       </c>
       <c r="E362" t="n">
-        <v>2.190540755314838</v>
+        <v>2.175726265580123</v>
       </c>
       <c r="F362" t="n">
-        <v>2.129405565475386</v>
+        <v>2.0356738699361814</v>
       </c>
       <c r="G362" t="n">
-        <v>1.9487378888507119</v>
+        <v>2.012941610799576</v>
       </c>
       <c r="H362" t="n">
-        <v>2.190540755314838</v>
+        <v>2.1929309157282475</v>
       </c>
       <c r="I362" t="n">
-        <v>2.129405565475386</v>
+        <v>1.9268724870208027</v>
       </c>
       <c r="J362" t="n">
-        <v>1.9487378888507119</v>
+        <v>1.9776074738946423</v>
       </c>
       <c r="K362" t="n">
-        <v>2.190540755314838</v>
+        <v>2.0185769449945714</v>
       </c>
       <c r="L362" t="n">
-        <v>2.129405565475386</v>
+        <v>2.107736808394551</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>5.192753268222515</v>
+        <v>5.1413398695272425</v>
       </c>
       <c r="C364" t="n">
-        <v>5.12722931119684</v>
+        <v>5.1164423385522495</v>
       </c>
       <c r="D364" t="n">
-        <v>4.80718218847705</v>
+        <v>4.719353849410888</v>
       </c>
       <c r="E364" t="n">
-        <v>5.192753268222515</v>
+        <v>4.914164384946449</v>
       </c>
       <c r="F364" t="n">
-        <v>5.12722931119684</v>
+        <v>5.1444691061359915</v>
       </c>
       <c r="G364" t="n">
-        <v>4.80718218847705</v>
+        <v>4.62383082003169</v>
       </c>
       <c r="H364" t="n">
-        <v>5.192753268222515</v>
+        <v>5.2499147491801805</v>
       </c>
       <c r="I364" t="n">
-        <v>5.12722931119684</v>
+        <v>5.119541332032461</v>
       </c>
       <c r="J364" t="n">
-        <v>4.80718218847705</v>
+        <v>5.339458458807288</v>
       </c>
       <c r="K364" t="n">
-        <v>5.192753268222515</v>
+        <v>5.085657485288934</v>
       </c>
       <c r="L364" t="n">
-        <v>5.12722931119684</v>
+        <v>5.163324827759561</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>10.066259416173887</v>
+        <v>9.969468460249137</v>
       </c>
       <c r="C366" t="n">
-        <v>9.89730126085029</v>
+        <v>9.802278623334372</v>
       </c>
       <c r="D366" t="n">
-        <v>8.80380588688059</v>
+        <v>8.633297904921033</v>
       </c>
       <c r="E366" t="n">
-        <v>10.066259416173887</v>
+        <v>8.81165191515826</v>
       </c>
       <c r="F366" t="n">
-        <v>9.89730126085029</v>
+        <v>9.640603895974259</v>
       </c>
       <c r="G366" t="n">
-        <v>8.80380588688059</v>
+        <v>9.495588792452835</v>
       </c>
       <c r="H366" t="n">
-        <v>10.066259416173887</v>
+        <v>9.553068146591416</v>
       </c>
       <c r="I366" t="n">
-        <v>9.89730126085029</v>
+        <v>9.175388706956404</v>
       </c>
       <c r="J366" t="n">
-        <v>8.80380588688059</v>
+        <v>8.46656039078385</v>
       </c>
       <c r="K366" t="n">
-        <v>10.066259416173887</v>
+        <v>9.558854373415322</v>
       </c>
       <c r="L366" t="n">
-        <v>9.89730126085029</v>
+        <v>9.605397793431905</v>
       </c>
     </row>
     <row r="367">
@@ -14546,34 +14546,34 @@
         <v>2.9478656746483054</v>
       </c>
       <c r="C381" t="n">
-        <v>2.6613164356042867</v>
+        <v>2.6495313468779207</v>
       </c>
       <c r="D381" t="n">
-        <v>2.9633328236063416</v>
+        <v>2.933581648812182</v>
       </c>
       <c r="E381" t="n">
-        <v>2.9478656746483054</v>
+        <v>2.9460725704432904</v>
       </c>
       <c r="F381" t="n">
-        <v>2.6613164356042867</v>
+        <v>3.0595977907914507</v>
       </c>
       <c r="G381" t="n">
-        <v>2.9633328236063416</v>
+        <v>3.0082877678241458</v>
       </c>
       <c r="H381" t="n">
-        <v>2.9478656746483054</v>
+        <v>2.5983601403155765</v>
       </c>
       <c r="I381" t="n">
-        <v>2.6613164356042867</v>
+        <v>2.958670314232698</v>
       </c>
       <c r="J381" t="n">
-        <v>2.9633328236063416</v>
+        <v>2.93180587441879</v>
       </c>
       <c r="K381" t="n">
-        <v>2.9478656746483054</v>
+        <v>2.8158972696880458</v>
       </c>
       <c r="L381" t="n">
-        <v>2.6613164356042867</v>
+        <v>2.914165645590168</v>
       </c>
     </row>
     <row r="382">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>3.8254356044636286</v>
+        <v>3.8640763681450796</v>
       </c>
       <c r="C387" t="n">
-        <v>3.4535815980555085</v>
+        <v>3.473018310222707</v>
       </c>
       <c r="D387" t="n">
-        <v>3.84550727286849</v>
+        <v>3.8453527990387895</v>
       </c>
       <c r="E387" t="n">
-        <v>3.8254356044636286</v>
+        <v>3.8617259586119017</v>
       </c>
       <c r="F387" t="n">
-        <v>3.4535815980555085</v>
+        <v>4.010535358208484</v>
       </c>
       <c r="G387" t="n">
-        <v>3.84550727286849</v>
+        <v>3.9432779356936005</v>
       </c>
       <c r="H387" t="n">
-        <v>3.8254356044636286</v>
+        <v>3.405942848912681</v>
       </c>
       <c r="I387" t="n">
-        <v>3.4535815980555085</v>
+        <v>3.8782391411789483</v>
       </c>
       <c r="J387" t="n">
-        <v>3.84550727286849</v>
+        <v>3.843025105505236</v>
       </c>
       <c r="K387" t="n">
-        <v>3.8254356044636286</v>
+        <v>3.6910915543069875</v>
       </c>
       <c r="L387" t="n">
-        <v>3.4535815980555085</v>
+        <v>3.819902209529495</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>1.1517282104301425</v>
+        <v>1.0941417999086356</v>
       </c>
       <c r="C389" t="n">
-        <v>1.039773705473379</v>
+        <v>0.9834108187895026</v>
       </c>
       <c r="D389" t="n">
-        <v>1.157771210266633</v>
+        <v>1.0888400828484979</v>
       </c>
       <c r="E389" t="n">
-        <v>1.1517282104301425</v>
+        <v>1.0934762640671718</v>
       </c>
       <c r="F389" t="n">
-        <v>1.039773705473379</v>
+        <v>1.135612746063279</v>
       </c>
       <c r="G389" t="n">
-        <v>1.157771210266633</v>
+        <v>1.116568309484771</v>
       </c>
       <c r="H389" t="n">
-        <v>1.1517282104301425</v>
+        <v>0.9644179058718203</v>
       </c>
       <c r="I389" t="n">
-        <v>1.039773705473379</v>
+        <v>1.0981520938321</v>
       </c>
       <c r="J389" t="n">
-        <v>1.157771210266633</v>
+        <v>1.0881809792103208</v>
       </c>
       <c r="K389" t="n">
-        <v>1.1517282104301425</v>
+        <v>1.0451598705839498</v>
       </c>
       <c r="L389" t="n">
-        <v>1.039773705473379</v>
+        <v>1.081633560212455</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>2.5341944797248304</v>
+        <v>2.5605923388886302</v>
       </c>
       <c r="C394" t="n">
-        <v>2.4916590346480234</v>
+        <v>2.517650729990327</v>
       </c>
       <c r="D394" t="n">
-        <v>2.216370089097291</v>
+        <v>2.217405728583008</v>
       </c>
       <c r="E394" t="n">
-        <v>2.5341944797248304</v>
+        <v>2.2632147818985846</v>
       </c>
       <c r="F394" t="n">
-        <v>2.4916590346480234</v>
+        <v>2.476125640671787</v>
       </c>
       <c r="G394" t="n">
-        <v>2.216370089097291</v>
+        <v>2.438879466055691</v>
       </c>
       <c r="H394" t="n">
-        <v>2.5341944797248304</v>
+        <v>2.453642659744338</v>
       </c>
       <c r="I394" t="n">
-        <v>2.4916590346480234</v>
+        <v>2.356638182169513</v>
       </c>
       <c r="J394" t="n">
-        <v>2.216370089097291</v>
+        <v>2.1745802958122082</v>
       </c>
       <c r="K394" t="n">
-        <v>2.5341944797248304</v>
+        <v>2.4551288140097776</v>
       </c>
       <c r="L394" t="n">
-        <v>2.4916590346480234</v>
+        <v>2.4670831850171524</v>
       </c>
     </row>
     <row r="395">
@@ -15078,34 +15078,34 @@
         <v>7.191988835006583</v>
       </c>
       <c r="C395" t="n">
-        <v>7.260997464410287</v>
+        <v>7.2270076504446825</v>
       </c>
       <c r="D395" t="n">
-        <v>7.231875393110357</v>
+        <v>7.222611663911397</v>
       </c>
       <c r="E395" t="n">
-        <v>7.191988835006583</v>
+        <v>6.704671693699048</v>
       </c>
       <c r="F395" t="n">
-        <v>7.260997464410287</v>
+        <v>7.375138867342744</v>
       </c>
       <c r="G395" t="n">
-        <v>7.231875393110357</v>
+        <v>7.253496378750126</v>
       </c>
       <c r="H395" t="n">
-        <v>7.191988835006583</v>
+        <v>7.144388428708121</v>
       </c>
       <c r="I395" t="n">
-        <v>7.260997464410287</v>
+        <v>7.500930870593857</v>
       </c>
       <c r="J395" t="n">
-        <v>7.231875393110357</v>
+        <v>6.903473006221598</v>
       </c>
       <c r="K395" t="n">
-        <v>7.191988835006583</v>
+        <v>7.187635334358004</v>
       </c>
       <c r="L395" t="n">
-        <v>7.260997464410287</v>
+        <v>6.370157491966298</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.164302703439297</v>
+        <v>4.20594573047369</v>
       </c>
       <c r="C397" t="n">
-        <v>4.204260054400093</v>
+        <v>4.2264250777943095</v>
       </c>
       <c r="D397" t="n">
-        <v>4.187397803494785</v>
+        <v>4.22385426168001</v>
       </c>
       <c r="E397" t="n">
-        <v>4.164302703439297</v>
+        <v>3.920957878449696</v>
       </c>
       <c r="F397" t="n">
-        <v>4.204260054400093</v>
+        <v>4.313053668794021</v>
       </c>
       <c r="G397" t="n">
-        <v>4.187397803494785</v>
+        <v>4.241915946353459</v>
       </c>
       <c r="H397" t="n">
-        <v>4.164302703439297</v>
+        <v>4.178108545206473</v>
       </c>
       <c r="I397" t="n">
-        <v>4.204260054400093</v>
+        <v>4.38661806817497</v>
       </c>
       <c r="J397" t="n">
-        <v>4.187397803494785</v>
+        <v>4.037218839193529</v>
       </c>
       <c r="K397" t="n">
-        <v>4.164302703439297</v>
+        <v>4.203399760522182</v>
       </c>
       <c r="L397" t="n">
-        <v>4.204260054400093</v>
+        <v>3.7253306867454437</v>
       </c>
     </row>
     <row r="398">
@@ -15189,37 +15189,37 @@
         <v>397.0</v>
       </c>
       <c r="B398" t="n">
-        <v>6.382615440768654</v>
+        <v>6.447744169756088</v>
       </c>
       <c r="C398" t="n">
-        <v>6.443857964037665</v>
+        <v>6.479139152180663</v>
       </c>
       <c r="D398" t="n">
-        <v>6.418013237883286</v>
+        <v>6.475198073128599</v>
       </c>
       <c r="E398" t="n">
-        <v>6.382615440768654</v>
+        <v>6.0108558028840635</v>
       </c>
       <c r="F398" t="n">
-        <v>6.443857964037665</v>
+        <v>6.6119413870039985</v>
       </c>
       <c r="G398" t="n">
-        <v>6.418013237883286</v>
+        <v>6.502886761835499</v>
       </c>
       <c r="H398" t="n">
-        <v>6.382615440768654</v>
+        <v>6.405069570388658</v>
       </c>
       <c r="I398" t="n">
-        <v>6.443857964037665</v>
+        <v>6.724716124864608</v>
       </c>
       <c r="J398" t="n">
-        <v>6.418013237883286</v>
+        <v>6.189084667411487</v>
       </c>
       <c r="K398" t="n">
-        <v>6.382615440768654</v>
+        <v>6.4438411800450535</v>
       </c>
       <c r="L398" t="n">
-        <v>6.443857964037665</v>
+        <v>5.710957952177656</v>
       </c>
     </row>
     <row r="399">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>3.3295815154807014</v>
+        <v>3.3632136520007085</v>
       </c>
       <c r="C403" t="n">
-        <v>3.361529542951606</v>
+        <v>3.3795896171002426</v>
       </c>
       <c r="D403" t="n">
-        <v>3.3480472764301688</v>
+        <v>3.377533907301196</v>
       </c>
       <c r="E403" t="n">
-        <v>3.3295815154807014</v>
+        <v>3.1353279169002923</v>
       </c>
       <c r="F403" t="n">
-        <v>3.361529542951606</v>
+        <v>3.448860710588889</v>
       </c>
       <c r="G403" t="n">
-        <v>3.3480472764301688</v>
+        <v>3.391976629191721</v>
       </c>
       <c r="H403" t="n">
-        <v>3.3295815154807014</v>
+        <v>3.3409541157338363</v>
       </c>
       <c r="I403" t="n">
-        <v>3.361529542951606</v>
+        <v>3.507685243322785</v>
       </c>
       <c r="J403" t="n">
-        <v>3.3480472764301688</v>
+        <v>3.228294035681939</v>
       </c>
       <c r="K403" t="n">
-        <v>3.3295815154807014</v>
+        <v>3.361177810017191</v>
       </c>
       <c r="L403" t="n">
-        <v>3.361529542951606</v>
+        <v>2.978897928497137</v>
       </c>
     </row>
     <row r="404">
@@ -15493,37 +15493,37 @@
         <v>405.0</v>
       </c>
       <c r="B406" t="n">
-        <v>3.1808075545521652</v>
+        <v>3.1493144104476882</v>
       </c>
       <c r="C406" t="n">
-        <v>3.4108748462843144</v>
+        <v>3.3782167289639395</v>
       </c>
       <c r="D406" t="n">
-        <v>3.552534744682757</v>
+        <v>3.5233327986415066</v>
       </c>
       <c r="E406" t="n">
-        <v>3.1808075545521652</v>
+        <v>3.394665746176767</v>
       </c>
       <c r="F406" t="n">
-        <v>3.4108748462843144</v>
+        <v>3.423840284553935</v>
       </c>
       <c r="G406" t="n">
-        <v>3.552534744682757</v>
+        <v>3.0899921443527267</v>
       </c>
       <c r="H406" t="n">
-        <v>3.1808075545521652</v>
+        <v>3.1228644014908786</v>
       </c>
       <c r="I406" t="n">
-        <v>3.4108748462843144</v>
+        <v>3.392600865990252</v>
       </c>
       <c r="J406" t="n">
-        <v>3.552534744682757</v>
+        <v>2.9809918868094685</v>
       </c>
       <c r="K406" t="n">
-        <v>3.1808075545521652</v>
+        <v>3.2608002696994274</v>
       </c>
       <c r="L406" t="n">
-        <v>3.4108748462843144</v>
+        <v>3.059482075063772</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.025455235181281</v>
+        <v>6.086939472274967</v>
       </c>
       <c r="C407" t="n">
-        <v>6.4612754297817165</v>
+        <v>6.529357845381692</v>
       </c>
       <c r="D407" t="n">
-        <v>6.729624068226873</v>
+        <v>6.809835631166255</v>
       </c>
       <c r="E407" t="n">
-        <v>6.025455235181281</v>
+        <v>6.561150216388134</v>
       </c>
       <c r="F407" t="n">
-        <v>6.4612754297817165</v>
+        <v>6.617538250762936</v>
       </c>
       <c r="G407" t="n">
-        <v>6.729624068226873</v>
+        <v>5.972282440293556</v>
       </c>
       <c r="H407" t="n">
-        <v>6.025455235181281</v>
+        <v>6.035817360418774</v>
       </c>
       <c r="I407" t="n">
-        <v>6.4612754297817165</v>
+        <v>6.557159252300483</v>
       </c>
       <c r="J407" t="n">
-        <v>6.729624068226873</v>
+        <v>5.761608660652139</v>
       </c>
       <c r="K407" t="n">
-        <v>6.025455235181281</v>
+        <v>6.30241737915802</v>
       </c>
       <c r="L407" t="n">
-        <v>6.4612754297817165</v>
+        <v>5.9133131152745335</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>2.827252317468503</v>
       </c>
       <c r="C410" t="n">
-        <v>3.0317470165560128</v>
+        <v>3.0327461253754087</v>
       </c>
       <c r="D410" t="n">
-        <v>3.157661039699654</v>
+        <v>3.1630220174669508</v>
       </c>
       <c r="E410" t="n">
-        <v>2.827252317468503</v>
+        <v>3.0475129971366925</v>
       </c>
       <c r="F410" t="n">
-        <v>3.0317470165560128</v>
+        <v>3.073704024924927</v>
       </c>
       <c r="G410" t="n">
-        <v>3.157661039699654</v>
+        <v>2.773996594972819</v>
       </c>
       <c r="H410" t="n">
-        <v>2.827252317468503</v>
+        <v>2.803507197301358</v>
       </c>
       <c r="I410" t="n">
-        <v>3.0317470165560128</v>
+        <v>3.0456592802536617</v>
       </c>
       <c r="J410" t="n">
-        <v>3.157661039699654</v>
+        <v>2.676143160675659</v>
       </c>
       <c r="K410" t="n">
-        <v>2.827252317468503</v>
+        <v>2.9273371654242335</v>
       </c>
       <c r="L410" t="n">
-        <v>3.0317470165560128</v>
+        <v>2.7466066132621454</v>
       </c>
     </row>
     <row r="411">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.8967121679628507</v>
+        <v>3.7809682421817756</v>
       </c>
       <c r="C414" t="n">
-        <v>4.178560723641708</v>
+        <v>4.0557811963919255</v>
       </c>
       <c r="D414" t="n">
-        <v>4.352104026823189</v>
+        <v>4.230003004497494</v>
       </c>
       <c r="E414" t="n">
-        <v>3.8967121679628507</v>
+        <v>4.075529371261503</v>
       </c>
       <c r="F414" t="n">
-        <v>4.178560723641708</v>
+        <v>4.1105554082676665</v>
       </c>
       <c r="G414" t="n">
-        <v>4.352104026823189</v>
+        <v>3.709747787528148</v>
       </c>
       <c r="H414" t="n">
-        <v>3.8967121679628507</v>
+        <v>3.7492131898632923</v>
       </c>
       <c r="I414" t="n">
-        <v>4.178560723641708</v>
+        <v>4.073050340783243</v>
       </c>
       <c r="J414" t="n">
-        <v>4.352104026823189</v>
+        <v>3.578885492295419</v>
       </c>
       <c r="K414" t="n">
-        <v>3.8967121679628507</v>
+        <v>3.9148146729747086</v>
       </c>
       <c r="L414" t="n">
-        <v>4.178560723641708</v>
+        <v>3.673118353939171</v>
       </c>
     </row>
     <row r="415">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>6.139186108111953</v>
+        <v>6.077794247030834</v>
       </c>
       <c r="C416" t="n">
-        <v>6.583232438205574</v>
+        <v>6.519547915700684</v>
       </c>
       <c r="D416" t="n">
-        <v>6.856646175254721</v>
+        <v>6.799604302104055</v>
       </c>
       <c r="E416" t="n">
-        <v>6.139186108111953</v>
+        <v>6.551292520765766</v>
       </c>
       <c r="F416" t="n">
-        <v>6.583232438205574</v>
+        <v>6.607595835836593</v>
       </c>
       <c r="G416" t="n">
-        <v>6.856646175254721</v>
+        <v>5.963309479680617</v>
       </c>
       <c r="H416" t="n">
-        <v>6.139186108111953</v>
+        <v>6.026748942777214</v>
       </c>
       <c r="I416" t="n">
-        <v>6.583232438205574</v>
+        <v>6.547307552838531</v>
       </c>
       <c r="J416" t="n">
-        <v>6.856646175254721</v>
+        <v>5.752952223503353</v>
       </c>
       <c r="K416" t="n">
-        <v>6.139186108111953</v>
+        <v>6.2929484125652895</v>
       </c>
       <c r="L416" t="n">
-        <v>6.583232438205574</v>
+        <v>5.904428752184577</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.8339302476657838</v>
+        <v>0.8005730377591525</v>
       </c>
       <c r="C420" t="n">
-        <v>0.9122822101284471</v>
+        <v>0.8870683449525987</v>
       </c>
       <c r="D420" t="n">
-        <v>0.9007364908468889</v>
+        <v>0.872078655767875</v>
       </c>
       <c r="E420" t="n">
-        <v>0.8339302476657838</v>
+        <v>0.7723326205602228</v>
       </c>
       <c r="F420" t="n">
-        <v>0.9122822101284471</v>
+        <v>0.8694550740793273</v>
       </c>
       <c r="G420" t="n">
-        <v>0.9007364908468889</v>
+        <v>0.8401362403407833</v>
       </c>
       <c r="H420" t="n">
-        <v>0.8339302476657838</v>
+        <v>0.7905001820885561</v>
       </c>
       <c r="I420" t="n">
-        <v>0.9122822101284471</v>
+        <v>0.8795096367997263</v>
       </c>
       <c r="J420" t="n">
-        <v>0.9007364908468889</v>
+        <v>0.875247930276526</v>
       </c>
       <c r="K420" t="n">
-        <v>0.8339302476657838</v>
+        <v>0.8975368534672913</v>
       </c>
       <c r="L420" t="n">
-        <v>0.9122822101284471</v>
+        <v>0.9128454409827464</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.2363878632988876</v>
+        <v>1.261365395890784</v>
       </c>
       <c r="C423" t="n">
-        <v>1.3525527532589783</v>
+        <v>1.3976455130755188</v>
       </c>
       <c r="D423" t="n">
-        <v>1.3354350300048679</v>
+        <v>1.374028086131324</v>
       </c>
       <c r="E423" t="n">
-        <v>1.2363878632988876</v>
+        <v>1.2168704112483395</v>
       </c>
       <c r="F423" t="n">
-        <v>1.3525527532589783</v>
+        <v>1.3698944281149492</v>
       </c>
       <c r="G423" t="n">
-        <v>1.3354350300048679</v>
+        <v>1.3237003139224595</v>
       </c>
       <c r="H423" t="n">
-        <v>1.2363878632988876</v>
+        <v>1.2454948244607793</v>
       </c>
       <c r="I423" t="n">
-        <v>1.3525527532589783</v>
+        <v>1.3857361775720927</v>
       </c>
       <c r="J423" t="n">
-        <v>1.3354350300048679</v>
+        <v>1.3790215258385625</v>
       </c>
       <c r="K423" t="n">
-        <v>1.2363878632988876</v>
+        <v>1.4141394664866676</v>
       </c>
       <c r="L423" t="n">
-        <v>1.3525527532589783</v>
+        <v>1.4382593426768646</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>4.443604174927609</v>
+        <v>4.400039428114593</v>
       </c>
       <c r="C425" t="n">
-        <v>4.515951478241482</v>
+        <v>4.449729312786136</v>
       </c>
       <c r="D425" t="n">
-        <v>4.694013036059445</v>
+        <v>4.581668961461745</v>
       </c>
       <c r="E425" t="n">
-        <v>4.443604174927609</v>
+        <v>4.9781873733550945</v>
       </c>
       <c r="F425" t="n">
-        <v>4.515951478241482</v>
+        <v>4.310979546407717</v>
       </c>
       <c r="G425" t="n">
-        <v>4.694013036059445</v>
+        <v>4.227720284306436</v>
       </c>
       <c r="H425" t="n">
-        <v>4.443604174927609</v>
+        <v>4.773149976371669</v>
       </c>
       <c r="I425" t="n">
-        <v>4.515951478241482</v>
+        <v>4.894702246901162</v>
       </c>
       <c r="J425" t="n">
-        <v>4.694013036059445</v>
+        <v>4.796391121751002</v>
       </c>
       <c r="K425" t="n">
-        <v>4.443604174927609</v>
+        <v>4.813971053503653</v>
       </c>
       <c r="L425" t="n">
-        <v>4.515951478241482</v>
+        <v>4.770260662720797</v>
       </c>
     </row>
     <row r="426">
@@ -16332,34 +16332,34 @@
         <v>2.057896800135267</v>
       </c>
       <c r="C428" t="n">
-        <v>2.2512466076132345</v>
+        <v>2.2802355593799413</v>
       </c>
       <c r="D428" t="n">
-        <v>2.2227551374557675</v>
+        <v>2.2417041175834402</v>
       </c>
       <c r="E428" t="n">
-        <v>2.057896800135267</v>
+        <v>1.985303967942427</v>
       </c>
       <c r="F428" t="n">
-        <v>2.2512466076132345</v>
+        <v>2.2349601228357927</v>
       </c>
       <c r="G428" t="n">
-        <v>2.2227551374557675</v>
+        <v>2.1595951888590887</v>
       </c>
       <c r="H428" t="n">
-        <v>2.057896800135267</v>
+        <v>2.0320042250983086</v>
       </c>
       <c r="I428" t="n">
-        <v>2.2512466076132345</v>
+        <v>2.2608056753002925</v>
       </c>
       <c r="J428" t="n">
-        <v>2.2227551374557675</v>
+        <v>2.249850831952386</v>
       </c>
       <c r="K428" t="n">
-        <v>2.057896800135267</v>
+        <v>2.3071451718181457</v>
       </c>
       <c r="L428" t="n">
-        <v>2.2512466076132345</v>
+        <v>2.346496351256846</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>8.234520209859161</v>
+        <v>8.152990306791247</v>
       </c>
       <c r="C429" t="n">
-        <v>8.09630706760721</v>
+        <v>8.016263145739973</v>
       </c>
       <c r="D429" t="n">
-        <v>7.2017930893688575</v>
+        <v>7.060275521720583</v>
       </c>
       <c r="E429" t="n">
-        <v>8.234520209859161</v>
+        <v>7.206132697801675</v>
       </c>
       <c r="F429" t="n">
-        <v>8.09630706760721</v>
+        <v>7.884046218601293</v>
       </c>
       <c r="G429" t="n">
-        <v>7.2017930893688575</v>
+        <v>7.765453463324254</v>
       </c>
       <c r="H429" t="n">
-        <v>8.234520209859161</v>
+        <v>7.812459842751704</v>
       </c>
       <c r="I429" t="n">
-        <v>8.09630706760721</v>
+        <v>7.503595150246157</v>
       </c>
       <c r="J429" t="n">
-        <v>7.2017930893688575</v>
+        <v>6.92391826837661</v>
       </c>
       <c r="K429" t="n">
-        <v>8.234520209859161</v>
+        <v>7.817191795252111</v>
       </c>
       <c r="L429" t="n">
-        <v>8.09630706760721</v>
+        <v>7.855254812729235</v>
       </c>
     </row>
     <row r="430">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>1.8427418247192735</v>
+        <v>1.8244968561576964</v>
       </c>
       <c r="C446" t="n">
-        <v>1.8936352034199888</v>
+        <v>1.8841341501164839</v>
       </c>
       <c r="D446" t="n">
-        <v>2.003493926184817</v>
+        <v>1.9882850369306346</v>
       </c>
       <c r="E446" t="n">
-        <v>1.8427418247192735</v>
+        <v>1.865530522409922</v>
       </c>
       <c r="F446" t="n">
-        <v>1.8936352034199888</v>
+        <v>1.977245431106755</v>
       </c>
       <c r="G446" t="n">
-        <v>2.003493926184817</v>
+        <v>2.06991000682369</v>
       </c>
       <c r="H446" t="n">
-        <v>1.8427418247192735</v>
+        <v>2.1483652184289053</v>
       </c>
       <c r="I446" t="n">
-        <v>1.8936352034199888</v>
+        <v>2.058633257856277</v>
       </c>
       <c r="J446" t="n">
-        <v>2.003493926184817</v>
+        <v>2.0774967268659887</v>
       </c>
       <c r="K446" t="n">
-        <v>1.8427418247192735</v>
+        <v>1.8604278666632124</v>
       </c>
       <c r="L446" t="n">
-        <v>1.8936352034199888</v>
+        <v>2.059880157678869</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>0.9573871135158528</v>
+        <v>0.9670576904200535</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9838285087659823</v>
+        <v>0.9986678867128236</v>
       </c>
       <c r="D447" t="n">
-        <v>1.0409050476882917</v>
+        <v>1.0538721013530201</v>
       </c>
       <c r="E447" t="n">
-        <v>0.9573871135158528</v>
+        <v>0.9888072058447678</v>
       </c>
       <c r="F447" t="n">
-        <v>0.9838285087659823</v>
+        <v>1.048020660351542</v>
       </c>
       <c r="G447" t="n">
-        <v>1.0409050476882917</v>
+        <v>1.0971366619900937</v>
       </c>
       <c r="H447" t="n">
-        <v>0.9573871135158528</v>
+        <v>1.1387211215523512</v>
       </c>
       <c r="I447" t="n">
-        <v>0.9838285087659823</v>
+        <v>1.0911595254578668</v>
       </c>
       <c r="J447" t="n">
-        <v>1.0409050476882917</v>
+        <v>1.1011579328063228</v>
       </c>
       <c r="K447" t="n">
-        <v>0.9573871135158528</v>
+        <v>0.9861025903422705</v>
       </c>
       <c r="L447" t="n">
-        <v>0.9838285087659823</v>
+        <v>1.0918204331807553</v>
       </c>
     </row>
     <row r="448">
@@ -17130,34 +17130,34 @@
         <v>1.4823897905690742</v>
       </c>
       <c r="C449" t="n">
-        <v>1.5233308621730681</v>
+        <v>1.5308446373961888</v>
       </c>
       <c r="D449" t="n">
-        <v>1.6117064809640234</v>
+        <v>1.6154664391663245</v>
       </c>
       <c r="E449" t="n">
-        <v>1.4823897905690742</v>
+        <v>1.5157293316686509</v>
       </c>
       <c r="F449" t="n">
-        <v>1.5233308621730681</v>
+        <v>1.6064968435706983</v>
       </c>
       <c r="G449" t="n">
-        <v>1.6117064809640234</v>
+        <v>1.6817861051151022</v>
       </c>
       <c r="H449" t="n">
-        <v>1.4823897905690742</v>
+        <v>1.745530366612725</v>
       </c>
       <c r="I449" t="n">
-        <v>1.5233308621730681</v>
+        <v>1.6726238325226968</v>
       </c>
       <c r="J449" t="n">
-        <v>1.6117064809640234</v>
+        <v>1.6879502573287122</v>
       </c>
       <c r="K449" t="n">
-        <v>1.4823897905690742</v>
+        <v>1.5115834627633788</v>
       </c>
       <c r="L449" t="n">
-        <v>1.5233308621730681</v>
+        <v>1.6736369291255404</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.499611871839904</v>
+        <v>2.4748632394454497</v>
       </c>
       <c r="C450" t="n">
-        <v>2.568646878204799</v>
+        <v>2.5557590469775224</v>
       </c>
       <c r="D450" t="n">
-        <v>2.7176662166517174</v>
+        <v>2.6970359147682483</v>
       </c>
       <c r="E450" t="n">
-        <v>2.499611871839904</v>
+        <v>2.5305239065737952</v>
       </c>
       <c r="F450" t="n">
-        <v>2.568646878204799</v>
+        <v>2.682061093332258</v>
       </c>
       <c r="G450" t="n">
-        <v>2.7176662166517174</v>
+        <v>2.807757200325621</v>
       </c>
       <c r="H450" t="n">
-        <v>2.499611871839904</v>
+        <v>2.9141788247254374</v>
       </c>
       <c r="I450" t="n">
-        <v>2.568646878204799</v>
+        <v>2.792460702890882</v>
       </c>
       <c r="J450" t="n">
-        <v>2.7176662166517174</v>
+        <v>2.8180483085165062</v>
       </c>
       <c r="K450" t="n">
-        <v>2.499611871839904</v>
+        <v>2.5236023407248567</v>
       </c>
       <c r="L450" t="n">
-        <v>2.568646878204799</v>
+        <v>2.7941520768846426</v>
       </c>
     </row>
     <row r="451">
@@ -17241,37 +17241,37 @@
         <v>451.0</v>
       </c>
       <c r="B452" t="n">
-        <v>2.32215332537577</v>
+        <v>2.3456094195714847</v>
       </c>
       <c r="C452" t="n">
-        <v>2.3862872300845748</v>
+        <v>2.422280309957165</v>
       </c>
       <c r="D452" t="n">
-        <v>2.5247270239654913</v>
+        <v>2.5561787600112114</v>
       </c>
       <c r="E452" t="n">
-        <v>2.32215332537577</v>
+        <v>2.398363116436421</v>
       </c>
       <c r="F452" t="n">
-        <v>2.3862872300845748</v>
+        <v>2.541986023355375</v>
       </c>
       <c r="G452" t="n">
-        <v>2.5247270239654913</v>
+        <v>2.661117443576058</v>
       </c>
       <c r="H452" t="n">
-        <v>2.32215332537577</v>
+        <v>2.7619810228881185</v>
       </c>
       <c r="I452" t="n">
-        <v>2.3862872300845748</v>
+        <v>2.64661983098175</v>
       </c>
       <c r="J452" t="n">
-        <v>2.5247270239654913</v>
+        <v>2.6708710816460868</v>
       </c>
       <c r="K452" t="n">
-        <v>2.32215332537577</v>
+        <v>2.39180304079479</v>
       </c>
       <c r="L452" t="n">
-        <v>2.3862872300845748</v>
+        <v>2.648222870175412</v>
       </c>
     </row>
     <row r="453">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>4.036662955704711</v>
+        <v>3.9974720532221406</v>
       </c>
       <c r="C456" t="n">
-        <v>4.199688513336146</v>
+        <v>4.126418871406753</v>
       </c>
       <c r="D456" t="n">
-        <v>4.209716926516079</v>
+        <v>4.114004857007138</v>
       </c>
       <c r="E456" t="n">
-        <v>4.036662955704711</v>
+        <v>4.176833276946795</v>
       </c>
       <c r="F456" t="n">
-        <v>4.199688513336146</v>
+        <v>4.159048708243439</v>
       </c>
       <c r="G456" t="n">
-        <v>4.209716926516079</v>
+        <v>4.197345657562186</v>
       </c>
       <c r="H456" t="n">
-        <v>4.036662955704711</v>
+        <v>3.654450065259967</v>
       </c>
       <c r="I456" t="n">
-        <v>4.199688513336146</v>
+        <v>3.8607995894623897</v>
       </c>
       <c r="J456" t="n">
-        <v>4.209716926516079</v>
+        <v>3.828374061105184</v>
       </c>
       <c r="K456" t="n">
-        <v>4.036662955704711</v>
+        <v>3.750672559141092</v>
       </c>
       <c r="L456" t="n">
-        <v>4.199688513336146</v>
+        <v>3.7880753864340706</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>1.1329590553109186</v>
+        <v>1.144639045571856</v>
       </c>
       <c r="C458" t="n">
-        <v>1.17871498881154</v>
+        <v>1.1815617709671198</v>
       </c>
       <c r="D458" t="n">
-        <v>1.181529635872065</v>
+        <v>1.1780071330847515</v>
       </c>
       <c r="E458" t="n">
-        <v>1.1329590553109186</v>
+        <v>1.1959974683959265</v>
       </c>
       <c r="F458" t="n">
-        <v>1.17871498881154</v>
+        <v>1.190905022100997</v>
       </c>
       <c r="G458" t="n">
-        <v>1.181529635872065</v>
+        <v>1.2018709983311973</v>
       </c>
       <c r="H458" t="n">
-        <v>1.1329590553109186</v>
+        <v>1.0464178808748568</v>
       </c>
       <c r="I458" t="n">
-        <v>1.17871498881154</v>
+        <v>1.1055041532221226</v>
       </c>
       <c r="J458" t="n">
-        <v>1.181529635872065</v>
+        <v>1.0962194039263675</v>
       </c>
       <c r="K458" t="n">
-        <v>1.1329590553109186</v>
+        <v>1.0739702995265035</v>
       </c>
       <c r="L458" t="n">
-        <v>1.17871498881154</v>
+        <v>1.0846802522076775</v>
       </c>
     </row>
     <row r="459">
@@ -17548,34 +17548,34 @@
         <v>1.6583523761665635</v>
       </c>
       <c r="C460" t="n">
-        <v>1.6224102274285488</v>
+        <v>1.6218757401025776</v>
       </c>
       <c r="D460" t="n">
-        <v>1.6757135445398328</v>
+        <v>1.6927079399706644</v>
       </c>
       <c r="E460" t="n">
-        <v>1.6583523761665635</v>
+        <v>1.8558479939407617</v>
       </c>
       <c r="F460" t="n">
-        <v>1.6224102274285488</v>
+        <v>1.767474279236593</v>
       </c>
       <c r="G460" t="n">
-        <v>1.6757135445398328</v>
+        <v>1.8389150743373461</v>
       </c>
       <c r="H460" t="n">
-        <v>1.6583523761665635</v>
+        <v>1.6748899615032218</v>
       </c>
       <c r="I460" t="n">
-        <v>1.6224102274285488</v>
+        <v>1.8244878571919394</v>
       </c>
       <c r="J460" t="n">
-        <v>1.6757135445398328</v>
+        <v>1.6879823460516858</v>
       </c>
       <c r="K460" t="n">
-        <v>1.6583523761665635</v>
+        <v>1.6158077928012329</v>
       </c>
       <c r="L460" t="n">
-        <v>1.6224102274285488</v>
+        <v>1.7070448225301866</v>
       </c>
     </row>
     <row r="461">
@@ -17583,37 +17583,37 @@
         <v>460.0</v>
       </c>
       <c r="B461" t="n">
-        <v>0.7442317123338426</v>
+        <v>0.7519841260039867</v>
       </c>
       <c r="C461" t="n">
-        <v>0.7742884178952414</v>
+        <v>0.7762409460849156</v>
       </c>
       <c r="D461" t="n">
-        <v>0.776137336963985</v>
+        <v>0.7739056847887242</v>
       </c>
       <c r="E461" t="n">
-        <v>0.7442317123338426</v>
+        <v>0.7857246478302425</v>
       </c>
       <c r="F461" t="n">
-        <v>0.7742884178952414</v>
+        <v>0.7823791051535975</v>
       </c>
       <c r="G461" t="n">
-        <v>0.776137336963985</v>
+        <v>0.7895833326200195</v>
       </c>
       <c r="H461" t="n">
-        <v>0.7442317123338426</v>
+        <v>0.6874565729945871</v>
       </c>
       <c r="I461" t="n">
-        <v>0.7742884178952414</v>
+        <v>0.7262739967420831</v>
       </c>
       <c r="J461" t="n">
-        <v>0.776137336963985</v>
+        <v>0.720174271146189</v>
       </c>
       <c r="K461" t="n">
-        <v>0.7442317123338426</v>
+        <v>0.7055574595048</v>
       </c>
       <c r="L461" t="n">
-        <v>0.7742884178952414</v>
+        <v>0.7125934892799969</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>1.3185859378640052</v>
       </c>
       <c r="C466" t="n">
-        <v>1.3718386394554167</v>
+        <v>1.3611196839232147</v>
       </c>
       <c r="D466" t="n">
-        <v>1.3751144454226856</v>
+        <v>1.3570248598439365</v>
       </c>
       <c r="E466" t="n">
-        <v>1.3185859378640052</v>
+        <v>1.3777491250614684</v>
       </c>
       <c r="F466" t="n">
-        <v>1.3718386394554167</v>
+        <v>1.371882797069427</v>
       </c>
       <c r="G466" t="n">
-        <v>1.3751144454226856</v>
+        <v>1.3845152353110117</v>
       </c>
       <c r="H466" t="n">
-        <v>1.3185859378640052</v>
+        <v>1.2054384377231346</v>
       </c>
       <c r="I466" t="n">
-        <v>1.3718386394554167</v>
+        <v>1.273503849382217</v>
       </c>
       <c r="J466" t="n">
-        <v>1.3751144454226856</v>
+        <v>1.2628081283989625</v>
       </c>
       <c r="K466" t="n">
-        <v>1.3185859378640052</v>
+        <v>1.2371779034776451</v>
       </c>
       <c r="L466" t="n">
-        <v>1.3718386394554167</v>
+        <v>1.249515411144553</v>
       </c>
     </row>
     <row r="467">
@@ -17849,37 +17849,37 @@
         <v>467.0</v>
       </c>
       <c r="B468" t="n">
-        <v>3.2093776554211715</v>
+        <v>3.1140496062502456</v>
       </c>
       <c r="C468" t="n">
-        <v>3.168880617970948</v>
+        <v>3.0989694620666612</v>
       </c>
       <c r="D468" t="n">
-        <v>2.9710757096144365</v>
+        <v>2.858457594608488</v>
       </c>
       <c r="E468" t="n">
-        <v>3.2093776554211715</v>
+        <v>2.9764520643134627</v>
       </c>
       <c r="F468" t="n">
-        <v>3.168880617970948</v>
+        <v>3.1159449483744055</v>
       </c>
       <c r="G468" t="n">
-        <v>2.9710757096144365</v>
+        <v>2.8006004095993444</v>
       </c>
       <c r="H468" t="n">
-        <v>3.2093776554211715</v>
+        <v>3.1798121447736887</v>
       </c>
       <c r="I468" t="n">
-        <v>3.168880617970948</v>
+        <v>3.100846486280529</v>
       </c>
       <c r="J468" t="n">
-        <v>2.9710757096144365</v>
+        <v>3.2340477255333244</v>
       </c>
       <c r="K468" t="n">
-        <v>3.2093776554211715</v>
+        <v>3.0803234354245994</v>
       </c>
       <c r="L468" t="n">
-        <v>3.168880617970948</v>
+        <v>3.1273656390868516</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>2.4254910104059486</v>
+        <v>2.4499909196019685</v>
       </c>
       <c r="C471" t="n">
-        <v>2.4343324118936893</v>
+        <v>2.4619130171793455</v>
       </c>
       <c r="D471" t="n">
-        <v>2.267791581889521</v>
+        <v>2.2853670232759824</v>
       </c>
       <c r="E471" t="n">
-        <v>2.4254910104059486</v>
+        <v>2.5139037270603524</v>
       </c>
       <c r="F471" t="n">
-        <v>2.4343324118936893</v>
+        <v>2.451474862033844</v>
       </c>
       <c r="G471" t="n">
-        <v>2.267791581889521</v>
+        <v>2.556781426246144</v>
       </c>
       <c r="H471" t="n">
-        <v>2.4254910104059486</v>
+        <v>2.4634114414299133</v>
       </c>
       <c r="I471" t="n">
-        <v>2.4343324118936893</v>
+        <v>2.2141055783028403</v>
       </c>
       <c r="J471" t="n">
-        <v>2.267791581889521</v>
+        <v>2.435249697876846</v>
       </c>
       <c r="K471" t="n">
-        <v>2.4254910104059486</v>
+        <v>2.1713438823403908</v>
       </c>
       <c r="L471" t="n">
-        <v>2.4343324118936893</v>
+        <v>2.3531308131495408</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>5.939988071695326</v>
+        <v>5.999387952412279</v>
       </c>
       <c r="C473" t="n">
-        <v>5.865035247434524</v>
+        <v>5.970335224686283</v>
       </c>
       <c r="D473" t="n">
-        <v>5.498933491171666</v>
+        <v>5.506975875129155</v>
       </c>
       <c r="E473" t="n">
-        <v>5.939988071695326</v>
+        <v>5.734298715002508</v>
       </c>
       <c r="F473" t="n">
-        <v>5.865035247434524</v>
+        <v>6.003039433327215</v>
       </c>
       <c r="G473" t="n">
-        <v>5.498933491171666</v>
+        <v>5.39551082395988</v>
       </c>
       <c r="H473" t="n">
-        <v>5.939988071695326</v>
+        <v>6.126083102208775</v>
       </c>
       <c r="I473" t="n">
-        <v>5.865035247434524</v>
+        <v>5.973951415138889</v>
       </c>
       <c r="J473" t="n">
-        <v>5.498933491171666</v>
+        <v>6.23057093347144</v>
       </c>
       <c r="K473" t="n">
-        <v>5.939988071695326</v>
+        <v>5.93441262815082</v>
       </c>
       <c r="L473" t="n">
-        <v>5.865035247434524</v>
+        <v>6.025042022538047</v>
       </c>
     </row>
     <row r="474">
@@ -18115,37 +18115,37 @@
         <v>474.0</v>
       </c>
       <c r="B475" t="n">
-        <v>1.4674188069825915</v>
+        <v>1.4825468359205562</v>
       </c>
       <c r="C475" t="n">
-        <v>1.4489024088637361</v>
+        <v>1.4753674319702386</v>
       </c>
       <c r="D475" t="n">
-        <v>1.3584603749866975</v>
+        <v>1.3608637620910613</v>
       </c>
       <c r="E475" t="n">
-        <v>1.4674188069825915</v>
+        <v>1.4170389519037496</v>
       </c>
       <c r="F475" t="n">
-        <v>1.4489024088637361</v>
+        <v>1.4834491765459337</v>
       </c>
       <c r="G475" t="n">
-        <v>1.3584603749866975</v>
+        <v>1.3333189258115064</v>
       </c>
       <c r="H475" t="n">
-        <v>1.4674188069825915</v>
+        <v>1.5138552785395656</v>
       </c>
       <c r="I475" t="n">
-        <v>1.4489024088637361</v>
+        <v>1.476261051745476</v>
       </c>
       <c r="J475" t="n">
-        <v>1.3584603749866975</v>
+        <v>1.5396759297225544</v>
       </c>
       <c r="K475" t="n">
-        <v>1.4674188069825915</v>
+        <v>1.466490371134343</v>
       </c>
       <c r="L475" t="n">
-        <v>1.4489024088637361</v>
+        <v>1.4888863760195004</v>
       </c>
     </row>
     <row r="476">
@@ -18381,37 +18381,37 @@
         <v>481.0</v>
       </c>
       <c r="B482" t="n">
-        <v>4.157812674114691</v>
+        <v>4.117049804760625</v>
       </c>
       <c r="C482" t="n">
-        <v>3.794064323613317</v>
+        <v>3.7735781238424835</v>
       </c>
       <c r="D482" t="n">
-        <v>3.6019874385608563</v>
+        <v>3.6021435211998893</v>
       </c>
       <c r="E482" t="n">
-        <v>4.157812674114691</v>
+        <v>4.055120654877231</v>
       </c>
       <c r="F482" t="n">
-        <v>3.794064323613317</v>
+        <v>3.7338562485158966</v>
       </c>
       <c r="G482" t="n">
-        <v>3.6019874385608563</v>
+        <v>4.067356986129025</v>
       </c>
       <c r="H482" t="n">
-        <v>4.157812674114691</v>
+        <v>3.7630432894426815</v>
       </c>
       <c r="I482" t="n">
-        <v>3.794064323613317</v>
+        <v>3.9402557978767776</v>
       </c>
       <c r="J482" t="n">
-        <v>3.6019874385608563</v>
+        <v>4.137268589425525</v>
       </c>
       <c r="K482" t="n">
-        <v>4.157812674114691</v>
+        <v>3.805539542060708</v>
       </c>
       <c r="L482" t="n">
-        <v>3.794064323613317</v>
+        <v>4.099519788537085</v>
       </c>
     </row>
     <row r="483">
@@ -18457,37 +18457,37 @@
         <v>483.0</v>
       </c>
       <c r="B484" t="n">
-        <v>1.2505129225738247</v>
+        <v>1.2634048083735547</v>
       </c>
       <c r="C484" t="n">
-        <v>1.1411111653232446</v>
+        <v>1.1580031752161541</v>
       </c>
       <c r="D484" t="n">
-        <v>1.083341697164852</v>
+        <v>1.105394799905801</v>
       </c>
       <c r="E484" t="n">
-        <v>1.2505129225738247</v>
+        <v>1.2444005238854987</v>
       </c>
       <c r="F484" t="n">
-        <v>1.1411111653232446</v>
+        <v>1.1458136680046564</v>
       </c>
       <c r="G484" t="n">
-        <v>1.083341697164852</v>
+        <v>1.2481555039011623</v>
       </c>
       <c r="H484" t="n">
-        <v>1.2505129225738247</v>
+        <v>1.1547703359095374</v>
       </c>
       <c r="I484" t="n">
-        <v>1.1411111653232446</v>
+        <v>1.2091517852183815</v>
       </c>
       <c r="J484" t="n">
-        <v>1.083341697164852</v>
+        <v>1.2696093749871444</v>
       </c>
       <c r="K484" t="n">
-        <v>1.2505129225738247</v>
+        <v>1.167811220144989</v>
       </c>
       <c r="L484" t="n">
-        <v>1.1411111653232446</v>
+        <v>1.2580253478768473</v>
       </c>
     </row>
     <row r="485">
@@ -18495,37 +18495,37 @@
         <v>484.0</v>
       </c>
       <c r="B485" t="n">
-        <v>2.5990550343136802</v>
+        <v>2.573321816152159</v>
       </c>
       <c r="C485" t="n">
-        <v>2.371675386481135</v>
+        <v>2.358638192768473</v>
       </c>
       <c r="D485" t="n">
-        <v>2.2516078331305778</v>
+        <v>2.251484666835062</v>
       </c>
       <c r="E485" t="n">
-        <v>2.5990550343136802</v>
+        <v>2.5346136051738952</v>
       </c>
       <c r="F485" t="n">
-        <v>2.371675386481135</v>
+        <v>2.3338104221065334</v>
       </c>
       <c r="G485" t="n">
-        <v>2.2516078331305778</v>
+        <v>2.5422618046500087</v>
       </c>
       <c r="H485" t="n">
-        <v>2.5990550343136802</v>
+        <v>2.352053497300565</v>
       </c>
       <c r="I485" t="n">
-        <v>2.371675386481135</v>
+        <v>2.4628184468819856</v>
       </c>
       <c r="J485" t="n">
-        <v>2.2516078331305778</v>
+        <v>2.585959370260469</v>
       </c>
       <c r="K485" t="n">
-        <v>2.5990550343136802</v>
+        <v>2.3786153654227893</v>
       </c>
       <c r="L485" t="n">
-        <v>2.371675386481135</v>
+        <v>2.562364850527557</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>2.195872790727863</v>
+        <v>2.108037879098748</v>
       </c>
       <c r="C486" t="n">
-        <v>2.003765745956255</v>
+        <v>1.9321713367664386</v>
       </c>
       <c r="D486" t="n">
-        <v>1.9023238488163678</v>
+        <v>1.8443923072922388</v>
       </c>
       <c r="E486" t="n">
-        <v>2.195872790727863</v>
+        <v>2.0763285241077973</v>
       </c>
       <c r="F486" t="n">
-        <v>2.003765745956255</v>
+        <v>1.9118326909428058</v>
       </c>
       <c r="G486" t="n">
-        <v>1.9023238488163678</v>
+        <v>2.082593847823375</v>
       </c>
       <c r="H486" t="n">
-        <v>2.195872790727863</v>
+        <v>1.9267772242300452</v>
       </c>
       <c r="I486" t="n">
-        <v>2.003765745956255</v>
+        <v>2.0175146935696713</v>
       </c>
       <c r="J486" t="n">
-        <v>1.9023238488163678</v>
+        <v>2.1183904290955113</v>
       </c>
       <c r="K486" t="n">
-        <v>2.195872790727863</v>
+        <v>1.9485364242608445</v>
       </c>
       <c r="L486" t="n">
-        <v>2.003765745956255</v>
+        <v>2.099062049324304</v>
       </c>
     </row>
     <row r="487">
@@ -18726,34 +18726,34 @@
         <v>2.25725598492237</v>
       </c>
       <c r="C491" t="n">
-        <v>2.05977880027511</v>
+        <v>2.068940675618285</v>
       </c>
       <c r="D491" t="n">
-        <v>1.9555012071432278</v>
+        <v>1.9749481807035227</v>
       </c>
       <c r="E491" t="n">
-        <v>2.25725598492237</v>
+        <v>2.2233020735429636</v>
       </c>
       <c r="F491" t="n">
-        <v>2.05977880027511</v>
+        <v>2.047162352531301</v>
       </c>
       <c r="G491" t="n">
-        <v>1.9555012071432278</v>
+        <v>2.2300108901134275</v>
       </c>
       <c r="H491" t="n">
-        <v>2.25725598492237</v>
+        <v>2.063164739176704</v>
       </c>
       <c r="I491" t="n">
-        <v>2.05977880027511</v>
+        <v>2.1603250880273364</v>
       </c>
       <c r="J491" t="n">
-        <v>1.9555012071432278</v>
+        <v>2.26834134333604</v>
       </c>
       <c r="K491" t="n">
-        <v>2.25725598492237</v>
+        <v>2.086464170834755</v>
       </c>
       <c r="L491" t="n">
-        <v>2.05977880027511</v>
+        <v>2.2476447982929013</v>
       </c>
     </row>
     <row r="492">
@@ -18837,37 +18837,37 @@
         <v>493.0</v>
       </c>
       <c r="B494" t="n">
-        <v>1.3774511604025044</v>
+        <v>1.3636766487984795</v>
       </c>
       <c r="C494" t="n">
-        <v>1.3360304369840874</v>
+        <v>1.321062999923984</v>
       </c>
       <c r="D494" t="n">
-        <v>1.2504184690187012</v>
+        <v>1.2395020344714225</v>
       </c>
       <c r="E494" t="n">
-        <v>1.3774511604025044</v>
+        <v>1.265180407682448</v>
       </c>
       <c r="F494" t="n">
-        <v>1.3360304369840874</v>
+        <v>1.367804000358615</v>
       </c>
       <c r="G494" t="n">
-        <v>1.2504184690187012</v>
+        <v>1.368632469712677</v>
       </c>
       <c r="H494" t="n">
-        <v>1.3774511604025044</v>
+        <v>1.3137280280679435</v>
       </c>
       <c r="I494" t="n">
-        <v>1.3360304369840874</v>
+        <v>1.2122383085819357</v>
       </c>
       <c r="J494" t="n">
-        <v>1.2504184690187012</v>
+        <v>1.4034858443263998</v>
       </c>
       <c r="K494" t="n">
-        <v>1.3774511604025044</v>
+        <v>1.375296535655907</v>
       </c>
       <c r="L494" t="n">
-        <v>1.3360304369840874</v>
+        <v>1.236111710859304</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>4.340295535117757</v>
       </c>
       <c r="C496" t="n">
-        <v>4.209780431510185</v>
+        <v>4.2046652666754465</v>
       </c>
       <c r="D496" t="n">
-        <v>3.9400204189633654</v>
+        <v>3.945073893232518</v>
       </c>
       <c r="E496" t="n">
-        <v>4.340295535117757</v>
+        <v>4.026802746399506</v>
       </c>
       <c r="F496" t="n">
-        <v>4.209780431510185</v>
+        <v>4.353432025769042</v>
       </c>
       <c r="G496" t="n">
-        <v>3.9400204189633654</v>
+        <v>4.356068869218393</v>
       </c>
       <c r="H496" t="n">
-        <v>4.340295535117757</v>
+        <v>4.181319596259342</v>
       </c>
       <c r="I496" t="n">
-        <v>4.209780431510185</v>
+        <v>3.858299196420722</v>
       </c>
       <c r="J496" t="n">
-        <v>3.9400204189633654</v>
+        <v>4.4669998192739016</v>
       </c>
       <c r="K496" t="n">
-        <v>4.340295535117757</v>
+        <v>4.377279187430277</v>
       </c>
       <c r="L496" t="n">
-        <v>4.209780431510185</v>
+        <v>3.9342832072959015</v>
       </c>
     </row>
     <row r="497">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.2485110258588645</v>
+        <v>1.260996136117453</v>
       </c>
       <c r="C508" t="n">
-        <v>1.210967604085687</v>
+        <v>1.2215911594142512</v>
       </c>
       <c r="D508" t="n">
-        <v>1.1333695817216656</v>
+        <v>1.1461714751479644</v>
       </c>
       <c r="E508" t="n">
-        <v>1.2485110258588645</v>
+        <v>1.1699163485601587</v>
       </c>
       <c r="F508" t="n">
-        <v>1.210967604085687</v>
+        <v>1.2648127112375995</v>
       </c>
       <c r="G508" t="n">
-        <v>1.1333695817216656</v>
+        <v>1.2655787994853411</v>
       </c>
       <c r="H508" t="n">
-        <v>1.2485110258588645</v>
+        <v>1.214808487600411</v>
       </c>
       <c r="I508" t="n">
-        <v>1.210967604085687</v>
+        <v>1.1209606210696905</v>
       </c>
       <c r="J508" t="n">
-        <v>1.1333695817216656</v>
+        <v>1.2978078258878114</v>
       </c>
       <c r="K508" t="n">
-        <v>1.2485110258588645</v>
+        <v>1.2717410824669038</v>
       </c>
       <c r="L508" t="n">
-        <v>1.210967604085687</v>
+        <v>1.1430364321164395</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>2.3323380489187615</v>
+        <v>2.285691287940386</v>
       </c>
       <c r="C510" t="n">
-        <v>2.2672454780343942</v>
+        <v>2.240307524652878</v>
       </c>
       <c r="D510" t="n">
-        <v>2.07488288656966</v>
+        <v>2.0628205573763823</v>
       </c>
       <c r="E510" t="n">
-        <v>2.3323380489187615</v>
+        <v>2.247067655191674</v>
       </c>
       <c r="F510" t="n">
-        <v>2.2672454780343942</v>
+        <v>2.1024229849212177</v>
       </c>
       <c r="G510" t="n">
-        <v>2.07488288656966</v>
+        <v>2.0789453420562123</v>
       </c>
       <c r="H510" t="n">
-        <v>2.3323380489187615</v>
+        <v>2.264836440483436</v>
       </c>
       <c r="I510" t="n">
-        <v>2.2672454780343942</v>
+        <v>1.9900540383965575</v>
       </c>
       <c r="J510" t="n">
-        <v>2.07488288656966</v>
+        <v>2.0424526097583744</v>
       </c>
       <c r="K510" t="n">
-        <v>2.3323380489187615</v>
+        <v>2.0847654571120895</v>
       </c>
       <c r="L510" t="n">
-        <v>2.2672454780343942</v>
+        <v>2.1768488447867713</v>
       </c>
     </row>
     <row r="511">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.5873637077604607</v>
+        <v>0.5933572149825062</v>
       </c>
       <c r="C517" t="n">
-        <v>0.5746335340946933</v>
+        <v>0.5803059024280004</v>
       </c>
       <c r="D517" t="n">
-        <v>0.5935127749752037</v>
+        <v>0.6056496095006587</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5873637077604607</v>
+        <v>0.664020996346412</v>
       </c>
       <c r="F517" t="n">
-        <v>0.5746335340946933</v>
+        <v>0.6324009486483844</v>
       </c>
       <c r="G517" t="n">
-        <v>0.5935127749752037</v>
+        <v>0.657962410630974</v>
       </c>
       <c r="H517" t="n">
-        <v>0.5873637077604607</v>
+        <v>0.5992743503989115</v>
       </c>
       <c r="I517" t="n">
-        <v>0.5746335340946933</v>
+        <v>0.6528003633433314</v>
       </c>
       <c r="J517" t="n">
-        <v>0.5935127749752037</v>
+        <v>0.6039587956017544</v>
       </c>
       <c r="K517" t="n">
-        <v>0.5873637077604607</v>
+        <v>0.5781347955130097</v>
       </c>
       <c r="L517" t="n">
-        <v>0.5746335340946933</v>
+        <v>0.610779335142391</v>
       </c>
     </row>
     <row r="518">
@@ -19749,37 +19749,37 @@
         <v>517.0</v>
       </c>
       <c r="B518" t="n">
-        <v>2.3762795431139763</v>
+        <v>2.329224502656274</v>
       </c>
       <c r="C518" t="n">
-        <v>2.3849415589275327</v>
+        <v>2.3405589290731674</v>
       </c>
       <c r="D518" t="n">
-        <v>2.22177972252646</v>
+        <v>2.172715345835591</v>
       </c>
       <c r="E518" t="n">
-        <v>2.3762795431139763</v>
+        <v>2.389986881804114</v>
       </c>
       <c r="F518" t="n">
-        <v>2.3849415589275327</v>
+        <v>2.330635297710738</v>
       </c>
       <c r="G518" t="n">
-        <v>2.22177972252646</v>
+        <v>2.4307510278105395</v>
       </c>
       <c r="H518" t="n">
-        <v>2.3762795431139763</v>
+        <v>2.34198349209986</v>
       </c>
       <c r="I518" t="n">
-        <v>2.3849415589275327</v>
+        <v>2.104966562606182</v>
       </c>
       <c r="J518" t="n">
-        <v>2.22177972252646</v>
+        <v>2.31520991404432</v>
       </c>
       <c r="K518" t="n">
-        <v>2.3762795431139763</v>
+        <v>2.06431270172287</v>
       </c>
       <c r="L518" t="n">
-        <v>2.3849415589275327</v>
+        <v>2.2371388824713865</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>2.1762447534779596</v>
+        <v>2.1980072010127394</v>
       </c>
       <c r="C521" t="n">
-        <v>2.1290781116086124</v>
+        <v>2.1496604745331136</v>
       </c>
       <c r="D521" t="n">
-        <v>2.1990276988456454</v>
+        <v>2.2435426238345304</v>
       </c>
       <c r="E521" t="n">
-        <v>2.1762447534779596</v>
+        <v>2.4597711037121175</v>
       </c>
       <c r="F521" t="n">
-        <v>2.1290781116086124</v>
+        <v>2.342639145455437</v>
       </c>
       <c r="G521" t="n">
-        <v>2.1990276988456454</v>
+        <v>2.4373279367728258</v>
       </c>
       <c r="H521" t="n">
-        <v>2.1762447534779596</v>
+        <v>2.219926385487491</v>
       </c>
       <c r="I521" t="n">
-        <v>2.1290781116086124</v>
+        <v>2.4182058686093146</v>
       </c>
       <c r="J521" t="n">
-        <v>2.1990276988456454</v>
+        <v>2.237279244825187</v>
       </c>
       <c r="K521" t="n">
-        <v>2.1762447534779596</v>
+        <v>2.14161791852668</v>
       </c>
       <c r="L521" t="n">
-        <v>2.1290781116086124</v>
+        <v>2.262544961069243</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>1.2232295192347313</v>
+        <v>1.1987649288500366</v>
       </c>
       <c r="C522" t="n">
-        <v>1.1967179659889156</v>
+        <v>1.172397244475856</v>
       </c>
       <c r="D522" t="n">
-        <v>1.2360354186007503</v>
+        <v>1.2235993642758942</v>
       </c>
       <c r="E522" t="n">
-        <v>1.2232295192347313</v>
+        <v>1.3415276031717345</v>
       </c>
       <c r="F522" t="n">
-        <v>1.1967179659889156</v>
+        <v>1.2776453358429747</v>
       </c>
       <c r="G522" t="n">
-        <v>1.2360354186007503</v>
+        <v>1.329287387849986</v>
       </c>
       <c r="H522" t="n">
-        <v>1.2232295192347313</v>
+        <v>1.210719370857879</v>
       </c>
       <c r="I522" t="n">
-        <v>1.1967179659889156</v>
+        <v>1.3188584571936461</v>
       </c>
       <c r="J522" t="n">
-        <v>1.2360354186007503</v>
+        <v>1.2201833977180787</v>
       </c>
       <c r="K522" t="n">
-        <v>1.2232295192347313</v>
+        <v>1.1680109376091712</v>
       </c>
       <c r="L522" t="n">
-        <v>1.1967179659889156</v>
+        <v>1.233962995219714</v>
       </c>
     </row>
     <row r="523">
@@ -19942,34 +19942,34 @@
         <v>6.471877640699638</v>
       </c>
       <c r="C523" t="n">
-        <v>6.108164775554142</v>
+        <v>6.057978486340919</v>
       </c>
       <c r="D523" t="n">
-        <v>6.2243655463263945</v>
+        <v>6.307338376490048</v>
       </c>
       <c r="E523" t="n">
-        <v>6.471877640699638</v>
+        <v>5.7000672826571135</v>
       </c>
       <c r="F523" t="n">
-        <v>6.108164775554142</v>
+        <v>5.817824120157697</v>
       </c>
       <c r="G523" t="n">
-        <v>6.2243655463263945</v>
+        <v>5.569066271626718</v>
       </c>
       <c r="H523" t="n">
-        <v>6.471877640699638</v>
+        <v>5.715701041749664</v>
       </c>
       <c r="I523" t="n">
-        <v>6.108164775554142</v>
+        <v>6.396392265446262</v>
       </c>
       <c r="J523" t="n">
-        <v>6.2243655463263945</v>
+        <v>6.091802155131147</v>
       </c>
       <c r="K523" t="n">
-        <v>6.471877640699638</v>
+        <v>6.288305969155604</v>
       </c>
       <c r="L523" t="n">
-        <v>6.108164775554142</v>
+        <v>5.834111419813532</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>1.8824507428500026</v>
+        <v>1.8638126166831708</v>
       </c>
       <c r="C524" t="n">
-        <v>1.958475812427122</v>
+        <v>1.923933789117613</v>
       </c>
       <c r="D524" t="n">
-        <v>1.9631524460840126</v>
+        <v>1.91814578200871</v>
       </c>
       <c r="E524" t="n">
-        <v>1.8824507428500026</v>
+        <v>1.947439395625199</v>
       </c>
       <c r="F524" t="n">
-        <v>1.958475812427122</v>
+        <v>1.9391473792983145</v>
       </c>
       <c r="G524" t="n">
-        <v>1.9631524460840126</v>
+        <v>1.957003248300131</v>
       </c>
       <c r="H524" t="n">
-        <v>1.8824507428500026</v>
+        <v>1.703879363754407</v>
       </c>
       <c r="I524" t="n">
-        <v>1.958475812427122</v>
+        <v>1.8000893788675938</v>
       </c>
       <c r="J524" t="n">
-        <v>1.9631524460840126</v>
+        <v>1.7849710470693603</v>
       </c>
       <c r="K524" t="n">
-        <v>1.8824507428500026</v>
+        <v>1.7487428914330563</v>
       </c>
       <c r="L524" t="n">
-        <v>1.958475812427122</v>
+        <v>1.766181877992596</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.7150508459333285</v>
       </c>
       <c r="C531" t="n">
-        <v>2.5624677816337136</v>
+        <v>2.5414138720038824</v>
       </c>
       <c r="D531" t="n">
-        <v>2.6112157676894574</v>
+        <v>2.646024128606021</v>
       </c>
       <c r="E531" t="n">
-        <v>2.7150508459333285</v>
+        <v>2.391264692696209</v>
       </c>
       <c r="F531" t="n">
-        <v>2.5624677816337136</v>
+        <v>2.440665472349365</v>
       </c>
       <c r="G531" t="n">
-        <v>2.6112157676894574</v>
+        <v>2.3363077813387583</v>
       </c>
       <c r="H531" t="n">
-        <v>2.7150508459333285</v>
+        <v>2.3978232917930793</v>
       </c>
       <c r="I531" t="n">
-        <v>2.5624677816337136</v>
+        <v>2.683383585933166</v>
       </c>
       <c r="J531" t="n">
-        <v>2.6112157676894574</v>
+        <v>2.5556034141522024</v>
       </c>
       <c r="K531" t="n">
-        <v>2.7150508459333285</v>
+        <v>2.6380397450156132</v>
       </c>
       <c r="L531" t="n">
-        <v>2.5624677816337136</v>
+        <v>2.447498241626469</v>
       </c>
     </row>
     <row r="532">
@@ -20360,34 +20360,34 @@
         <v>2.214816987376626</v>
       </c>
       <c r="C534" t="n">
-        <v>2.0903465512877597</v>
+        <v>2.073171713929304</v>
       </c>
       <c r="D534" t="n">
-        <v>2.13011297694361</v>
+        <v>2.1585080801794168</v>
       </c>
       <c r="E534" t="n">
-        <v>2.214816987376626</v>
+        <v>1.9506867323057</v>
       </c>
       <c r="F534" t="n">
-        <v>2.0903465512877597</v>
+        <v>1.9909856777671977</v>
       </c>
       <c r="G534" t="n">
-        <v>2.13011297694361</v>
+        <v>1.905855343224885</v>
       </c>
       <c r="H534" t="n">
-        <v>2.214816987376626</v>
+        <v>1.956036943965603</v>
       </c>
       <c r="I534" t="n">
-        <v>2.0903465512877597</v>
+        <v>2.1889842537108515</v>
       </c>
       <c r="J534" t="n">
-        <v>2.13011297694361</v>
+        <v>2.0847469074621503</v>
       </c>
       <c r="K534" t="n">
-        <v>2.214816987376626</v>
+        <v>2.151994777330502</v>
       </c>
       <c r="L534" t="n">
-        <v>2.0903465512877597</v>
+        <v>1.9965595451916038</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>5.057817646331477</v>
+        <v>5.108906713466139</v>
       </c>
       <c r="C537" t="n">
-        <v>5.076254406670371</v>
+        <v>5.1337675747307</v>
       </c>
       <c r="D537" t="n">
-        <v>4.72897084832447</v>
+        <v>4.765620490481515</v>
       </c>
       <c r="E537" t="n">
-        <v>5.057817646331477</v>
+        <v>5.242182542567438</v>
       </c>
       <c r="F537" t="n">
-        <v>5.076254406670371</v>
+        <v>5.112001142670733</v>
       </c>
       <c r="G537" t="n">
-        <v>4.72897084832447</v>
+        <v>5.331594369964685</v>
       </c>
       <c r="H537" t="n">
-        <v>5.057817646331477</v>
+        <v>5.13689220252099</v>
       </c>
       <c r="I537" t="n">
-        <v>5.076254406670371</v>
+        <v>4.617020725591884</v>
       </c>
       <c r="J537" t="n">
-        <v>4.72897084832447</v>
+        <v>5.078167200909738</v>
       </c>
       <c r="K537" t="n">
-        <v>5.057817646331477</v>
+        <v>4.527850796906088</v>
       </c>
       <c r="L537" t="n">
-        <v>5.076254406670371</v>
+        <v>4.9069266799228926</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.7811001610853114</v>
       </c>
       <c r="C547" t="n">
-        <v>0.7051728016058603</v>
+        <v>0.702050089882007</v>
       </c>
       <c r="D547" t="n">
-        <v>0.7851985135463997</v>
+        <v>0.7773153024408028</v>
       </c>
       <c r="E547" t="n">
-        <v>0.7811001610853114</v>
+        <v>0.7806250397134574</v>
       </c>
       <c r="F547" t="n">
-        <v>0.7051728016058603</v>
+        <v>0.8107059788362255</v>
       </c>
       <c r="G547" t="n">
-        <v>0.7851985135463997</v>
+        <v>0.7971102890632055</v>
       </c>
       <c r="H547" t="n">
-        <v>0.7811001610853114</v>
+        <v>0.6884911824892725</v>
       </c>
       <c r="I547" t="n">
-        <v>0.7051728016058603</v>
+        <v>0.7839630818053489</v>
       </c>
       <c r="J547" t="n">
-        <v>0.7851985135463997</v>
+        <v>0.776844772973786</v>
       </c>
       <c r="K547" t="n">
-        <v>0.7811001610853114</v>
+        <v>0.7461323051008529</v>
       </c>
       <c r="L547" t="n">
-        <v>0.7051728016058603</v>
+        <v>0.7721706164482304</v>
       </c>
     </row>
     <row r="548">
@@ -20930,34 +20930,34 @@
         <v>3.3963799840564035</v>
       </c>
       <c r="C549" t="n">
-        <v>3.0283173454097168</v>
+        <v>3.016987457669653</v>
       </c>
       <c r="D549" t="n">
-        <v>3.465588688247621</v>
+        <v>3.448248952453339</v>
       </c>
       <c r="E549" t="n">
-        <v>3.3963799840564035</v>
+        <v>3.3001745355899996</v>
       </c>
       <c r="F549" t="n">
-        <v>3.0283173454097168</v>
+        <v>3.096425417417613</v>
       </c>
       <c r="G549" t="n">
-        <v>3.465588688247621</v>
+        <v>3.16057308743129</v>
       </c>
       <c r="H549" t="n">
-        <v>3.3963799840564035</v>
+        <v>3.4066285645744427</v>
       </c>
       <c r="I549" t="n">
-        <v>3.0283173454097168</v>
+        <v>3.127303896753538</v>
       </c>
       <c r="J549" t="n">
-        <v>3.465588688247621</v>
+        <v>3.43356662822947</v>
       </c>
       <c r="K549" t="n">
-        <v>3.3963799840564035</v>
+        <v>3.151749601341474</v>
       </c>
       <c r="L549" t="n">
-        <v>3.0283173454097168</v>
+        <v>3.465183263755573</v>
       </c>
     </row>
     <row r="550">
@@ -20965,37 +20965,37 @@
         <v>549.0</v>
       </c>
       <c r="B550" t="n">
-        <v>3.7576256712858402</v>
+        <v>3.7952019279986984</v>
       </c>
       <c r="C550" t="n">
-        <v>4.325284658286299</v>
+        <v>4.382583149353958</v>
       </c>
       <c r="D550" t="n">
-        <v>4.274828067669972</v>
+        <v>4.309086416310722</v>
       </c>
       <c r="E550" t="n">
-        <v>3.7576256712858402</v>
+        <v>4.199533370391476</v>
       </c>
       <c r="F550" t="n">
-        <v>4.325284658286299</v>
+        <v>3.7079792225501107</v>
       </c>
       <c r="G550" t="n">
-        <v>4.274828067669972</v>
+        <v>3.805611151207421</v>
       </c>
       <c r="H550" t="n">
-        <v>3.7576256712858402</v>
+        <v>4.258826967168961</v>
       </c>
       <c r="I550" t="n">
-        <v>4.325284658286299</v>
+        <v>3.8844507986779617</v>
       </c>
       <c r="J550" t="n">
-        <v>4.274828067669972</v>
+        <v>3.917351285285151</v>
       </c>
       <c r="K550" t="n">
-        <v>3.7576256712858402</v>
+        <v>3.8435618425536795</v>
       </c>
       <c r="L550" t="n">
-        <v>4.325284658286299</v>
+        <v>4.186861269269107</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>4.723007532434421</v>
+        <v>4.676703537018397</v>
       </c>
       <c r="C552" t="n">
-        <v>5.436505338228316</v>
+        <v>5.400514255816933</v>
       </c>
       <c r="D552" t="n">
-        <v>5.3730858072827745</v>
+        <v>5.309946629138936</v>
       </c>
       <c r="E552" t="n">
-        <v>4.723007532434421</v>
+        <v>5.17494798425475</v>
       </c>
       <c r="F552" t="n">
-        <v>5.436505338228316</v>
+        <v>4.569221842284217</v>
       </c>
       <c r="G552" t="n">
-        <v>5.3730858072827745</v>
+        <v>4.68953048323138</v>
       </c>
       <c r="H552" t="n">
-        <v>4.723007532434421</v>
+        <v>5.2480135494164</v>
       </c>
       <c r="I552" t="n">
-        <v>5.436505338228316</v>
+        <v>4.786682009073165</v>
       </c>
       <c r="J552" t="n">
-        <v>5.3730858072827745</v>
+        <v>4.827224205510815</v>
       </c>
       <c r="K552" t="n">
-        <v>4.723007532434421</v>
+        <v>4.736295882232147</v>
       </c>
       <c r="L552" t="n">
-        <v>5.436505338228316</v>
+        <v>5.159332567403482</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>3.6964175509029364</v>
+        <v>3.6598193573296403</v>
       </c>
       <c r="C554" t="n">
-        <v>3.5955930099681903</v>
+        <v>3.5147343920914316</v>
       </c>
       <c r="D554" t="n">
-        <v>3.93162410333657</v>
+        <v>3.831338584337159</v>
       </c>
       <c r="E554" t="n">
-        <v>3.6964175509029364</v>
+        <v>3.812773647747184</v>
       </c>
       <c r="F554" t="n">
-        <v>3.5955930099681903</v>
+        <v>3.377086529827206</v>
       </c>
       <c r="G554" t="n">
-        <v>3.93162410333657</v>
+        <v>3.8104656752337176</v>
       </c>
       <c r="H554" t="n">
-        <v>3.6964175509029364</v>
+        <v>3.84538136548745</v>
       </c>
       <c r="I554" t="n">
-        <v>3.5955930099681903</v>
+        <v>3.7875386843844145</v>
       </c>
       <c r="J554" t="n">
-        <v>3.93162410333657</v>
+        <v>3.4435937047624368</v>
       </c>
       <c r="K554" t="n">
-        <v>3.6964175509029364</v>
+        <v>3.976556723470973</v>
       </c>
       <c r="L554" t="n">
-        <v>3.5955930099681903</v>
+        <v>3.9098691289687864</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>1.6646839856777447</v>
       </c>
       <c r="C557" t="n">
-        <v>1.6917870741825929</v>
+        <v>1.6834833525048591</v>
       </c>
       <c r="D557" t="n">
-        <v>1.75849333605823</v>
+        <v>1.7334005916147706</v>
       </c>
       <c r="E557" t="n">
-        <v>1.6646839856777447</v>
+        <v>1.883416940579187</v>
       </c>
       <c r="F557" t="n">
-        <v>1.6917870741825929</v>
+        <v>1.630989615146316</v>
       </c>
       <c r="G557" t="n">
-        <v>1.75849333605823</v>
+        <v>1.5994898155323067</v>
       </c>
       <c r="H557" t="n">
-        <v>1.6646839856777447</v>
+        <v>1.8058443467877685</v>
       </c>
       <c r="I557" t="n">
-        <v>1.6917870741825929</v>
+        <v>1.8518316888284558</v>
       </c>
       <c r="J557" t="n">
-        <v>1.75849333605823</v>
+        <v>1.8146372594772717</v>
       </c>
       <c r="K557" t="n">
-        <v>1.6646839856777447</v>
+        <v>1.8212883432541471</v>
       </c>
       <c r="L557" t="n">
-        <v>1.6917870741825929</v>
+        <v>1.8047512215458732</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>7.921993184370453</v>
+        <v>7.844326584523684</v>
       </c>
       <c r="C558" t="n">
-        <v>8.050972909205964</v>
+        <v>7.9329129914591165</v>
       </c>
       <c r="D558" t="n">
-        <v>8.368418476340725</v>
+        <v>8.168133086771372</v>
       </c>
       <c r="E558" t="n">
-        <v>7.921993184370453</v>
+        <v>8.875040370327445</v>
       </c>
       <c r="F558" t="n">
-        <v>8.050972909205964</v>
+        <v>7.6855519169095965</v>
       </c>
       <c r="G558" t="n">
-        <v>8.368418476340725</v>
+        <v>7.537118509941521</v>
       </c>
       <c r="H558" t="n">
-        <v>7.921993184370453</v>
+        <v>8.50950266771013</v>
       </c>
       <c r="I558" t="n">
-        <v>8.050972909205964</v>
+        <v>8.726204295661743</v>
       </c>
       <c r="J558" t="n">
-        <v>8.368418476340725</v>
+        <v>8.55093664518519</v>
       </c>
       <c r="K558" t="n">
-        <v>7.921993184370453</v>
+        <v>8.58227789297499</v>
       </c>
       <c r="L558" t="n">
-        <v>8.050972909205964</v>
+        <v>8.504351641167561</v>
       </c>
     </row>
     <row r="559">
@@ -21649,37 +21649,37 @@
         <v>567.0</v>
       </c>
       <c r="B568" t="n">
-        <v>1.220419426983801</v>
+        <v>1.2332659472678407</v>
       </c>
       <c r="C568" t="n">
-        <v>1.3350840016282532</v>
+        <v>1.3665101510181048</v>
       </c>
       <c r="D568" t="n">
-        <v>1.318187360513297</v>
+        <v>1.3434188497129886</v>
       </c>
       <c r="E568" t="n">
-        <v>1.220419426983801</v>
+        <v>1.18976217781095</v>
       </c>
       <c r="F568" t="n">
-        <v>1.3350840016282532</v>
+        <v>1.3393772772345827</v>
       </c>
       <c r="G568" t="n">
-        <v>1.318187360513297</v>
+        <v>1.2942122297523917</v>
       </c>
       <c r="H568" t="n">
-        <v>1.220419426983801</v>
+        <v>1.2177489247047757</v>
       </c>
       <c r="I568" t="n">
-        <v>1.3350840016282532</v>
+        <v>1.354866119892143</v>
       </c>
       <c r="J568" t="n">
-        <v>1.318187360513297</v>
+        <v>1.3483010505175568</v>
       </c>
       <c r="K568" t="n">
-        <v>1.220419426983801</v>
+        <v>1.3826366684761382</v>
       </c>
       <c r="L568" t="n">
-        <v>1.3350840016282532</v>
+        <v>1.4062192259607436</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.2559181166880728</v>
+        <v>1.2691383073900526</v>
       </c>
       <c r="C576" t="n">
-        <v>1.1338357627553415</v>
+        <v>1.1406970669905805</v>
       </c>
       <c r="D576" t="n">
-        <v>1.262507790280384</v>
+        <v>1.2629886362811287</v>
       </c>
       <c r="E576" t="n">
-        <v>1.2559181166880728</v>
+        <v>1.2683663260697036</v>
       </c>
       <c r="F576" t="n">
-        <v>1.1338357627553415</v>
+        <v>1.3172420965085774</v>
       </c>
       <c r="G576" t="n">
-        <v>1.262507790280384</v>
+        <v>1.2951517020035297</v>
       </c>
       <c r="H576" t="n">
-        <v>1.2559181166880728</v>
+        <v>1.1186664368156187</v>
       </c>
       <c r="I576" t="n">
-        <v>1.1338357627553415</v>
+        <v>1.2737900057737424</v>
       </c>
       <c r="J576" t="n">
-        <v>1.262507790280384</v>
+        <v>1.2622241159275325</v>
       </c>
       <c r="K576" t="n">
-        <v>1.2559181166880728</v>
+        <v>1.2123222321052753</v>
       </c>
       <c r="L576" t="n">
-        <v>1.1338357627553415</v>
+        <v>1.254629505918648</v>
       </c>
     </row>
     <row r="577">
@@ -21994,34 +21994,34 @@
         <v>4.3655051363545425</v>
       </c>
       <c r="C577" t="n">
-        <v>3.941153312720519</v>
+        <v>3.9237007314140517</v>
       </c>
       <c r="D577" t="n">
-        <v>4.388410494221341</v>
+        <v>4.344351869877142</v>
       </c>
       <c r="E577" t="n">
-        <v>4.3655051363545425</v>
+        <v>4.3628497217322515</v>
       </c>
       <c r="F577" t="n">
-        <v>3.941153312720519</v>
+        <v>4.530969638727724</v>
       </c>
       <c r="G577" t="n">
-        <v>4.388410494221341</v>
+        <v>4.45498443670967</v>
       </c>
       <c r="H577" t="n">
-        <v>4.3655051363545425</v>
+        <v>3.847921103121448</v>
       </c>
       <c r="I577" t="n">
-        <v>3.941153312720519</v>
+        <v>4.381505766915077</v>
       </c>
       <c r="J577" t="n">
-        <v>4.388410494221341</v>
+        <v>4.34172211903672</v>
       </c>
       <c r="K577" t="n">
-        <v>4.3655051363545425</v>
+        <v>4.170072639329636</v>
       </c>
       <c r="L577" t="n">
-        <v>3.941153312720519</v>
+        <v>4.315598639184807</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>5.414419105269513</v>
+        <v>5.468563296322208</v>
       </c>
       <c r="C578" t="n">
-        <v>5.46637158323405</v>
+        <v>5.495190507957095</v>
       </c>
       <c r="D578" t="n">
-        <v>5.444447314043883</v>
+        <v>5.491847937333231</v>
       </c>
       <c r="E578" t="n">
-        <v>5.414419105269513</v>
+        <v>5.09802258863205</v>
       </c>
       <c r="F578" t="n">
-        <v>5.46637158323405</v>
+        <v>5.607824850744913</v>
       </c>
       <c r="G578" t="n">
-        <v>5.444447314043883</v>
+        <v>5.515331708214849</v>
       </c>
       <c r="H578" t="n">
-        <v>5.414419105269513</v>
+        <v>5.432369436633942</v>
       </c>
       <c r="I578" t="n">
-        <v>5.46637158323405</v>
+        <v>5.703473154396547</v>
       </c>
       <c r="J578" t="n">
-        <v>5.444447314043883</v>
+        <v>5.2491848868311</v>
       </c>
       <c r="K578" t="n">
-        <v>5.414419105269513</v>
+        <v>5.46525303063583</v>
       </c>
       <c r="L578" t="n">
-        <v>5.46637158323405</v>
+        <v>4.843668455490161</v>
       </c>
     </row>
     <row r="579">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>2.3503852685022095</v>
+        <v>2.374368791650191</v>
       </c>
       <c r="C584" t="n">
-        <v>2.5712158461745607</v>
+        <v>2.6308997367831446</v>
       </c>
       <c r="D584" t="n">
-        <v>2.5386748889547044</v>
+        <v>2.5864427684391127</v>
       </c>
       <c r="E584" t="n">
-        <v>2.3503852685022095</v>
+        <v>2.2906123295939556</v>
       </c>
       <c r="F584" t="n">
-        <v>2.5712158461745607</v>
+        <v>2.5786616539251033</v>
       </c>
       <c r="G584" t="n">
-        <v>2.5386748889547044</v>
+        <v>2.491706784658918</v>
       </c>
       <c r="H584" t="n">
-        <v>2.3503852685022095</v>
+        <v>2.34449434794671</v>
       </c>
       <c r="I584" t="n">
-        <v>2.5712158461745607</v>
+        <v>2.6084818437279313</v>
       </c>
       <c r="J584" t="n">
-        <v>2.5386748889547044</v>
+        <v>2.5958423186744994</v>
       </c>
       <c r="K584" t="n">
-        <v>2.3503852685022095</v>
+        <v>2.661947622160329</v>
       </c>
       <c r="L584" t="n">
-        <v>2.5712158461745607</v>
+        <v>2.707350390835481</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>4.689471427663537</v>
+        <v>4.643496217588404</v>
       </c>
       <c r="C585" t="n">
-        <v>4.558594279963222</v>
+        <v>4.5512968316619835</v>
       </c>
       <c r="D585" t="n">
-        <v>4.1718240701973714</v>
+        <v>4.1907231769571585</v>
       </c>
       <c r="E585" t="n">
-        <v>4.689471427663537</v>
+        <v>4.565030375099334</v>
       </c>
       <c r="F585" t="n">
-        <v>4.558594279963222</v>
+        <v>4.271177490049224</v>
       </c>
       <c r="G585" t="n">
-        <v>4.1718240701973714</v>
+        <v>4.223481483848938</v>
       </c>
       <c r="H585" t="n">
-        <v>4.689471427663537</v>
+        <v>4.601128551492955</v>
       </c>
       <c r="I585" t="n">
-        <v>4.558594279963222</v>
+        <v>4.04289435272676</v>
       </c>
       <c r="J585" t="n">
-        <v>4.1718240701973714</v>
+        <v>4.14934467224689</v>
       </c>
       <c r="K585" t="n">
-        <v>4.689471427663537</v>
+        <v>4.235305338798416</v>
       </c>
       <c r="L585" t="n">
-        <v>4.558594279963222</v>
+        <v>4.422377348315243</v>
       </c>
     </row>
     <row r="586">
@@ -22716,34 +22716,34 @@
         <v>0.6674563161184253</v>
       </c>
       <c r="C596" t="n">
-        <v>0.6858903184331957</v>
+        <v>0.6892734480003797</v>
       </c>
       <c r="D596" t="n">
-        <v>0.7256820556187661</v>
+        <v>0.727375002957201</v>
       </c>
       <c r="E596" t="n">
-        <v>0.6674563161184253</v>
+        <v>0.6824676764400985</v>
       </c>
       <c r="F596" t="n">
-        <v>0.6858903184331957</v>
+        <v>0.7233363801392239</v>
       </c>
       <c r="G596" t="n">
-        <v>0.7256820556187661</v>
+        <v>0.7572358939333745</v>
       </c>
       <c r="H596" t="n">
-        <v>0.6674563161184253</v>
+        <v>0.7859371911384503</v>
       </c>
       <c r="I596" t="n">
-        <v>0.6858903184331957</v>
+        <v>0.7531105169571528</v>
       </c>
       <c r="J596" t="n">
-        <v>0.7256820556187661</v>
+        <v>0.7600113463512639</v>
       </c>
       <c r="K596" t="n">
-        <v>0.6674563161184253</v>
+        <v>0.6806009701228887</v>
       </c>
       <c r="L596" t="n">
-        <v>0.6858903184331957</v>
+        <v>0.7535666707506476</v>
       </c>
     </row>
     <row r="597">
@@ -22789,37 +22789,37 @@
         <v>597.0</v>
       </c>
       <c r="B598" t="n">
-        <v>0.4990618614667996</v>
+        <v>0.5042604225237454</v>
       </c>
       <c r="C598" t="n">
-        <v>0.48824548980049903</v>
+        <v>0.49316885707708846</v>
       </c>
       <c r="D598" t="n">
-        <v>0.5042865031835562</v>
+        <v>0.5147070268575865</v>
       </c>
       <c r="E598" t="n">
-        <v>0.4990618614667996</v>
+        <v>0.5643135361422243</v>
       </c>
       <c r="F598" t="n">
-        <v>0.48824548980049903</v>
+        <v>0.5374414627776181</v>
       </c>
       <c r="G598" t="n">
-        <v>0.5042865031835562</v>
+        <v>0.5591646900245393</v>
       </c>
       <c r="H598" t="n">
-        <v>0.4990618614667996</v>
+        <v>0.5092890581076149</v>
       </c>
       <c r="I598" t="n">
-        <v>0.48824548980049903</v>
+        <v>0.554777760733672</v>
       </c>
       <c r="J598" t="n">
-        <v>0.5042865031835562</v>
+        <v>0.5132701006526939</v>
       </c>
       <c r="K598" t="n">
-        <v>0.4990618614667996</v>
+        <v>0.4913237572575308</v>
       </c>
       <c r="L598" t="n">
-        <v>0.48824548980049903</v>
+        <v>0.5190664878268225</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.4645683744447293</v>
+        <v>1.4499226907002822</v>
       </c>
       <c r="C606" t="n">
-        <v>1.3364398674253068</v>
+        <v>1.3289604951008205</v>
       </c>
       <c r="D606" t="n">
-        <v>1.2687817612626504</v>
+        <v>1.2685854857785477</v>
       </c>
       <c r="E606" t="n">
-        <v>1.4645683744447293</v>
+        <v>1.4281127821760076</v>
       </c>
       <c r="F606" t="n">
-        <v>1.3364398674253068</v>
+        <v>1.3149714371383472</v>
       </c>
       <c r="G606" t="n">
-        <v>1.2687817612626504</v>
+        <v>1.4324221141428897</v>
       </c>
       <c r="H606" t="n">
-        <v>1.4645683744447293</v>
+        <v>1.3252503880670459</v>
       </c>
       <c r="I606" t="n">
-        <v>1.3364398674253068</v>
+        <v>1.3876602323097367</v>
       </c>
       <c r="J606" t="n">
-        <v>1.2687817612626504</v>
+        <v>1.457043244508041</v>
       </c>
       <c r="K606" t="n">
-        <v>1.4645683744447293</v>
+        <v>1.3402165128074752</v>
       </c>
       <c r="L606" t="n">
-        <v>1.3364398674253068</v>
+        <v>1.443749054359652</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>2.2699126865130688</v>
+        <v>2.2933138482296984</v>
       </c>
       <c r="C607" t="n">
-        <v>2.0713282239080817</v>
+        <v>2.1019903521152026</v>
       </c>
       <c r="D607" t="n">
-        <v>1.9664659339639277</v>
+        <v>2.0064964020902583</v>
       </c>
       <c r="E607" t="n">
-        <v>2.2699126865130688</v>
+        <v>2.25881755020764</v>
       </c>
       <c r="F607" t="n">
-        <v>2.0713282239080817</v>
+        <v>2.079864137693706</v>
       </c>
       <c r="G607" t="n">
-        <v>1.9664659339639277</v>
+        <v>2.2656335347698904</v>
       </c>
       <c r="H607" t="n">
-        <v>2.2699126865130688</v>
+        <v>2.0961221496975546</v>
       </c>
       <c r="I607" t="n">
-        <v>2.0713282239080817</v>
+        <v>2.194834557597382</v>
       </c>
       <c r="J607" t="n">
-        <v>1.9664659339639277</v>
+        <v>2.304576286399082</v>
       </c>
       <c r="K607" t="n">
-        <v>2.2699126865130688</v>
+        <v>2.1197937711858583</v>
       </c>
       <c r="L607" t="n">
-        <v>2.0713282239080817</v>
+        <v>2.2835491305625357</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>2.8065091555827113</v>
+        <v>2.8351470041090656</v>
       </c>
       <c r="C608" t="n">
-        <v>2.771095652224499</v>
+        <v>2.821417477926243</v>
       </c>
       <c r="D608" t="n">
-        <v>2.598120905739297</v>
+        <v>2.6024464958622144</v>
       </c>
       <c r="E608" t="n">
-        <v>2.8065091555827113</v>
+        <v>2.709873065629779</v>
       </c>
       <c r="F608" t="n">
-        <v>2.771095652224499</v>
+        <v>2.8368725943290443</v>
       </c>
       <c r="G608" t="n">
-        <v>2.598120905739297</v>
+        <v>2.549771154912082</v>
       </c>
       <c r="H608" t="n">
-        <v>2.8065091555827113</v>
+        <v>2.895019673993042</v>
       </c>
       <c r="I608" t="n">
-        <v>2.771095652224499</v>
+        <v>2.8231263908369124</v>
       </c>
       <c r="J608" t="n">
-        <v>2.598120905739297</v>
+        <v>2.944397771245626</v>
       </c>
       <c r="K608" t="n">
-        <v>2.8065091555827113</v>
+        <v>2.804441439244433</v>
       </c>
       <c r="L608" t="n">
-        <v>2.771095652224499</v>
+        <v>2.847270417470095</v>
       </c>
     </row>
     <row r="609">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>3.1535107307008627</v>
+        <v>3.1850458380078717</v>
       </c>
       <c r="C609" t="n">
-        <v>3.058682907015846</v>
+        <v>3.085516066702022</v>
       </c>
       <c r="D609" t="n">
-        <v>2.862684480780266</v>
+        <v>2.895019724488147</v>
       </c>
       <c r="E609" t="n">
-        <v>3.1535107307008627</v>
+        <v>2.9549949362032195</v>
       </c>
       <c r="F609" t="n">
-        <v>3.058682907015846</v>
+        <v>3.19468580941912</v>
       </c>
       <c r="G609" t="n">
-        <v>2.862684480780266</v>
+        <v>3.1966208083577596</v>
       </c>
       <c r="H609" t="n">
-        <v>3.1535107307008627</v>
+        <v>3.0683842769903102</v>
       </c>
       <c r="I609" t="n">
-        <v>3.058682907015846</v>
+        <v>2.8313417134659535</v>
       </c>
       <c r="J609" t="n">
-        <v>2.862684480780266</v>
+        <v>3.2780254403515507</v>
       </c>
       <c r="K609" t="n">
-        <v>3.1535107307008627</v>
+        <v>3.2121856092329497</v>
       </c>
       <c r="L609" t="n">
-        <v>3.058682907015846</v>
+        <v>2.8871011786072067</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>2.657480728125052</v>
+        <v>2.6848774366624233</v>
       </c>
       <c r="C611" t="n">
-        <v>2.584994524722329</v>
+        <v>2.5784417600526246</v>
       </c>
       <c r="D611" t="n">
-        <v>2.826578745763354</v>
+        <v>2.81070553296559</v>
       </c>
       <c r="E611" t="n">
-        <v>2.657480728125052</v>
+        <v>2.797086123236072</v>
       </c>
       <c r="F611" t="n">
-        <v>2.584994524722329</v>
+        <v>2.477462011186635</v>
       </c>
       <c r="G611" t="n">
-        <v>2.826578745763354</v>
+        <v>2.7953929731866216</v>
       </c>
       <c r="H611" t="n">
-        <v>2.657480728125052</v>
+        <v>2.8210074475075997</v>
       </c>
       <c r="I611" t="n">
-        <v>2.584994524722329</v>
+        <v>2.7785735199809385</v>
       </c>
       <c r="J611" t="n">
-        <v>2.826578745763354</v>
+        <v>2.5262522917785297</v>
       </c>
       <c r="K611" t="n">
-        <v>2.657480728125052</v>
+        <v>2.9172389071808036</v>
       </c>
       <c r="L611" t="n">
-        <v>2.584994524722329</v>
+        <v>2.8683162691206414</v>
       </c>
     </row>
     <row r="612">
@@ -23473,37 +23473,37 @@
         <v>615.0</v>
       </c>
       <c r="B616" t="n">
-        <v>0.7338172146835052</v>
+        <v>0.7415416064170158</v>
       </c>
       <c r="C616" t="n">
-        <v>0.7540839915607714</v>
+        <v>0.7657803627707515</v>
       </c>
       <c r="D616" t="n">
-        <v>0.7978319658383156</v>
+        <v>0.808111055562719</v>
       </c>
       <c r="E616" t="n">
-        <v>0.7338172146835052</v>
+        <v>0.7582191746392682</v>
       </c>
       <c r="F616" t="n">
-        <v>0.7540839915607714</v>
+        <v>0.8036241598965406</v>
       </c>
       <c r="G616" t="n">
-        <v>0.7978319658383156</v>
+        <v>0.8412863998193855</v>
       </c>
       <c r="H616" t="n">
-        <v>0.7338172146835052</v>
+        <v>0.873173439497841</v>
       </c>
       <c r="I616" t="n">
-        <v>0.7540839915607714</v>
+        <v>0.8367031205902464</v>
       </c>
       <c r="J616" t="n">
-        <v>0.7978319658383156</v>
+        <v>0.8443699176388954</v>
       </c>
       <c r="K616" t="n">
-        <v>0.7338172146835052</v>
+        <v>0.7561452705233814</v>
       </c>
       <c r="L616" t="n">
-        <v>0.7540839915607714</v>
+        <v>0.8372099058414049</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>2.8714961736425924</v>
       </c>
       <c r="C617" t="n">
-        <v>2.8092610636279907</v>
+        <v>2.8083355797963008</v>
       </c>
       <c r="D617" t="n">
-        <v>2.9015576547067354</v>
+        <v>2.930984055364602</v>
       </c>
       <c r="E617" t="n">
-        <v>2.8714961736425924</v>
+        <v>3.213466866301238</v>
       </c>
       <c r="F617" t="n">
-        <v>2.8092610636279907</v>
+        <v>3.060444633348429</v>
       </c>
       <c r="G617" t="n">
-        <v>2.9015576547067354</v>
+        <v>3.184146913226969</v>
       </c>
       <c r="H617" t="n">
-        <v>2.8714961736425924</v>
+        <v>2.900131591360794</v>
       </c>
       <c r="I617" t="n">
-        <v>2.8092610636279907</v>
+        <v>3.1591656731571653</v>
       </c>
       <c r="J617" t="n">
-        <v>2.9015576547067354</v>
+        <v>2.9228015212713934</v>
       </c>
       <c r="K617" t="n">
-        <v>2.8714961736425924</v>
+        <v>2.7978287130362016</v>
       </c>
       <c r="L617" t="n">
-        <v>2.8092610636279907</v>
+        <v>2.9558088778832</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.4286166453502354</v>
+        <v>2.453398447853809</v>
       </c>
       <c r="C618" t="n">
-        <v>2.4519197274166142</v>
+        <v>2.465344393462529</v>
       </c>
       <c r="D618" t="n">
-        <v>2.442085681684809</v>
+        <v>2.463844793451326</v>
       </c>
       <c r="E618" t="n">
-        <v>2.4286166453502354</v>
+        <v>2.2871602701362588</v>
       </c>
       <c r="F618" t="n">
-        <v>2.4519197274166142</v>
+        <v>2.5158762986078003</v>
       </c>
       <c r="G618" t="n">
-        <v>2.442085681684809</v>
+        <v>2.474380476026211</v>
       </c>
       <c r="H618" t="n">
-        <v>2.4286166453502354</v>
+        <v>2.437160552383028</v>
       </c>
       <c r="I618" t="n">
-        <v>2.4519197274166142</v>
+        <v>2.5587876424111333</v>
       </c>
       <c r="J618" t="n">
-        <v>2.442085681684809</v>
+        <v>2.354977231864576</v>
       </c>
       <c r="K618" t="n">
-        <v>2.4286166453502354</v>
+        <v>2.4519133410246705</v>
       </c>
       <c r="L618" t="n">
-        <v>2.4519197274166142</v>
+        <v>2.173047659265467</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.7625962404272505</v>
       </c>
       <c r="C622" t="n">
-        <v>0.7197391162735568</v>
+        <v>0.7138255502885761</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7334313205835394</v>
+        <v>0.7432082001621173</v>
       </c>
       <c r="E622" t="n">
-        <v>0.7625962404272505</v>
+        <v>0.671652049260124</v>
       </c>
       <c r="F622" t="n">
-        <v>0.7197391162735568</v>
+        <v>0.6855276084947142</v>
       </c>
       <c r="G622" t="n">
-        <v>0.7334313205835394</v>
+        <v>0.6562158985709171</v>
       </c>
       <c r="H622" t="n">
-        <v>0.7625962404272505</v>
+        <v>0.6734942110823361</v>
       </c>
       <c r="I622" t="n">
-        <v>0.7197391162735568</v>
+        <v>0.7537016248965956</v>
       </c>
       <c r="J622" t="n">
-        <v>0.7334313205835394</v>
+        <v>0.7178110710429667</v>
       </c>
       <c r="K622" t="n">
-        <v>0.7625962404272505</v>
+        <v>0.7409655677940001</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7197391162735568</v>
+        <v>0.6874467785059244</v>
       </c>
     </row>
     <row r="623">
